--- a/Data Sources/Daily Demand/Transport/ET_3.13.xlsx
+++ b/Data Sources/Daily Demand/Transport/ET_3.13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Statistics\Publications\Energy Trends\Tables\Oil and Oil Products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B18A0D-4637-4171-A88A-8AA4FFD75703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E6FE7-EE3A-450C-A9C9-27298DE7EED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="588">
   <si>
     <t>Kerosene</t>
   </si>
@@ -1708,9 +1708,6 @@
     <t>January - December 2022 [provisional]</t>
   </si>
   <si>
-    <t>Deliveries of oil continue to recover, but remain muted compared to pre-pandemic levels</t>
-  </si>
-  <si>
     <t>Other petroleum gases 
 [note 3] [note 4]</t>
   </si>
@@ -1724,22 +1721,13 @@
     <t>Gas oil</t>
   </si>
   <si>
-    <t>Quarter 4 2021 [provisional][Note 6]</t>
-  </si>
-  <si>
     <t>Other petroleum gases 
 [note 3][note 4]</t>
   </si>
   <si>
-    <t>In the latest year</t>
-  </si>
-  <si>
     <t>Natalie Cartwright</t>
   </si>
   <si>
-    <t>0300 068 5360</t>
-  </si>
-  <si>
     <t>Jet fuel</t>
   </si>
   <si>
@@ -1767,34 +1755,46 @@
     <t>December 2021</t>
   </si>
   <si>
-    <t>The revisions period is January 2020 to December 2021
-Revisions are due to updates from data suppliers or the receipt of data replacing estimates unless otherwise stated.
-Deliveries of petrol and diesel will be revised in line with HM Revenue and Customs' Hydrocarbon Oils bulletin. January 2022 petrol and road diesel deliveries are estimated.
-Estimated data will be revised at the earliest opportunity outside of the revisions period where necessary.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This spreadsheet contains monthly data including </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>new data for January 2022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>Quarter 3 2021</t>
+  </si>
+  <si>
+    <t>January - February 2021</t>
+  </si>
+  <si>
+    <t>January - March 2021</t>
+  </si>
+  <si>
+    <t>January - April 2021</t>
+  </si>
+  <si>
+    <t>January - May 2021</t>
+  </si>
+  <si>
+    <t>January - June 2021</t>
+  </si>
+  <si>
+    <t>January - July 2021</t>
+  </si>
+  <si>
+    <t>January - August 2021</t>
+  </si>
+  <si>
+    <t>January - September 2021</t>
+  </si>
+  <si>
+    <t>January - October 2021</t>
+  </si>
+  <si>
+    <t>January - November 2021</t>
+  </si>
+  <si>
+    <t>January - December 2021</t>
+  </si>
+  <si>
+    <t>January 2022</t>
+  </si>
+  <si>
+    <t>Demand is recovering but remains below pre pandemic levels</t>
   </si>
   <si>
     <r>
@@ -1808,7 +1808,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday  31 March 2022</t>
+      <t>Thursday 26 May 2022</t>
     </r>
     <r>
       <rPr>
@@ -1828,62 +1828,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday 28 April 2022</t>
+      <t>Thursday 30 June 2022</t>
     </r>
   </si>
   <si>
-    <t>Quarter 3 2021</t>
-  </si>
-  <si>
-    <t>January - February 2021</t>
-  </si>
-  <si>
-    <t>January - March 2021</t>
-  </si>
-  <si>
-    <t>January - April 2021</t>
-  </si>
-  <si>
-    <t>January - May 2021</t>
-  </si>
-  <si>
-    <t>January - June 2021</t>
-  </si>
-  <si>
-    <t>January - July 2021</t>
-  </si>
-  <si>
-    <t>January - August 2021</t>
-  </si>
-  <si>
-    <t>January - September 2021</t>
-  </si>
-  <si>
-    <t>January - October 2021</t>
-  </si>
-  <si>
-    <t>January - November 2021</t>
-  </si>
-  <si>
-    <t>January - December 2021</t>
-  </si>
-  <si>
-    <t>Demand for jet fuel doubles on the same period last year, yet remains muted compared to pre pandemic levels</t>
-  </si>
-  <si>
-    <t>Demand in the transport sector has helped maintain recovery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total deliveries were up 4.1 per cent in 2021 compared to 2020, which had seen record low demand due to travel restrictions in place to curb the spread of Covid-19. Demand remains down by one-fifth compared to 2019, notably for jet fuel (down by nearly two-thirds). While road fuel demand remains lower than in 2019 (petrol down 13 per cent and diesel 9 per cent), petrol and diesel are each up by 11 and 10 per cent respectively compared to 2020.
+    <r>
+      <t xml:space="preserve">This spreadsheet contains monthly data including </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new data for March 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>The revisions period is January to February 2022
+Revisions are due to updates from data suppliers or the receipt of data replacing estimates unless otherwise stated.
+Deliveries of petrol and diesel are revised in line with HM Revenue and Customs' Hydrocarbon Oils bulletin. January and February 2022 petrol and road diesel deliveries have been revised in line with this data in this current publication.
+Estimated data will be revised at the earliest opportunity outside of the revisions period where necessary.</t>
+  </si>
+  <si>
+    <t>March 2022 [provisional]</t>
+  </si>
+  <si>
+    <t>February 2022</t>
+  </si>
+  <si>
+    <t>Quarter 1 2022 [provisional][Note 6]</t>
+  </si>
+  <si>
+    <t>Quarter 4 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total deliveries were up by a fifth in the three months to March 2022 compared to the same period in the previous year, but remains down 16 per cent compared to the same time in 2019. Increased demand for transport fuels is the main cause of the increase.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Total deliveries were up by 17 per cent in the three months to January 2022 compared to the same period in the previous year, but remain down 12 per cent compared to the same time in 2019. Much of this increased delivery is due to increased demand for transport fuels. 
-</t>
-  </si>
-  <si>
-    <t>Demand for aviation fuel continues to recover, doubling compared with the same period last year. However, when compared to the same period in 2020, jet fuel demand remains just under two thirds of pre-pandemic levels.
-Deliveries of petrol and diesel were up almost a quarter and 14 per cent, respectively, in the three months to January compared to last year. In contrast with aviation fuel, petrol and diesel sales have returned to near pre-pandemic levels.</t>
+    <t>Demand for key transport fuels continue to recover with road fuel demand nearing pre-pandemic levels</t>
+  </si>
+  <si>
+    <t>0300 068 5260</t>
+  </si>
+  <si>
+    <t>Deliveries of petrol and diesel were up 40 per cent for petrol and 15 per cent for diesel in the three months to March compared to last year and demand for each fuel is within 10 per cent of that seen in the first quarter of 2019.
+Demand for aviation fuel continues to recover, more than doubling compared with the same period last year. However, when compared to the same period in 2019 aviation fuel demand remains down by 40 per cent.</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1899,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.000;\-#,##0.000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0;\-#,##0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -2059,6 +2061,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2330,7 +2339,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2538,9 +2547,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2558,9 +2564,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2647,6 +2650,21 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4630,8 +4648,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" ref="A6:M102" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="55" headerRowBorderDxfId="58" tableBorderDxfId="56" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4">
-  <autoFilter ref="A6:M102" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" ref="A6:M103" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="55" headerRowBorderDxfId="58" tableBorderDxfId="56" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4">
+  <autoFilter ref="A6:M103" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4666,7 +4684,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32EC90BF-6925-4350-9731-D694C97366E7}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" ref="A6:M295" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32EC90BF-6925-4350-9731-D694C97366E7}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" ref="A6:M297" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4">
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{C1D016C8-7136-43D1-910A-4E18DF904FCD}" name="Column1" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
     <tableColumn id="2" xr3:uid="{91EC4919-FD31-4FFA-AD1D-9A2EC0119BD1}" name="Total _x000a_[note 1]" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
@@ -5038,10 +5056,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="150.54296875" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="30"/>
+    <col min="2" max="16384" width="8.6328125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
@@ -5060,18 +5078,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="31">
-      <c r="A4" s="89" t="s">
-        <v>569</v>
+      <c r="A4" s="88" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="123" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="89" t="s">
-        <v>568</v>
+      <c r="A6" s="88" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -5080,8 +5098,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="108.5">
-      <c r="A8" s="89" t="s">
-        <v>567</v>
+      <c r="A8" s="88" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -5158,7 +5176,7 @@
     </row>
     <row r="22" spans="1:1" ht="20.25" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20.25" customHeight="1">
@@ -5168,7 +5186,7 @@
     </row>
     <row r="24" spans="1:1" ht="20.25" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20.25" customHeight="1">
@@ -5211,11 +5229,11 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="91.54296875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="32" customWidth="1"/>
-    <col min="3" max="16384" width="9.26953125" style="32"/>
+    <col min="2" max="2" width="15.6328125" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="9.36328125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1">
@@ -5289,7 +5307,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="34.15" customHeight="1">
+    <row r="11" spans="1:2" ht="34.25" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>127</v>
       </c>
@@ -5331,11 +5349,11 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="36" customWidth="1"/>
     <col min="2" max="2" width="99.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.26953125" style="36"/>
+    <col min="3" max="16384" width="9.36328125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1">
@@ -5398,19 +5416,19 @@
         <v>116</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="93"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="26"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -5509,59 +5527,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="150.54296875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="9.26953125" style="28"/>
+    <col min="2" max="16384" width="9.36328125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="45" customHeight="1">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="119" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.5" customHeight="1">
-      <c r="A2" s="85" t="s">
-        <v>555</v>
+    <row r="2" spans="1:1" ht="21">
+      <c r="A2" s="92" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.5">
-      <c r="A3" s="91" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="62">
-      <c r="A4" s="92" t="s">
+      <c r="A3" s="90" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="29" customFormat="1" ht="46.5">
+      <c r="A4" s="120" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21">
-      <c r="A5" s="94" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18.5">
-      <c r="A6" s="91" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="29" customFormat="1" ht="46.5">
-      <c r="A7" s="92" t="s">
+    <row r="5" spans="1:1" ht="18.5">
+      <c r="A5" s="90" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="18.5">
-      <c r="A8" s="91" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="77.5">
-      <c r="A9" s="92" t="s">
-        <v>586</v>
+    <row r="6" spans="1:1" ht="62">
+      <c r="A6" s="122" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -5577,1084 +5580,1084 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="36" style="50" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="50" customWidth="1"/>
     <col min="3" max="3" width="13.54296875" style="50" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="50" customWidth="1"/>
-    <col min="9" max="10" width="11.26953125" style="50" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="50" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="50" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="50" customWidth="1"/>
+    <col min="9" max="10" width="11.36328125" style="50" customWidth="1"/>
+    <col min="11" max="11" width="10.36328125" style="50" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" style="50" customWidth="1"/>
     <col min="13" max="13" width="10.54296875" style="50" customWidth="1"/>
-    <col min="14" max="16384" width="9.26953125" style="50"/>
+    <col min="14" max="16384" width="9.36328125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="84" customFormat="1" ht="45" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="93" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="96" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:13" s="94" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A2" s="94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="96" customFormat="1" ht="20.149999999999999" customHeight="1">
-      <c r="A3" s="96" t="s">
+    <row r="3" spans="1:13" s="94" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="A3" s="94" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="96" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B4" s="97"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="97" t="s">
+    <row r="4" spans="1:13" s="94" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="99"/>
-      <c r="I4" s="97" t="s">
+      <c r="H4" s="97"/>
+      <c r="I4" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="99"/>
-    </row>
-    <row r="5" spans="1:13" s="96" customFormat="1" ht="46.5">
-      <c r="A5" s="100" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
+    </row>
+    <row r="5" spans="1:13" s="94" customFormat="1" ht="46.5">
+      <c r="A5" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="100" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="100" t="s">
+        <v>549</v>
+      </c>
+      <c r="G5" s="99" t="s">
         <v>554</v>
       </c>
-      <c r="E5" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="102" t="s">
+      <c r="H5" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="99" t="s">
         <v>550</v>
       </c>
-      <c r="G5" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="H5" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="101" t="s">
+      <c r="J5" s="101" t="s">
         <v>551</v>
       </c>
-      <c r="J5" s="103" t="s">
-        <v>552</v>
-      </c>
-      <c r="K5" s="102" t="s">
+      <c r="K5" s="100" t="s">
         <v>518</v>
       </c>
-      <c r="L5" s="102" t="s">
+      <c r="L5" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="103" t="s">
+      <c r="M5" s="101" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="96" customFormat="1">
-      <c r="A6" s="104">
+    <row r="6" spans="1:13" s="94" customFormat="1">
+      <c r="A6" s="102">
         <f ca="1">INDIRECT(calculation_hide!P9)</f>
         <v>2017</v>
       </c>
-      <c r="B6" s="105">
+      <c r="B6" s="103">
         <f ca="1">INDIRECT(calculation_hide!Q9)</f>
         <v>67317.88</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="103">
         <f ca="1">INDIRECT(calculation_hide!R9)</f>
         <v>3131.6400000000003</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="103">
         <f ca="1">INDIRECT(calculation_hide!S9)</f>
         <v>1667.54</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="103">
         <f ca="1">INDIRECT(calculation_hide!T9)</f>
         <v>1348.07</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="103">
         <f ca="1">INDIRECT(calculation_hide!U9)</f>
         <v>11793.41</v>
       </c>
-      <c r="G6" s="106">
+      <c r="G6" s="104">
         <f ca="1">INDIRECT(calculation_hide!V9)</f>
         <v>12185.869999999999</v>
       </c>
-      <c r="H6" s="107">
+      <c r="H6" s="105">
         <f ca="1">INDIRECT(calculation_hide!W9)</f>
         <v>3312.1000000000004</v>
       </c>
-      <c r="I6" s="106">
+      <c r="I6" s="104">
         <f ca="1">INDIRECT(calculation_hide!X9)</f>
         <v>24910.92</v>
       </c>
-      <c r="J6" s="107">
+      <c r="J6" s="105">
         <f ca="1">INDIRECT(calculation_hide!Y9)</f>
         <v>5354.6</v>
       </c>
-      <c r="K6" s="105">
+      <c r="K6" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z9)</f>
         <v>557.36</v>
       </c>
-      <c r="L6" s="105">
+      <c r="L6" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA9)</f>
         <v>413.85</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB9)</f>
         <v>1631.83</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="96" customFormat="1">
-      <c r="A7" s="108">
+    <row r="7" spans="1:13" s="94" customFormat="1">
+      <c r="A7" s="106">
         <f ca="1">INDIRECT(calculation_hide!P10)</f>
         <v>2018</v>
       </c>
-      <c r="B7" s="105">
+      <c r="B7" s="103">
         <f ca="1">INDIRECT(calculation_hide!Q10)</f>
         <v>66394.260000000009</v>
       </c>
-      <c r="C7" s="105">
+      <c r="C7" s="103">
         <f ca="1">INDIRECT(calculation_hide!R10)</f>
         <v>3118.4300000000003</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="103">
         <f ca="1">INDIRECT(calculation_hide!S10)</f>
         <v>1445.9</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="103">
         <f ca="1">INDIRECT(calculation_hide!T10)</f>
         <v>1175.79</v>
       </c>
-      <c r="F7" s="105">
+      <c r="F7" s="103">
         <f ca="1">INDIRECT(calculation_hide!U10)</f>
         <v>11584</v>
       </c>
-      <c r="G7" s="106">
+      <c r="G7" s="104">
         <f ca="1">INDIRECT(calculation_hide!V10)</f>
         <v>12272.160000000002</v>
       </c>
-      <c r="H7" s="107">
+      <c r="H7" s="105">
         <f ca="1">INDIRECT(calculation_hide!W10)</f>
         <v>3435.1400000000003</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="104">
         <f ca="1">INDIRECT(calculation_hide!X10)</f>
         <v>24626.67</v>
       </c>
-      <c r="J7" s="107">
+      <c r="J7" s="105">
         <f ca="1">INDIRECT(calculation_hide!Y10)</f>
         <v>5350.56</v>
       </c>
-      <c r="K7" s="105">
+      <c r="K7" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z10)</f>
         <v>450.49</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA10)</f>
         <v>369.46999999999997</v>
       </c>
-      <c r="M7" s="105">
+      <c r="M7" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB10)</f>
         <v>1601.46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="96" customFormat="1">
-      <c r="A8" s="108">
+    <row r="8" spans="1:13" s="94" customFormat="1">
+      <c r="A8" s="106">
         <f ca="1">INDIRECT(calculation_hide!P11)</f>
         <v>2019</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="103">
         <f ca="1">INDIRECT(calculation_hide!Q11)</f>
         <v>64803.270000000004</v>
       </c>
-      <c r="C8" s="105">
+      <c r="C8" s="103">
         <f ca="1">INDIRECT(calculation_hide!R11)</f>
         <v>3109.1099999999997</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="103">
         <f ca="1">INDIRECT(calculation_hide!S11)</f>
         <v>1100.6399999999999</v>
       </c>
-      <c r="E8" s="105">
+      <c r="E8" s="103">
         <f ca="1">INDIRECT(calculation_hide!T11)</f>
         <v>1210.42</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="103">
         <f ca="1">INDIRECT(calculation_hide!U11)</f>
         <v>11713.420000000002</v>
       </c>
-      <c r="G8" s="106">
+      <c r="G8" s="104">
         <f ca="1">INDIRECT(calculation_hide!V11)</f>
         <v>12318.630000000001</v>
       </c>
-      <c r="H8" s="107">
+      <c r="H8" s="105">
         <f ca="1">INDIRECT(calculation_hide!W11)</f>
         <v>3209.5999999999995</v>
       </c>
-      <c r="I8" s="106">
+      <c r="I8" s="104">
         <f ca="1">INDIRECT(calculation_hide!X11)</f>
         <v>23806.079999999998</v>
       </c>
-      <c r="J8" s="107">
+      <c r="J8" s="105">
         <f ca="1">INDIRECT(calculation_hide!Y11)</f>
         <v>5128.59</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z11)</f>
         <v>328.03999999999996</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA11)</f>
         <v>358.16999999999996</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB11)</f>
         <v>1662.5200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="96" customFormat="1">
-      <c r="A9" s="108">
+    <row r="9" spans="1:13" s="94" customFormat="1">
+      <c r="A9" s="106">
         <f ca="1">INDIRECT(calculation_hide!P12)</f>
         <v>2020</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="103">
         <f ca="1">INDIRECT(calculation_hide!Q12)</f>
         <v>49674.36</v>
       </c>
-      <c r="C9" s="105">
+      <c r="C9" s="103">
         <f ca="1">INDIRECT(calculation_hide!R12)</f>
         <v>2730.25</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="103">
         <f ca="1">INDIRECT(calculation_hide!S12)</f>
         <v>1110.83</v>
       </c>
-      <c r="E9" s="105">
+      <c r="E9" s="103">
         <f ca="1">INDIRECT(calculation_hide!T12)</f>
         <v>1328.03</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="103">
         <f ca="1">INDIRECT(calculation_hide!U12)</f>
         <v>9144.48</v>
       </c>
-      <c r="G9" s="106">
+      <c r="G9" s="104">
         <f ca="1">INDIRECT(calculation_hide!V12)</f>
         <v>5061.7999999999993</v>
       </c>
-      <c r="H9" s="107">
+      <c r="H9" s="105">
         <f ca="1">INDIRECT(calculation_hide!W12)</f>
         <v>3542.6399999999994</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="104">
         <f ca="1">INDIRECT(calculation_hide!X12)</f>
         <v>19693.510000000002</v>
       </c>
-      <c r="J9" s="107">
+      <c r="J9" s="105">
         <f ca="1">INDIRECT(calculation_hide!Y12)</f>
         <v>4260.13</v>
       </c>
-      <c r="K9" s="105">
+      <c r="K9" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z12)</f>
         <v>229.84000000000003</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA12)</f>
         <v>293.02999999999997</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB12)</f>
         <v>1580.8899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="96" customFormat="1">
-      <c r="A10" s="108" t="str">
+    <row r="10" spans="1:13" s="94" customFormat="1">
+      <c r="A10" s="106" t="str">
         <f ca="1">INDIRECT(calculation_hide!P13)</f>
         <v>2021 [provisional]</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B10" s="103">
         <f ca="1">INDIRECT(calculation_hide!Q13)</f>
         <v>51709.440000000002</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="103">
         <f ca="1">INDIRECT(calculation_hide!R13)</f>
         <v>2746.69</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="103">
         <f ca="1">INDIRECT(calculation_hide!S13)</f>
         <v>884.67000000000007</v>
       </c>
-      <c r="E10" s="105">
+      <c r="E10" s="103">
         <f ca="1">INDIRECT(calculation_hide!T13)</f>
         <v>177.89000000000001</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="103">
         <f ca="1">INDIRECT(calculation_hide!U13)</f>
         <v>10159.380000000001</v>
       </c>
-      <c r="G10" s="106">
+      <c r="G10" s="104">
         <f ca="1">INDIRECT(calculation_hide!V13)</f>
         <v>4672.9400000000005</v>
       </c>
-      <c r="H10" s="107">
+      <c r="H10" s="105">
         <f ca="1">INDIRECT(calculation_hide!W13)</f>
         <v>3516.69</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="104">
         <f ca="1">INDIRECT(calculation_hide!X13)</f>
         <v>21727.199999999997</v>
       </c>
-      <c r="J10" s="107">
+      <c r="J10" s="105">
         <f ca="1">INDIRECT(calculation_hide!Y13)</f>
         <v>4797.63</v>
       </c>
-      <c r="K10" s="105">
+      <c r="K10" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z13)</f>
         <v>231.62000000000003</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA13)</f>
         <v>300.38</v>
       </c>
-      <c r="M10" s="105">
+      <c r="M10" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB13)</f>
         <v>1846.7700000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="96" customFormat="1">
-      <c r="A11" s="109" t="s">
+    <row r="11" spans="1:13" s="94" customFormat="1">
+      <c r="A11" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="110" t="str">
+      <c r="B11" s="108" t="str">
         <f t="shared" ref="B11:M11" ca="1" si="0">IF(((B10-B9)/B9*100)&gt;100,"(+) ",IF(((B10-B9)/B9*100)&lt;-100,"(-) ",IF(ROUND(((B10-B9)/B9*100),1)=0,"- ",IF(((B10-B9)/B9*100)&gt;0,TEXT(((B10-B9)/B9*100),"+0.0 "),TEXT(((B10-B9)/B9*100),"0.0 ")))))</f>
         <v xml:space="preserve">+4.1 </v>
       </c>
-      <c r="C11" s="110" t="str">
+      <c r="C11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+0.6 </v>
       </c>
-      <c r="D11" s="110" t="str">
+      <c r="D11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-20.4 </v>
       </c>
-      <c r="E11" s="110" t="str">
+      <c r="E11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-86.6 </v>
       </c>
-      <c r="F11" s="110" t="str">
+      <c r="F11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+11.1 </v>
       </c>
-      <c r="G11" s="111" t="str">
+      <c r="G11" s="109" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-7.7 </v>
       </c>
-      <c r="H11" s="112" t="str">
+      <c r="H11" s="110" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-0.7 </v>
       </c>
-      <c r="I11" s="111" t="str">
+      <c r="I11" s="109" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+10.3 </v>
       </c>
-      <c r="J11" s="112" t="str">
+      <c r="J11" s="110" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+12.6 </v>
       </c>
-      <c r="K11" s="110" t="str">
+      <c r="K11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+0.8 </v>
       </c>
-      <c r="L11" s="110" t="str">
+      <c r="L11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+2.5 </v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="110" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+16.8 </v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="96" customFormat="1">
-      <c r="A12" s="105" t="str">
+    <row r="12" spans="1:13" s="94" customFormat="1">
+      <c r="A12" s="103" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q40)</f>
-        <v>January 2021</v>
-      </c>
-      <c r="B12" s="113">
+        <v>January - March 2021</v>
+      </c>
+      <c r="B12" s="111">
         <f ca="1">INDIRECT(calculation_hide!R40)</f>
-        <v>3732.94</v>
-      </c>
-      <c r="C12" s="105">
+        <v>11220.89</v>
+      </c>
+      <c r="C12" s="103">
         <f ca="1">INDIRECT(calculation_hide!S40)</f>
-        <v>243.85</v>
-      </c>
-      <c r="D12" s="105">
+        <v>743.27</v>
+      </c>
+      <c r="D12" s="103">
         <f ca="1">INDIRECT(calculation_hide!T40)</f>
-        <v>105.33</v>
-      </c>
-      <c r="E12" s="105">
+        <v>310.52</v>
+      </c>
+      <c r="E12" s="103">
         <f ca="1">INDIRECT(calculation_hide!U40)</f>
-        <v>11.77</v>
-      </c>
-      <c r="F12" s="105">
+        <v>63.97</v>
+      </c>
+      <c r="F12" s="103">
         <f ca="1">INDIRECT(calculation_hide!V40)</f>
-        <v>719.9</v>
-      </c>
-      <c r="G12" s="106">
+        <v>1829.56</v>
+      </c>
+      <c r="G12" s="104">
         <f ca="1">INDIRECT(calculation_hide!W40)</f>
-        <v>254.14</v>
-      </c>
-      <c r="H12" s="107">
+        <v>728.41</v>
+      </c>
+      <c r="H12" s="105">
         <f ca="1">INDIRECT(calculation_hide!X40)</f>
-        <v>429.28</v>
-      </c>
-      <c r="I12" s="106">
+        <v>1239.9299999999998</v>
+      </c>
+      <c r="I12" s="104">
         <f ca="1">INDIRECT(calculation_hide!Y40)</f>
-        <v>1449.29</v>
-      </c>
-      <c r="J12" s="107">
+        <v>4565.6399999999994</v>
+      </c>
+      <c r="J12" s="105">
         <f ca="1">INDIRECT(calculation_hide!Z40)</f>
-        <v>330.19</v>
-      </c>
-      <c r="K12" s="105">
+        <v>1080.43</v>
+      </c>
+      <c r="K12" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA40)</f>
-        <v>27.71</v>
-      </c>
-      <c r="L12" s="105">
+        <v>69.710000000000008</v>
+      </c>
+      <c r="L12" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB40)</f>
-        <v>20.079999999999998</v>
-      </c>
-      <c r="M12" s="105">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="M12" s="103">
         <f ca="1">INDIRECT(calculation_hide!AC40)</f>
-        <v>82.29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="96" customFormat="1">
-      <c r="A13" s="105" t="str">
+        <v>374.84000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="94" customFormat="1">
+      <c r="A13" s="103" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q41)</f>
-        <v>January 2022 [provisional]</v>
-      </c>
-      <c r="B13" s="114">
+        <v>January - March 2022 [provisional]</v>
+      </c>
+      <c r="B13" s="112">
         <f ca="1">INDIRECT(calculation_hide!R41)</f>
-        <v>4384.2</v>
-      </c>
-      <c r="C13" s="105">
+        <v>13354.18</v>
+      </c>
+      <c r="C13" s="103">
         <f ca="1">INDIRECT(calculation_hide!S41)</f>
-        <v>273.75</v>
-      </c>
-      <c r="D13" s="105">
+        <v>866.03</v>
+      </c>
+      <c r="D13" s="103">
         <f ca="1">INDIRECT(calculation_hide!T41)</f>
-        <v>52.62</v>
-      </c>
-      <c r="E13" s="105">
+        <v>158.31</v>
+      </c>
+      <c r="E13" s="103">
         <f ca="1">INDIRECT(calculation_hide!U41)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F13" s="105">
+        <v>5.82</v>
+      </c>
+      <c r="F13" s="103">
         <f ca="1">INDIRECT(calculation_hide!V41)</f>
-        <v>882.19</v>
-      </c>
-      <c r="G13" s="106">
+        <v>2569.79</v>
+      </c>
+      <c r="G13" s="104">
         <f ca="1">INDIRECT(calculation_hide!W41)</f>
-        <v>502.2</v>
-      </c>
-      <c r="H13" s="107">
+        <v>1649.01</v>
+      </c>
+      <c r="H13" s="105">
         <f ca="1">INDIRECT(calculation_hide!X41)</f>
-        <v>355.83</v>
-      </c>
-      <c r="I13" s="106">
+        <v>1107.02</v>
+      </c>
+      <c r="I13" s="104">
         <f ca="1">INDIRECT(calculation_hide!Y41)</f>
-        <v>1780.61</v>
-      </c>
-      <c r="J13" s="107">
+        <v>5263.05</v>
+      </c>
+      <c r="J13" s="105">
         <f ca="1">INDIRECT(calculation_hide!Z41)</f>
-        <v>320.91000000000003</v>
-      </c>
-      <c r="K13" s="105">
+        <v>1095.1400000000001</v>
+      </c>
+      <c r="K13" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA41)</f>
-        <v>57.04</v>
-      </c>
-      <c r="L13" s="105">
+        <v>62.08</v>
+      </c>
+      <c r="L13" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB41)</f>
-        <v>19.079999999999998</v>
-      </c>
-      <c r="M13" s="105">
+        <v>63.03</v>
+      </c>
+      <c r="M13" s="103">
         <f ca="1">INDIRECT(calculation_hide!AC41)</f>
-        <v>97.64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="96" customFormat="1">
-      <c r="A14" s="109" t="s">
+        <v>375.58000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="94" customFormat="1">
+      <c r="A14" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="110" t="str">
+      <c r="B14" s="108" t="str">
         <f t="shared" ref="B14:M14" ca="1" si="1">IF(((B13-B12)/B12*100)&gt;100,"(+) ",IF(((B13-B12)/B12*100)&lt;-100,"(-) ",IF(ROUND(((B13-B12)/B12*100),1)=0,"- ",IF(((B13-B12)/B12*100)&gt;0,TEXT(((B13-B12)/B12*100),"+0.0 "),TEXT(((B13-B12)/B12*100),"0.0 ")))))</f>
-        <v xml:space="preserve">+17.4 </v>
-      </c>
-      <c r="C14" s="110" t="str">
+        <v xml:space="preserve">+19.0 </v>
+      </c>
+      <c r="C14" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+12.3 </v>
-      </c>
-      <c r="D14" s="110" t="str">
+        <v xml:space="preserve">+16.5 </v>
+      </c>
+      <c r="D14" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-50.0 </v>
-      </c>
-      <c r="E14" s="110" t="str">
+        <v xml:space="preserve">-49.0 </v>
+      </c>
+      <c r="E14" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-98.8 </v>
-      </c>
-      <c r="F14" s="110" t="str">
+        <v xml:space="preserve">-90.9 </v>
+      </c>
+      <c r="F14" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+22.5 </v>
-      </c>
-      <c r="G14" s="111" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+97.6 </v>
-      </c>
-      <c r="H14" s="112" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-17.1 </v>
-      </c>
-      <c r="I14" s="111" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+22.9 </v>
-      </c>
-      <c r="J14" s="112" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-2.8 </v>
-      </c>
-      <c r="K14" s="110" t="str">
+        <v xml:space="preserve">+40.5 </v>
+      </c>
+      <c r="G14" s="109" t="str">
         <f t="shared" ca="1" si="1"/>
         <v xml:space="preserve">(+) </v>
       </c>
-      <c r="L14" s="110" t="str">
+      <c r="H14" s="110" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-5.0 </v>
-      </c>
-      <c r="M14" s="112" t="str">
+        <v xml:space="preserve">-10.7 </v>
+      </c>
+      <c r="I14" s="109" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+18.7 </v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="96" customFormat="1">
-      <c r="A15" s="108" t="str">
+        <v xml:space="preserve">+15.3 </v>
+      </c>
+      <c r="J14" s="110" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">+1.4 </v>
+      </c>
+      <c r="K14" s="108" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">-10.9 </v>
+      </c>
+      <c r="L14" s="108" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">-12.3 </v>
+      </c>
+      <c r="M14" s="110" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">+0.2 </v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="94" customFormat="1">
+      <c r="A15" s="106" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q21)</f>
-        <v>November 2020</v>
-      </c>
-      <c r="B15" s="105">
+        <v>January 2021</v>
+      </c>
+      <c r="B15" s="103">
         <f ca="1">INDIRECT(calculation_hide!R21)</f>
-        <v>4206.26</v>
-      </c>
-      <c r="C15" s="105">
+        <v>3732.94</v>
+      </c>
+      <c r="C15" s="103">
         <f ca="1">INDIRECT(calculation_hide!S21)</f>
-        <v>222.97</v>
-      </c>
-      <c r="D15" s="105">
+        <v>243.85</v>
+      </c>
+      <c r="D15" s="103">
         <f ca="1">INDIRECT(calculation_hide!T21)</f>
-        <v>89.83</v>
-      </c>
-      <c r="E15" s="105">
+        <v>105.33</v>
+      </c>
+      <c r="E15" s="103">
         <f ca="1">INDIRECT(calculation_hide!U21)</f>
-        <v>32.22</v>
-      </c>
-      <c r="F15" s="105">
+        <v>11.77</v>
+      </c>
+      <c r="F15" s="103">
         <f ca="1">INDIRECT(calculation_hide!V21)</f>
-        <v>800.03</v>
-      </c>
-      <c r="G15" s="106">
+        <v>719.9</v>
+      </c>
+      <c r="G15" s="104">
         <f ca="1">INDIRECT(calculation_hide!W21)</f>
-        <v>291.27999999999997</v>
-      </c>
-      <c r="H15" s="107">
+        <v>254.14</v>
+      </c>
+      <c r="H15" s="105">
         <f ca="1">INDIRECT(calculation_hide!X21)</f>
-        <v>315.06</v>
-      </c>
-      <c r="I15" s="106">
+        <v>429.28</v>
+      </c>
+      <c r="I15" s="104">
         <f ca="1">INDIRECT(calculation_hide!Y21)</f>
-        <v>1834.66</v>
-      </c>
-      <c r="J15" s="107">
+        <v>1449.29</v>
+      </c>
+      <c r="J15" s="105">
         <f ca="1">INDIRECT(calculation_hide!Z21)</f>
-        <v>364.05</v>
-      </c>
-      <c r="K15" s="105">
+        <v>330.19</v>
+      </c>
+      <c r="K15" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA21)</f>
-        <v>23.54</v>
-      </c>
-      <c r="L15" s="105">
+        <v>27.71</v>
+      </c>
+      <c r="L15" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB21)</f>
-        <v>26.14</v>
-      </c>
-      <c r="M15" s="105">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="M15" s="103">
         <f ca="1">INDIRECT(calculation_hide!AC21)</f>
-        <v>162.07</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="96" customFormat="1">
-      <c r="A16" s="108" t="str">
+        <v>82.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="94" customFormat="1">
+      <c r="A16" s="106" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q22)</f>
-        <v>December 2020</v>
-      </c>
-      <c r="B16" s="105">
+        <v>February 2021</v>
+      </c>
+      <c r="B16" s="103">
         <f ca="1">INDIRECT(calculation_hide!R22)</f>
-        <v>4100.3</v>
-      </c>
-      <c r="C16" s="105">
+        <v>3629.64</v>
+      </c>
+      <c r="C16" s="103">
         <f ca="1">INDIRECT(calculation_hide!S22)</f>
-        <v>218.1</v>
-      </c>
-      <c r="D16" s="105">
+        <v>234.75</v>
+      </c>
+      <c r="D16" s="103">
         <f ca="1">INDIRECT(calculation_hide!T22)</f>
-        <v>96.1</v>
-      </c>
-      <c r="E16" s="105">
+        <v>95.84</v>
+      </c>
+      <c r="E16" s="103">
         <f ca="1">INDIRECT(calculation_hide!U22)</f>
-        <v>58.17</v>
-      </c>
-      <c r="F16" s="105">
+        <v>24.84</v>
+      </c>
+      <c r="F16" s="103">
         <f ca="1">INDIRECT(calculation_hide!V22)</f>
-        <v>692.34</v>
-      </c>
-      <c r="G16" s="106">
+        <v>524.6</v>
+      </c>
+      <c r="G16" s="104">
         <f ca="1">INDIRECT(calculation_hide!W22)</f>
-        <v>322.56</v>
-      </c>
-      <c r="H16" s="107">
+        <v>215.03</v>
+      </c>
+      <c r="H16" s="105">
         <f ca="1">INDIRECT(calculation_hide!X22)</f>
-        <v>429.65</v>
-      </c>
-      <c r="I16" s="106">
+        <v>436.34</v>
+      </c>
+      <c r="I16" s="104">
         <f ca="1">INDIRECT(calculation_hide!Y22)</f>
-        <v>1750.23</v>
-      </c>
-      <c r="J16" s="107">
+        <v>1531.81</v>
+      </c>
+      <c r="J16" s="105">
         <f ca="1">INDIRECT(calculation_hide!Z22)</f>
-        <v>322.08999999999997</v>
-      </c>
-      <c r="K16" s="105">
+        <v>366.66</v>
+      </c>
+      <c r="K16" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA22)</f>
-        <v>18.62</v>
-      </c>
-      <c r="L16" s="105">
+        <v>21.72</v>
+      </c>
+      <c r="L16" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB22)</f>
-        <v>27.79</v>
-      </c>
-      <c r="M16" s="105">
+        <v>22.7</v>
+      </c>
+      <c r="M16" s="103">
         <f ca="1">INDIRECT(calculation_hide!AC22)</f>
-        <v>116.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="96" customFormat="1">
-      <c r="A17" s="108" t="str">
+        <v>112.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="94" customFormat="1">
+      <c r="A17" s="106" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q23)</f>
-        <v>January 2021</v>
-      </c>
-      <c r="B17" s="105">
+        <v>March 2021</v>
+      </c>
+      <c r="B17" s="103">
         <f ca="1">INDIRECT(calculation_hide!R23)</f>
-        <v>3732.94</v>
-      </c>
-      <c r="C17" s="105">
+        <v>3858.31</v>
+      </c>
+      <c r="C17" s="103">
         <f ca="1">INDIRECT(calculation_hide!S23)</f>
-        <v>243.85</v>
-      </c>
-      <c r="D17" s="105">
+        <v>264.67</v>
+      </c>
+      <c r="D17" s="103">
         <f ca="1">INDIRECT(calculation_hide!T23)</f>
-        <v>105.33</v>
-      </c>
-      <c r="E17" s="105">
+        <v>109.35</v>
+      </c>
+      <c r="E17" s="103">
         <f ca="1">INDIRECT(calculation_hide!U23)</f>
-        <v>11.77</v>
-      </c>
-      <c r="F17" s="105">
+        <v>27.36</v>
+      </c>
+      <c r="F17" s="103">
         <f ca="1">INDIRECT(calculation_hide!V23)</f>
-        <v>719.9</v>
-      </c>
-      <c r="G17" s="106">
+        <v>585.05999999999995</v>
+      </c>
+      <c r="G17" s="104">
         <f ca="1">INDIRECT(calculation_hide!W23)</f>
-        <v>254.14</v>
-      </c>
-      <c r="H17" s="107">
+        <v>259.24</v>
+      </c>
+      <c r="H17" s="105">
         <f ca="1">INDIRECT(calculation_hide!X23)</f>
-        <v>429.28</v>
-      </c>
-      <c r="I17" s="106">
+        <v>374.31</v>
+      </c>
+      <c r="I17" s="104">
         <f ca="1">INDIRECT(calculation_hide!Y23)</f>
-        <v>1449.29</v>
-      </c>
-      <c r="J17" s="107">
+        <v>1584.54</v>
+      </c>
+      <c r="J17" s="105">
         <f ca="1">INDIRECT(calculation_hide!Z23)</f>
-        <v>330.19</v>
-      </c>
-      <c r="K17" s="105">
+        <v>383.58</v>
+      </c>
+      <c r="K17" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA23)</f>
-        <v>27.71</v>
-      </c>
-      <c r="L17" s="105">
+        <v>20.28</v>
+      </c>
+      <c r="L17" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB23)</f>
-        <v>20.079999999999998</v>
-      </c>
-      <c r="M17" s="105">
+        <v>29.12</v>
+      </c>
+      <c r="M17" s="103">
         <f ca="1">INDIRECT(calculation_hide!AC23)</f>
-        <v>82.29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="96" customFormat="1">
-      <c r="A18" s="115" t="s">
+        <v>179.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="94" customFormat="1">
+      <c r="A18" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="116">
+      <c r="B18" s="114">
         <f t="shared" ref="B18:M18" ca="1" si="2">SUM(B15:B17)</f>
-        <v>12039.500000000002</v>
-      </c>
-      <c r="C18" s="116">
+        <v>11220.89</v>
+      </c>
+      <c r="C18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>684.92</v>
-      </c>
-      <c r="D18" s="116">
+        <v>743.27</v>
+      </c>
+      <c r="D18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>291.26</v>
-      </c>
-      <c r="E18" s="116">
+        <v>310.52</v>
+      </c>
+      <c r="E18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>102.16</v>
-      </c>
-      <c r="F18" s="116">
+        <v>63.97</v>
+      </c>
+      <c r="F18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>2212.27</v>
-      </c>
-      <c r="G18" s="117">
+        <v>1829.56</v>
+      </c>
+      <c r="G18" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>867.9799999999999</v>
-      </c>
-      <c r="H18" s="118">
+        <v>728.41</v>
+      </c>
+      <c r="H18" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>1173.99</v>
-      </c>
-      <c r="I18" s="117">
+        <v>1239.9299999999998</v>
+      </c>
+      <c r="I18" s="115">
         <f t="shared" ca="1" si="2"/>
-        <v>5034.18</v>
-      </c>
-      <c r="J18" s="118">
+        <v>4565.6399999999994</v>
+      </c>
+      <c r="J18" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>1016.3299999999999</v>
-      </c>
-      <c r="K18" s="116">
+        <v>1080.43</v>
+      </c>
+      <c r="K18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>69.87</v>
-      </c>
-      <c r="L18" s="116">
+        <v>69.710000000000008</v>
+      </c>
+      <c r="L18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>74.009999999999991</v>
-      </c>
-      <c r="M18" s="118">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="M18" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>360.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="96" customFormat="1">
-      <c r="A19" s="108" t="str">
+        <v>374.84000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="94" customFormat="1">
+      <c r="A19" s="106" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q33)</f>
-        <v>November 2021</v>
-      </c>
-      <c r="B19" s="105">
+        <v>January 2022</v>
+      </c>
+      <c r="B19" s="103">
         <f ca="1">INDIRECT(calculation_hide!R33)</f>
-        <v>4706.5600000000004</v>
-      </c>
-      <c r="C19" s="105">
+        <v>4126.68</v>
+      </c>
+      <c r="C19" s="103">
         <f ca="1">INDIRECT(calculation_hide!S33)</f>
-        <v>264.13</v>
-      </c>
-      <c r="D19" s="105">
+        <v>273.76</v>
+      </c>
+      <c r="D19" s="103">
         <f ca="1">INDIRECT(calculation_hide!T33)</f>
-        <v>70.959999999999994</v>
-      </c>
-      <c r="E19" s="105">
+        <v>52.62</v>
+      </c>
+      <c r="E19" s="103">
         <f ca="1">INDIRECT(calculation_hide!U33)</f>
-        <v>2.82</v>
-      </c>
-      <c r="F19" s="105">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F19" s="103">
         <f ca="1">INDIRECT(calculation_hide!V33)</f>
-        <v>924.92</v>
-      </c>
-      <c r="G19" s="106">
+        <v>843.81</v>
+      </c>
+      <c r="G19" s="104">
         <f ca="1">INDIRECT(calculation_hide!W33)</f>
-        <v>530.52</v>
-      </c>
-      <c r="H19" s="107">
+        <v>502.2</v>
+      </c>
+      <c r="H19" s="105">
         <f ca="1">INDIRECT(calculation_hide!X33)</f>
-        <v>307.08999999999997</v>
-      </c>
-      <c r="I19" s="106">
+        <v>362.35</v>
+      </c>
+      <c r="I19" s="104">
         <f ca="1">INDIRECT(calculation_hide!Y33)</f>
-        <v>1946.17</v>
-      </c>
-      <c r="J19" s="107">
+        <v>1591.75</v>
+      </c>
+      <c r="J19" s="105">
         <f ca="1">INDIRECT(calculation_hide!Z33)</f>
-        <v>400.96</v>
-      </c>
-      <c r="K19" s="105">
+        <v>317.58</v>
+      </c>
+      <c r="K19" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA33)</f>
-        <v>21.41</v>
-      </c>
-      <c r="L19" s="105">
+        <v>23.56</v>
+      </c>
+      <c r="L19" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB33)</f>
-        <v>20.22</v>
-      </c>
-      <c r="M19" s="105">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="M19" s="103">
         <f ca="1">INDIRECT(calculation_hide!AC33)</f>
-        <v>166.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="96" customFormat="1">
-      <c r="A20" s="108" t="str">
+        <v>97.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="94" customFormat="1">
+      <c r="A20" s="106" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q34)</f>
-        <v>December 2021</v>
-      </c>
-      <c r="B20" s="105">
+        <v>February 2022</v>
+      </c>
+      <c r="B20" s="103">
         <f ca="1">INDIRECT(calculation_hide!R34)</f>
-        <v>4937.0200000000004</v>
-      </c>
-      <c r="C20" s="105">
+        <v>4504.88</v>
+      </c>
+      <c r="C20" s="103">
         <f ca="1">INDIRECT(calculation_hide!S34)</f>
-        <v>231.89</v>
-      </c>
-      <c r="D20" s="105">
+        <v>269.36</v>
+      </c>
+      <c r="D20" s="103">
         <f ca="1">INDIRECT(calculation_hide!T34)</f>
-        <v>74.650000000000006</v>
-      </c>
-      <c r="E20" s="105">
+        <v>46.09</v>
+      </c>
+      <c r="E20" s="103">
         <f ca="1">INDIRECT(calculation_hide!U34)</f>
-        <v>5.7</v>
-      </c>
-      <c r="F20" s="105">
+        <v>4.12</v>
+      </c>
+      <c r="F20" s="103">
         <f ca="1">INDIRECT(calculation_hide!V34)</f>
-        <v>947</v>
-      </c>
-      <c r="G20" s="106">
+        <v>867.86</v>
+      </c>
+      <c r="G20" s="104">
         <f ca="1">INDIRECT(calculation_hide!W34)</f>
-        <v>715.73</v>
-      </c>
-      <c r="H20" s="107">
+        <v>505.96</v>
+      </c>
+      <c r="H20" s="105">
         <f ca="1">INDIRECT(calculation_hide!X34)</f>
-        <v>409.3</v>
-      </c>
-      <c r="I20" s="106">
+        <v>382.64</v>
+      </c>
+      <c r="I20" s="104">
         <f ca="1">INDIRECT(calculation_hide!Y34)</f>
-        <v>1987.65</v>
-      </c>
-      <c r="J20" s="107">
+        <v>1862.54</v>
+      </c>
+      <c r="J20" s="105">
         <f ca="1">INDIRECT(calculation_hide!Z34)</f>
-        <v>346.87</v>
-      </c>
-      <c r="K20" s="105">
+        <v>372.86</v>
+      </c>
+      <c r="K20" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA34)</f>
-        <v>16.2</v>
-      </c>
-      <c r="L20" s="105">
+        <v>13.98</v>
+      </c>
+      <c r="L20" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB34)</f>
-        <v>24.23</v>
-      </c>
-      <c r="M20" s="105">
+        <v>20.53</v>
+      </c>
+      <c r="M20" s="103">
         <f ca="1">INDIRECT(calculation_hide!AC34)</f>
-        <v>110.54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="96" customFormat="1">
-      <c r="A21" s="108" t="str">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="94" customFormat="1">
+      <c r="A21" s="106" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q35)</f>
-        <v>January 2022 [provisional]</v>
-      </c>
-      <c r="B21" s="105">
+        <v>March 2022 [provisional]</v>
+      </c>
+      <c r="B21" s="103">
         <f ca="1">INDIRECT(calculation_hide!R35)</f>
-        <v>4384.2</v>
-      </c>
-      <c r="C21" s="105">
+        <v>4722.62</v>
+      </c>
+      <c r="C21" s="103">
         <f ca="1">INDIRECT(calculation_hide!S35)</f>
-        <v>273.75</v>
-      </c>
-      <c r="D21" s="105">
+        <v>322.91000000000003</v>
+      </c>
+      <c r="D21" s="103">
         <f ca="1">INDIRECT(calculation_hide!T35)</f>
-        <v>52.62</v>
-      </c>
-      <c r="E21" s="105">
+        <v>59.6</v>
+      </c>
+      <c r="E21" s="103">
         <f ca="1">INDIRECT(calculation_hide!U35)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F21" s="105">
+        <v>1.56</v>
+      </c>
+      <c r="F21" s="103">
         <f ca="1">INDIRECT(calculation_hide!V35)</f>
-        <v>882.19</v>
-      </c>
-      <c r="G21" s="106">
+        <v>858.12</v>
+      </c>
+      <c r="G21" s="104">
         <f ca="1">INDIRECT(calculation_hide!W35)</f>
-        <v>502.2</v>
-      </c>
-      <c r="H21" s="107">
+        <v>640.85</v>
+      </c>
+      <c r="H21" s="105">
         <f ca="1">INDIRECT(calculation_hide!X35)</f>
-        <v>355.83</v>
-      </c>
-      <c r="I21" s="106">
+        <v>362.03</v>
+      </c>
+      <c r="I21" s="104">
         <f ca="1">INDIRECT(calculation_hide!Y35)</f>
-        <v>1780.61</v>
-      </c>
-      <c r="J21" s="107">
+        <v>1808.76</v>
+      </c>
+      <c r="J21" s="105">
         <f ca="1">INDIRECT(calculation_hide!Z35)</f>
-        <v>320.91000000000003</v>
-      </c>
-      <c r="K21" s="105">
+        <v>404.7</v>
+      </c>
+      <c r="K21" s="103">
         <f ca="1">INDIRECT(calculation_hide!AA35)</f>
-        <v>57.04</v>
-      </c>
-      <c r="L21" s="105">
+        <v>24.54</v>
+      </c>
+      <c r="L21" s="103">
         <f ca="1">INDIRECT(calculation_hide!AB35)</f>
-        <v>19.079999999999998</v>
-      </c>
-      <c r="M21" s="105">
+        <v>23.42</v>
+      </c>
+      <c r="M21" s="103">
         <f ca="1">INDIRECT(calculation_hide!AC35)</f>
-        <v>97.64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="96" customFormat="1">
-      <c r="A22" s="115" t="s">
+        <v>166.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="94" customFormat="1">
+      <c r="A22" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="116">
+      <c r="B22" s="114">
         <f t="shared" ref="B22:M22" ca="1" si="3">SUM(B19:B21)</f>
-        <v>14027.780000000002</v>
-      </c>
-      <c r="C22" s="116">
+        <v>13354.18</v>
+      </c>
+      <c r="C22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>769.77</v>
-      </c>
-      <c r="D22" s="116">
+        <v>866.03</v>
+      </c>
+      <c r="D22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>198.23000000000002</v>
-      </c>
-      <c r="E22" s="116">
+        <v>158.31</v>
+      </c>
+      <c r="E22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>8.66</v>
-      </c>
-      <c r="F22" s="116">
+        <v>5.82</v>
+      </c>
+      <c r="F22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>2754.11</v>
-      </c>
-      <c r="G22" s="117">
+        <v>2569.79</v>
+      </c>
+      <c r="G22" s="115">
         <f t="shared" ca="1" si="3"/>
-        <v>1748.45</v>
-      </c>
-      <c r="H22" s="118">
+        <v>1649.01</v>
+      </c>
+      <c r="H22" s="116">
         <f t="shared" ca="1" si="3"/>
-        <v>1072.22</v>
-      </c>
-      <c r="I22" s="117">
+        <v>1107.02</v>
+      </c>
+      <c r="I22" s="115">
         <f t="shared" ca="1" si="3"/>
-        <v>5714.43</v>
-      </c>
-      <c r="J22" s="118">
+        <v>5263.05</v>
+      </c>
+      <c r="J22" s="116">
         <f t="shared" ca="1" si="3"/>
-        <v>1068.74</v>
-      </c>
-      <c r="K22" s="116">
+        <v>1095.1400000000001</v>
+      </c>
+      <c r="K22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>94.65</v>
-      </c>
-      <c r="L22" s="116">
+        <v>62.08</v>
+      </c>
+      <c r="L22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>63.53</v>
-      </c>
-      <c r="M22" s="118">
+        <v>63.03</v>
+      </c>
+      <c r="M22" s="116">
         <f t="shared" ca="1" si="3"/>
-        <v>374.23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="96" customFormat="1">
-      <c r="A23" s="109" t="s">
-        <v>565</v>
-      </c>
-      <c r="B23" s="119" t="str">
+        <v>375.58000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="94" customFormat="1">
+      <c r="A23" s="107" t="s">
+        <v>561</v>
+      </c>
+      <c r="B23" s="117" t="str">
         <f t="shared" ref="B23:M23" ca="1" si="4">IF(((B22-B18)/B18*100)&gt;100,"(+) ",IF(((B22-B18)/B18*100)&lt;-100,"(-) ",IF(ROUND(((B22-B18)/B18*100),1)=0,"- ",IF(((B22-B18)/B18*100)&gt;0,TEXT(((B22-B18)/B18*100),"+0.0 "),TEXT(((B22-B18)/B18*100),"0.0 ")))))</f>
+        <v xml:space="preserve">+19.0 </v>
+      </c>
+      <c r="C23" s="108" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v xml:space="preserve">+16.5 </v>
       </c>
-      <c r="C23" s="110" t="str">
+      <c r="D23" s="108" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+12.4 </v>
-      </c>
-      <c r="D23" s="110" t="str">
+        <v xml:space="preserve">-49.0 </v>
+      </c>
+      <c r="E23" s="108" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-31.9 </v>
-      </c>
-      <c r="E23" s="110" t="str">
+        <v xml:space="preserve">-90.9 </v>
+      </c>
+      <c r="F23" s="117" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-91.5 </v>
-      </c>
-      <c r="F23" s="110" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+24.5 </v>
-      </c>
-      <c r="G23" s="111" t="str">
+        <v xml:space="preserve">+40.5 </v>
+      </c>
+      <c r="G23" s="109" t="str">
         <f t="shared" ca="1" si="4"/>
         <v xml:space="preserve">(+) </v>
       </c>
-      <c r="H23" s="112" t="str">
+      <c r="H23" s="110" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-8.7 </v>
-      </c>
-      <c r="I23" s="120" t="str">
+        <v xml:space="preserve">-10.7 </v>
+      </c>
+      <c r="I23" s="118" t="str">
         <f ca="1">IF(((I22-I18)/I18*100)&gt;100,"(+) ",IF(((I22-I18)/I18*100)&lt;-100,"(-) ",IF(ROUND(((I22-I18)/I18*100),1)=0,"- ",IF(((I22-I18)/I18*100)&gt;0,TEXT(((I22-I18)/I18*100),"+0.0 "),TEXT(((I22-I18)/I18*100),"0.0 ")))))</f>
-        <v xml:space="preserve">+13.5 </v>
-      </c>
-      <c r="J23" s="112" t="str">
+        <v xml:space="preserve">+15.3 </v>
+      </c>
+      <c r="J23" s="110" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+5.2 </v>
-      </c>
-      <c r="K23" s="110" t="str">
+        <v xml:space="preserve">+1.4 </v>
+      </c>
+      <c r="K23" s="108" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+35.5 </v>
-      </c>
-      <c r="L23" s="110" t="str">
+        <v xml:space="preserve">-10.9 </v>
+      </c>
+      <c r="L23" s="108" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-14.2 </v>
-      </c>
-      <c r="M23" s="112" t="str">
+        <v xml:space="preserve">-12.3 </v>
+      </c>
+      <c r="M23" s="110" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+3.8 </v>
+        <v xml:space="preserve">+0.2 </v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
+      <c r="F27" s="124"/>
       <c r="G27" s="68"/>
       <c r="H27" s="68"/>
       <c r="I27" s="68"/>
@@ -6682,18 +6685,18 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="57" customWidth="1"/>
-    <col min="2" max="13" width="12.7265625" style="50" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" style="50" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="50"/>
+    <col min="2" max="13" width="12.6328125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="50" customWidth="1"/>
+    <col min="15" max="16384" width="8.6328125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1">
@@ -6751,19 +6754,19 @@
         <v>78</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>79</v>
       </c>
       <c r="I6" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="J6" s="49" t="s">
         <v>551</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>552</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>518</v>
@@ -8022,7 +8025,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.5">
       <c r="A30" s="60" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B30" s="61">
         <f>SUM(Quarter!B99:B102)</f>
@@ -8075,32 +8078,32 @@
       <c r="N30" s="58"/>
     </row>
     <row r="34" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
     </row>
     <row r="35" spans="2:13" ht="20.25" customHeight="1">
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
     </row>
     <row r="40" spans="2:13" ht="20.25" customHeight="1">
       <c r="F40" s="83"/>
@@ -8112,7 +8115,7 @@
       <c r="F42" s="83"/>
     </row>
     <row r="44" spans="2:13" ht="20.25" customHeight="1">
-      <c r="F44" s="86"/>
+      <c r="F44" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8169,19 +8172,19 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35" style="50" customWidth="1"/>
-    <col min="2" max="3" width="13.7265625" style="50" customWidth="1"/>
+    <col min="2" max="3" width="13.6328125" style="50" customWidth="1"/>
     <col min="4" max="4" width="16" style="50" customWidth="1"/>
-    <col min="5" max="13" width="13.7265625" style="50" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="50"/>
+    <col min="5" max="13" width="13.6328125" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="8.6328125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" customHeight="1">
@@ -8233,25 +8236,25 @@
         <v>141</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>79</v>
       </c>
       <c r="I6" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="J6" s="49" t="s">
         <v>551</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>552</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>518</v>
@@ -13246,8 +13249,8 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="15.5">
-      <c r="A101" s="90" t="s">
-        <v>570</v>
+      <c r="A101" s="89" t="s">
+        <v>563</v>
       </c>
       <c r="B101" s="66">
         <f>SUM(Month!B289:B291)</f>
@@ -13299,8 +13302,8 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="15" customHeight="1">
-      <c r="A102" s="90" t="s">
-        <v>553</v>
+      <c r="A102" s="89" t="s">
+        <v>583</v>
       </c>
       <c r="B102" s="66">
         <f>SUM(Month!B292:B294)</f>
@@ -13351,33 +13354,97 @@
         <v>433.71000000000004</v>
       </c>
     </row>
+    <row r="103" spans="1:13" ht="15" customHeight="1">
+      <c r="A103" s="89" t="s">
+        <v>582</v>
+      </c>
+      <c r="B103" s="66">
+        <f>SUM(Month!B295:B297)</f>
+        <v>13354.18</v>
+      </c>
+      <c r="C103" s="66">
+        <f>SUM(Month!C295:C297)</f>
+        <v>866.03</v>
+      </c>
+      <c r="D103" s="66">
+        <f>SUM(Month!D295:D297)</f>
+        <v>158.31</v>
+      </c>
+      <c r="E103" s="66">
+        <f>SUM(Month!E295:E297)</f>
+        <v>5.82</v>
+      </c>
+      <c r="F103" s="66">
+        <f>SUM(Month!F295:F297)</f>
+        <v>2569.79</v>
+      </c>
+      <c r="G103" s="67">
+        <f>SUM(Month!G295:G297)</f>
+        <v>1649.01</v>
+      </c>
+      <c r="H103" s="63">
+        <f>SUM(Month!H295:H297)</f>
+        <v>1107.02</v>
+      </c>
+      <c r="I103" s="67">
+        <f>SUM(Month!I295:I297)</f>
+        <v>5263.05</v>
+      </c>
+      <c r="J103" s="63">
+        <f>SUM(Month!J295:J297)</f>
+        <v>1095.1400000000001</v>
+      </c>
+      <c r="K103" s="66">
+        <f>SUM(Month!K295:K297)</f>
+        <v>62.08</v>
+      </c>
+      <c r="L103" s="66">
+        <f>SUM(Month!L295:L297)</f>
+        <v>63.03</v>
+      </c>
+      <c r="M103" s="66">
+        <f>SUM(Month!M295:M297)</f>
+        <v>375.58000000000004</v>
+      </c>
+    </row>
     <row r="104" spans="1:13" ht="12" customHeight="1">
-      <c r="B104" s="86"/>
-      <c r="C104" s="86"/>
-      <c r="D104" s="86"/>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="86"/>
-      <c r="H104" s="86"/>
-      <c r="I104" s="86"/>
-      <c r="J104" s="86"/>
-      <c r="K104" s="86"/>
-      <c r="L104" s="86"/>
-      <c r="M104" s="86"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
+      <c r="I104" s="85"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="85"/>
+      <c r="L104" s="85"/>
+      <c r="M104" s="85"/>
+    </row>
+    <row r="105" spans="1:13" ht="12" customHeight="1">
+      <c r="F105" s="85"/>
+      <c r="I105" s="85"/>
+    </row>
+    <row r="106" spans="1:13" ht="12" customHeight="1">
+      <c r="F106" s="85"/>
+      <c r="I106" s="85"/>
+    </row>
+    <row r="107" spans="1:13" ht="12" customHeight="1">
+      <c r="I107" s="85"/>
     </row>
     <row r="111" spans="1:13" ht="12" customHeight="1">
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="86"/>
-      <c r="F111" s="86"/>
-      <c r="G111" s="86"/>
-      <c r="H111" s="86"/>
-      <c r="I111" s="86"/>
-      <c r="J111" s="86"/>
-      <c r="K111" s="86"/>
-      <c r="L111" s="86"/>
-      <c r="M111" s="86"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
+      <c r="I111" s="85"/>
+      <c r="J111" s="85"/>
+      <c r="K111" s="85"/>
+      <c r="L111" s="85"/>
+      <c r="M111" s="85"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -13385,7 +13452,7 @@
   <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="N88 B7:M101 B102:M102" formulaRange="1"/>
+    <ignoredError sqref="N88 B7:M101 B102:M102 B103:M103" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -13398,7 +13465,7 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N321"/>
+  <dimension ref="A1:N323"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B295" activePane="bottomRight" state="frozen"/>
@@ -13407,13 +13474,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" style="50" customWidth="1"/>
-    <col min="2" max="3" width="12.7265625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="34.6328125" style="50" customWidth="1"/>
+    <col min="2" max="3" width="12.6328125" style="50" customWidth="1"/>
     <col min="4" max="4" width="16.453125" style="50" customWidth="1"/>
-    <col min="5" max="13" width="12.7265625" style="50" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="50"/>
+    <col min="5" max="13" width="12.6328125" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="8.6328125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" customHeight="1">
@@ -13465,25 +13532,25 @@
         <v>141</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="80" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>79</v>
       </c>
       <c r="I6" s="81" t="s">
+        <v>550</v>
+      </c>
+      <c r="J6" s="49" t="s">
         <v>551</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>552</v>
       </c>
       <c r="K6" s="48" t="s">
         <v>518</v>
@@ -25140,8 +25207,8 @@
       </c>
     </row>
     <row r="291" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A291" s="87" t="s">
-        <v>559</v>
+      <c r="A291" s="86" t="s">
+        <v>555</v>
       </c>
       <c r="B291" s="73">
         <v>4594.28</v>
@@ -25181,8 +25248,8 @@
       </c>
     </row>
     <row r="292" spans="1:14" ht="15.65" customHeight="1">
-      <c r="A292" s="87" t="s">
-        <v>560</v>
+      <c r="A292" s="86" t="s">
+        <v>556</v>
       </c>
       <c r="B292" s="73">
         <v>4711.59</v>
@@ -25222,8 +25289,8 @@
       </c>
     </row>
     <row r="293" spans="1:14">
-      <c r="A293" s="87" t="s">
-        <v>561</v>
+      <c r="A293" s="86" t="s">
+        <v>557</v>
       </c>
       <c r="B293" s="73">
         <v>4706.5600000000004</v>
@@ -25263,8 +25330,8 @@
       </c>
     </row>
     <row r="294" spans="1:14">
-      <c r="A294" s="87" t="s">
-        <v>566</v>
+      <c r="A294" s="86" t="s">
+        <v>562</v>
       </c>
       <c r="B294" s="73">
         <v>4937.0200000000004</v>
@@ -25304,14 +25371,14 @@
       </c>
     </row>
     <row r="295" spans="1:14">
-      <c r="A295" s="88" t="s">
-        <v>536</v>
+      <c r="A295" s="87" t="s">
+        <v>575</v>
       </c>
       <c r="B295" s="73">
-        <v>4384.2</v>
+        <v>4126.68</v>
       </c>
       <c r="C295" s="74">
-        <v>273.75</v>
+        <v>273.76</v>
       </c>
       <c r="D295" s="74">
         <v>52.62</v>
@@ -25320,22 +25387,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F295" s="74">
-        <v>882.19</v>
+        <v>843.81</v>
       </c>
       <c r="G295" s="75">
         <v>502.2</v>
       </c>
       <c r="H295" s="76">
-        <v>355.83</v>
+        <v>362.35</v>
       </c>
       <c r="I295" s="74">
-        <v>1780.61</v>
+        <v>1591.75</v>
       </c>
       <c r="J295" s="76">
-        <v>320.91000000000003</v>
+        <v>317.58</v>
       </c>
       <c r="K295" s="74">
-        <v>57.04</v>
+        <v>23.56</v>
       </c>
       <c r="L295" s="74">
         <v>19.079999999999998</v>
@@ -25345,46 +25412,100 @@
       </c>
     </row>
     <row r="296" spans="1:14">
-      <c r="B296" s="83"/>
-      <c r="C296" s="83"/>
-      <c r="D296" s="83"/>
-      <c r="E296" s="83"/>
-      <c r="F296" s="83"/>
-      <c r="G296" s="83"/>
-      <c r="H296" s="83"/>
-      <c r="I296" s="83"/>
-      <c r="J296" s="83"/>
-      <c r="K296" s="83"/>
-      <c r="L296" s="83"/>
-      <c r="M296" s="83"/>
+      <c r="A296" s="87" t="s">
+        <v>581</v>
+      </c>
+      <c r="B296" s="73">
+        <v>4504.88</v>
+      </c>
+      <c r="C296" s="74">
+        <v>269.36</v>
+      </c>
+      <c r="D296" s="74">
+        <v>46.09</v>
+      </c>
+      <c r="E296" s="74">
+        <v>4.12</v>
+      </c>
+      <c r="F296" s="74">
+        <v>867.86</v>
+      </c>
+      <c r="G296" s="75">
+        <v>505.96</v>
+      </c>
+      <c r="H296" s="76">
+        <v>382.64</v>
+      </c>
+      <c r="I296" s="74">
+        <v>1862.54</v>
+      </c>
+      <c r="J296" s="76">
+        <v>372.86</v>
+      </c>
+      <c r="K296" s="74">
+        <v>13.98</v>
+      </c>
+      <c r="L296" s="74">
+        <v>20.53</v>
+      </c>
+      <c r="M296" s="74">
+        <v>111.1</v>
+      </c>
     </row>
     <row r="297" spans="1:14">
-      <c r="B297" s="83"/>
-      <c r="C297" s="83"/>
-      <c r="D297" s="83"/>
-      <c r="E297" s="83"/>
-      <c r="F297" s="83"/>
-      <c r="G297" s="83"/>
-      <c r="H297" s="83"/>
-      <c r="I297" s="83"/>
-      <c r="J297" s="83"/>
-      <c r="K297" s="83"/>
-      <c r="L297" s="83"/>
-      <c r="M297" s="83"/>
+      <c r="A297" s="87" t="s">
+        <v>580</v>
+      </c>
+      <c r="B297" s="73">
+        <v>4722.62</v>
+      </c>
+      <c r="C297" s="74">
+        <v>322.91000000000003</v>
+      </c>
+      <c r="D297" s="74">
+        <v>59.6</v>
+      </c>
+      <c r="E297" s="74">
+        <v>1.56</v>
+      </c>
+      <c r="F297" s="74">
+        <v>858.12</v>
+      </c>
+      <c r="G297" s="75">
+        <v>640.85</v>
+      </c>
+      <c r="H297" s="76">
+        <v>362.03</v>
+      </c>
+      <c r="I297" s="74">
+        <v>1808.76</v>
+      </c>
+      <c r="J297" s="76">
+        <v>404.7</v>
+      </c>
+      <c r="K297" s="74">
+        <v>24.54</v>
+      </c>
+      <c r="L297" s="74">
+        <v>23.42</v>
+      </c>
+      <c r="M297" s="74">
+        <v>166.84</v>
+      </c>
     </row>
     <row r="298" spans="1:14">
-      <c r="B298" s="86"/>
-      <c r="C298" s="86"/>
-      <c r="D298" s="86"/>
-      <c r="E298" s="86"/>
-      <c r="F298" s="86"/>
-      <c r="G298" s="86"/>
-      <c r="H298" s="86"/>
-      <c r="I298" s="86"/>
-      <c r="J298" s="86"/>
-      <c r="K298" s="86"/>
-      <c r="L298" s="86"/>
-      <c r="M298" s="86"/>
+      <c r="B298" s="83"/>
+      <c r="C298" s="83"/>
+      <c r="D298" s="83"/>
+      <c r="E298" s="83"/>
+      <c r="F298" s="83"/>
+      <c r="G298" s="83"/>
+      <c r="H298" s="83"/>
+      <c r="I298" s="83"/>
+      <c r="J298" s="83"/>
+      <c r="K298" s="83"/>
+      <c r="L298" s="83"/>
+      <c r="M298" s="83"/>
     </row>
     <row r="299" spans="1:14">
       <c r="B299" s="83"/>
@@ -25401,18 +25522,18 @@
       <c r="M299" s="83"/>
     </row>
     <row r="300" spans="1:14">
-      <c r="B300" s="86"/>
-      <c r="C300" s="86"/>
-      <c r="D300" s="86"/>
-      <c r="E300" s="86"/>
-      <c r="F300" s="86"/>
-      <c r="G300" s="86"/>
-      <c r="H300" s="86"/>
-      <c r="I300" s="86"/>
-      <c r="J300" s="86"/>
-      <c r="K300" s="86"/>
-      <c r="L300" s="86"/>
-      <c r="M300" s="86"/>
+      <c r="B300" s="83"/>
+      <c r="C300" s="83"/>
+      <c r="D300" s="83"/>
+      <c r="E300" s="83"/>
+      <c r="F300" s="83"/>
+      <c r="G300" s="83"/>
+      <c r="H300" s="83"/>
+      <c r="I300" s="83"/>
+      <c r="J300" s="83"/>
+      <c r="K300" s="83"/>
+      <c r="L300" s="83"/>
+      <c r="M300" s="83"/>
     </row>
     <row r="301" spans="1:14">
       <c r="B301" s="83"/>
@@ -25430,74 +25551,74 @@
       <c r="N301" s="83"/>
     </row>
     <row r="302" spans="1:14">
-      <c r="B302" s="83"/>
-      <c r="C302" s="83"/>
-      <c r="D302" s="83"/>
-      <c r="E302" s="83"/>
-      <c r="F302" s="83"/>
-      <c r="G302" s="83"/>
-      <c r="H302" s="83"/>
-      <c r="I302" s="83"/>
-      <c r="J302" s="83"/>
-      <c r="K302" s="83"/>
-      <c r="L302" s="83"/>
-      <c r="M302" s="83"/>
+      <c r="B302" s="85"/>
+      <c r="C302" s="85"/>
+      <c r="D302" s="85"/>
+      <c r="E302" s="85"/>
+      <c r="F302" s="85"/>
+      <c r="G302" s="85"/>
+      <c r="H302" s="85"/>
+      <c r="I302" s="85"/>
+      <c r="J302" s="85"/>
+      <c r="K302" s="85"/>
+      <c r="L302" s="85"/>
+      <c r="M302" s="85"/>
     </row>
     <row r="303" spans="1:14">
-      <c r="B303" s="83"/>
-      <c r="C303" s="83"/>
-      <c r="D303" s="83"/>
-      <c r="E303" s="83"/>
-      <c r="F303" s="83"/>
-      <c r="G303" s="83"/>
-      <c r="H303" s="83"/>
-      <c r="I303" s="83"/>
-      <c r="J303" s="83"/>
-      <c r="K303" s="83"/>
-      <c r="L303" s="83"/>
-      <c r="M303" s="83"/>
+      <c r="B303" s="54"/>
+      <c r="C303" s="54"/>
+      <c r="D303" s="54"/>
+      <c r="E303" s="54"/>
+      <c r="F303" s="54"/>
+      <c r="G303" s="54"/>
+      <c r="H303" s="54"/>
+      <c r="I303" s="54"/>
+      <c r="J303" s="54"/>
+      <c r="K303" s="54"/>
+      <c r="L303" s="54"/>
+      <c r="M303" s="54"/>
     </row>
     <row r="304" spans="1:14">
-      <c r="B304" s="83"/>
-      <c r="C304" s="83"/>
-      <c r="D304" s="83"/>
-      <c r="E304" s="83"/>
-      <c r="F304" s="83"/>
-      <c r="G304" s="83"/>
-      <c r="H304" s="83"/>
-      <c r="I304" s="83"/>
-      <c r="J304" s="83"/>
-      <c r="K304" s="83"/>
-      <c r="L304" s="83"/>
-      <c r="M304" s="83"/>
+      <c r="B304" s="54"/>
+      <c r="C304" s="54"/>
+      <c r="D304" s="54"/>
+      <c r="E304" s="54"/>
+      <c r="F304" s="54"/>
+      <c r="G304" s="54"/>
+      <c r="H304" s="54"/>
+      <c r="I304" s="54"/>
+      <c r="J304" s="54"/>
+      <c r="K304" s="54"/>
+      <c r="L304" s="54"/>
+      <c r="M304" s="54"/>
     </row>
     <row r="305" spans="2:13">
-      <c r="B305" s="83"/>
-      <c r="C305" s="83"/>
-      <c r="D305" s="83"/>
-      <c r="E305" s="83"/>
-      <c r="F305" s="83"/>
-      <c r="G305" s="83"/>
-      <c r="H305" s="83"/>
-      <c r="I305" s="83"/>
-      <c r="J305" s="83"/>
-      <c r="K305" s="83"/>
-      <c r="L305" s="83"/>
-      <c r="M305" s="83"/>
+      <c r="B305" s="54"/>
+      <c r="C305" s="54"/>
+      <c r="D305" s="54"/>
+      <c r="E305" s="54"/>
+      <c r="F305" s="54"/>
+      <c r="G305" s="54"/>
+      <c r="H305" s="54"/>
+      <c r="I305" s="54"/>
+      <c r="J305" s="54"/>
+      <c r="K305" s="54"/>
+      <c r="L305" s="54"/>
+      <c r="M305" s="54"/>
     </row>
     <row r="306" spans="2:13">
-      <c r="B306" s="83"/>
-      <c r="C306" s="83"/>
-      <c r="D306" s="83"/>
-      <c r="E306" s="83"/>
-      <c r="F306" s="83"/>
-      <c r="G306" s="83"/>
-      <c r="H306" s="83"/>
-      <c r="I306" s="83"/>
-      <c r="J306" s="83"/>
-      <c r="K306" s="83"/>
-      <c r="L306" s="83"/>
-      <c r="M306" s="83"/>
+      <c r="B306" s="121"/>
+      <c r="C306" s="121"/>
+      <c r="D306" s="121"/>
+      <c r="E306" s="121"/>
+      <c r="F306" s="121"/>
+      <c r="G306" s="121"/>
+      <c r="H306" s="121"/>
+      <c r="I306" s="121"/>
+      <c r="J306" s="121"/>
+      <c r="K306" s="121"/>
+      <c r="L306" s="121"/>
+      <c r="M306" s="121"/>
     </row>
     <row r="307" spans="2:13">
       <c r="B307" s="83"/>
@@ -25708,6 +25829,34 @@
       <c r="K321" s="83"/>
       <c r="L321" s="83"/>
       <c r="M321" s="83"/>
+    </row>
+    <row r="322" spans="2:13">
+      <c r="B322" s="83"/>
+      <c r="C322" s="83"/>
+      <c r="D322" s="83"/>
+      <c r="E322" s="83"/>
+      <c r="F322" s="83"/>
+      <c r="G322" s="83"/>
+      <c r="H322" s="83"/>
+      <c r="I322" s="83"/>
+      <c r="J322" s="83"/>
+      <c r="K322" s="83"/>
+      <c r="L322" s="83"/>
+      <c r="M322" s="83"/>
+    </row>
+    <row r="323" spans="2:13">
+      <c r="B323" s="83"/>
+      <c r="C323" s="83"/>
+      <c r="D323" s="83"/>
+      <c r="E323" s="83"/>
+      <c r="F323" s="83"/>
+      <c r="G323" s="83"/>
+      <c r="H323" s="83"/>
+      <c r="I323" s="83"/>
+      <c r="J323" s="83"/>
+      <c r="K323" s="83"/>
+      <c r="L323" s="83"/>
+      <c r="M323" s="83"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -25725,25 +25874,27 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A4:AF321"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.26953125" customWidth="1"/>
+    <col min="16" max="16" width="13.36328125" customWidth="1"/>
     <col min="17" max="17" width="28.54296875" customWidth="1"/>
-    <col min="18" max="18" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" customWidth="1"/>
-    <col min="20" max="20" width="12.26953125" customWidth="1"/>
-    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.36328125" customWidth="1"/>
+    <col min="20" max="20" width="12.36328125" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.26953125" customWidth="1"/>
-    <col min="26" max="26" width="12.26953125" customWidth="1"/>
-    <col min="27" max="27" width="13.26953125" customWidth="1"/>
-    <col min="28" max="30" width="12.26953125" customWidth="1"/>
-    <col min="31" max="31" width="11.26953125" customWidth="1"/>
-    <col min="32" max="32" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.36328125" customWidth="1"/>
+    <col min="26" max="26" width="12.36328125" customWidth="1"/>
+    <col min="27" max="27" width="13.36328125" customWidth="1"/>
+    <col min="28" max="30" width="12.36328125" customWidth="1"/>
+    <col min="31" max="31" width="11.36328125" customWidth="1"/>
+    <col min="32" max="32" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:30" ht="13.5" thickBot="1"/>
@@ -25763,7 +25914,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:30">
@@ -26162,10 +26313,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="122" t="s">
+      <c r="H18" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="122"/>
+      <c r="I18" s="125"/>
       <c r="J18" s="16"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -26182,10 +26333,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="122" t="s">
+      <c r="J19" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="123"/>
+      <c r="K19" s="126"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="Q19" t="s">
@@ -26267,71 +26418,71 @@
       <c r="N20" s="2"/>
       <c r="P20">
         <f>P21-1</f>
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="6" t="str">
         <f t="shared" ref="Q20:AF35" si="2">$R$16&amp;Q$19&amp;$P20</f>
-        <v>Month!A280</v>
+        <v>Month!A282</v>
       </c>
       <c r="R20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B280</v>
+        <v>Month!B282</v>
       </c>
       <c r="S20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C280</v>
+        <v>Month!C282</v>
       </c>
       <c r="T20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D280</v>
+        <v>Month!D282</v>
       </c>
       <c r="U20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E280</v>
+        <v>Month!E282</v>
       </c>
       <c r="V20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F280</v>
+        <v>Month!F282</v>
       </c>
       <c r="W20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G280</v>
+        <v>Month!G282</v>
       </c>
       <c r="X20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H280</v>
+        <v>Month!H282</v>
       </c>
       <c r="Y20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I280</v>
+        <v>Month!I282</v>
       </c>
       <c r="Z20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J280</v>
+        <v>Month!J282</v>
       </c>
       <c r="AA20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K280</v>
+        <v>Month!K282</v>
       </c>
       <c r="AB20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L280</v>
+        <v>Month!L282</v>
       </c>
       <c r="AC20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M280</v>
+        <v>Month!M282</v>
       </c>
       <c r="AD20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N280</v>
+        <v>Month!N282</v>
       </c>
       <c r="AE20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O280</v>
+        <v>Month!O282</v>
       </c>
       <c r="AF20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P280</v>
+        <v>Month!P282</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -26379,71 +26530,71 @@
       </c>
       <c r="P21">
         <f>P22-1</f>
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A281</v>
+        <v>Month!A283</v>
       </c>
       <c r="R21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B281</v>
+        <v>Month!B283</v>
       </c>
       <c r="S21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C281</v>
+        <v>Month!C283</v>
       </c>
       <c r="T21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D281</v>
+        <v>Month!D283</v>
       </c>
       <c r="U21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E281</v>
+        <v>Month!E283</v>
       </c>
       <c r="V21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F281</v>
+        <v>Month!F283</v>
       </c>
       <c r="W21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G281</v>
+        <v>Month!G283</v>
       </c>
       <c r="X21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H281</v>
+        <v>Month!H283</v>
       </c>
       <c r="Y21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I281</v>
+        <v>Month!I283</v>
       </c>
       <c r="Z21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J281</v>
+        <v>Month!J283</v>
       </c>
       <c r="AA21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K281</v>
+        <v>Month!K283</v>
       </c>
       <c r="AB21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L281</v>
+        <v>Month!L283</v>
       </c>
       <c r="AC21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M281</v>
+        <v>Month!M283</v>
       </c>
       <c r="AD21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N281</v>
+        <v>Month!N283</v>
       </c>
       <c r="AE21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O281</v>
+        <v>Month!O283</v>
       </c>
       <c r="AF21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P281</v>
+        <v>Month!P283</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -26503,71 +26654,71 @@
       </c>
       <c r="P22">
         <f>P23-1</f>
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A282</v>
+        <v>Month!A284</v>
       </c>
       <c r="R22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B282</v>
+        <v>Month!B284</v>
       </c>
       <c r="S22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C282</v>
+        <v>Month!C284</v>
       </c>
       <c r="T22" s="6" t="str">
         <f>$R$16&amp;T$19&amp;$P22</f>
-        <v>Month!D282</v>
+        <v>Month!D284</v>
       </c>
       <c r="U22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E282</v>
+        <v>Month!E284</v>
       </c>
       <c r="V22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F282</v>
+        <v>Month!F284</v>
       </c>
       <c r="W22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G282</v>
+        <v>Month!G284</v>
       </c>
       <c r="X22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H282</v>
+        <v>Month!H284</v>
       </c>
       <c r="Y22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I282</v>
+        <v>Month!I284</v>
       </c>
       <c r="Z22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J282</v>
+        <v>Month!J284</v>
       </c>
       <c r="AA22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K282</v>
+        <v>Month!K284</v>
       </c>
       <c r="AB22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L282</v>
+        <v>Month!L284</v>
       </c>
       <c r="AC22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M282</v>
+        <v>Month!M284</v>
       </c>
       <c r="AD22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N282</v>
+        <v>Month!N284</v>
       </c>
       <c r="AE22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O282</v>
+        <v>Month!O284</v>
       </c>
       <c r="AF22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P282</v>
+        <v>Month!P284</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -26627,71 +26778,71 @@
       </c>
       <c r="P23">
         <f>(((P5-1998)*12)-(12-P6))+6</f>
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A283</v>
+        <v>Month!A285</v>
       </c>
       <c r="R23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B283</v>
+        <v>Month!B285</v>
       </c>
       <c r="S23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C283</v>
+        <v>Month!C285</v>
       </c>
       <c r="T23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D283</v>
+        <v>Month!D285</v>
       </c>
       <c r="U23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E283</v>
+        <v>Month!E285</v>
       </c>
       <c r="V23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F283</v>
+        <v>Month!F285</v>
       </c>
       <c r="W23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G283</v>
+        <v>Month!G285</v>
       </c>
       <c r="X23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H283</v>
+        <v>Month!H285</v>
       </c>
       <c r="Y23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I283</v>
+        <v>Month!I285</v>
       </c>
       <c r="Z23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J283</v>
+        <v>Month!J285</v>
       </c>
       <c r="AA23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K283</v>
+        <v>Month!K285</v>
       </c>
       <c r="AB23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L283</v>
+        <v>Month!L285</v>
       </c>
       <c r="AC23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M283</v>
+        <v>Month!M285</v>
       </c>
       <c r="AD23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N283</v>
+        <v>Month!N285</v>
       </c>
       <c r="AE23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O283</v>
+        <v>Month!O285</v>
       </c>
       <c r="AF23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P283</v>
+        <v>Month!P285</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -26751,71 +26902,71 @@
       </c>
       <c r="P24">
         <f>P23+1</f>
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A284</v>
+        <v>Month!A286</v>
       </c>
       <c r="R24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B284</v>
+        <v>Month!B286</v>
       </c>
       <c r="S24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C284</v>
+        <v>Month!C286</v>
       </c>
       <c r="T24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D284</v>
+        <v>Month!D286</v>
       </c>
       <c r="U24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E284</v>
+        <v>Month!E286</v>
       </c>
       <c r="V24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F284</v>
+        <v>Month!F286</v>
       </c>
       <c r="W24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G284</v>
+        <v>Month!G286</v>
       </c>
       <c r="X24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H284</v>
+        <v>Month!H286</v>
       </c>
       <c r="Y24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I284</v>
+        <v>Month!I286</v>
       </c>
       <c r="Z24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J284</v>
+        <v>Month!J286</v>
       </c>
       <c r="AA24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K284</v>
+        <v>Month!K286</v>
       </c>
       <c r="AB24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L284</v>
+        <v>Month!L286</v>
       </c>
       <c r="AC24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M284</v>
+        <v>Month!M286</v>
       </c>
       <c r="AD24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N284</v>
+        <v>Month!N286</v>
       </c>
       <c r="AE24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O284</v>
+        <v>Month!O286</v>
       </c>
       <c r="AF24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P284</v>
+        <v>Month!P286</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -26875,71 +27026,71 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P36" si="3">P24+1</f>
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A285</v>
+        <v>Month!A287</v>
       </c>
       <c r="R25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B285</v>
+        <v>Month!B287</v>
       </c>
       <c r="S25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C285</v>
+        <v>Month!C287</v>
       </c>
       <c r="T25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D285</v>
+        <v>Month!D287</v>
       </c>
       <c r="U25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E285</v>
+        <v>Month!E287</v>
       </c>
       <c r="V25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F285</v>
+        <v>Month!F287</v>
       </c>
       <c r="W25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G285</v>
+        <v>Month!G287</v>
       </c>
       <c r="X25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H285</v>
+        <v>Month!H287</v>
       </c>
       <c r="Y25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I285</v>
+        <v>Month!I287</v>
       </c>
       <c r="Z25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J285</v>
+        <v>Month!J287</v>
       </c>
       <c r="AA25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K285</v>
+        <v>Month!K287</v>
       </c>
       <c r="AB25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L285</v>
+        <v>Month!L287</v>
       </c>
       <c r="AC25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M285</v>
+        <v>Month!M287</v>
       </c>
       <c r="AD25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N285</v>
+        <v>Month!N287</v>
       </c>
       <c r="AE25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O285</v>
+        <v>Month!O287</v>
       </c>
       <c r="AF25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P285</v>
+        <v>Month!P287</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -26999,71 +27150,71 @@
       </c>
       <c r="P26">
         <f>P25+1</f>
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A286</v>
+        <v>Month!A288</v>
       </c>
       <c r="R26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B286</v>
+        <v>Month!B288</v>
       </c>
       <c r="S26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C286</v>
+        <v>Month!C288</v>
       </c>
       <c r="T26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D286</v>
+        <v>Month!D288</v>
       </c>
       <c r="U26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E286</v>
+        <v>Month!E288</v>
       </c>
       <c r="V26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F286</v>
+        <v>Month!F288</v>
       </c>
       <c r="W26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G286</v>
+        <v>Month!G288</v>
       </c>
       <c r="X26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H286</v>
+        <v>Month!H288</v>
       </c>
       <c r="Y26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I286</v>
+        <v>Month!I288</v>
       </c>
       <c r="Z26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J286</v>
+        <v>Month!J288</v>
       </c>
       <c r="AA26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K286</v>
+        <v>Month!K288</v>
       </c>
       <c r="AB26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L286</v>
+        <v>Month!L288</v>
       </c>
       <c r="AC26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M286</v>
+        <v>Month!M288</v>
       </c>
       <c r="AD26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N286</v>
+        <v>Month!N288</v>
       </c>
       <c r="AE26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O286</v>
+        <v>Month!O288</v>
       </c>
       <c r="AF26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P286</v>
+        <v>Month!P288</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -27123,71 +27274,71 @@
       </c>
       <c r="P27">
         <f t="shared" si="3"/>
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A287</v>
+        <v>Month!A289</v>
       </c>
       <c r="R27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B287</v>
+        <v>Month!B289</v>
       </c>
       <c r="S27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C287</v>
+        <v>Month!C289</v>
       </c>
       <c r="T27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D287</v>
+        <v>Month!D289</v>
       </c>
       <c r="U27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E287</v>
+        <v>Month!E289</v>
       </c>
       <c r="V27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F287</v>
+        <v>Month!F289</v>
       </c>
       <c r="W27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G287</v>
+        <v>Month!G289</v>
       </c>
       <c r="X27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H287</v>
+        <v>Month!H289</v>
       </c>
       <c r="Y27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I287</v>
+        <v>Month!I289</v>
       </c>
       <c r="Z27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J287</v>
+        <v>Month!J289</v>
       </c>
       <c r="AA27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K287</v>
+        <v>Month!K289</v>
       </c>
       <c r="AB27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L287</v>
+        <v>Month!L289</v>
       </c>
       <c r="AC27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M287</v>
+        <v>Month!M289</v>
       </c>
       <c r="AD27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N287</v>
+        <v>Month!N289</v>
       </c>
       <c r="AE27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O287</v>
+        <v>Month!O289</v>
       </c>
       <c r="AF27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P287</v>
+        <v>Month!P289</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -27247,71 +27398,71 @@
       </c>
       <c r="P28">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A288</v>
+        <v>Month!A290</v>
       </c>
       <c r="R28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B288</v>
+        <v>Month!B290</v>
       </c>
       <c r="S28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C288</v>
+        <v>Month!C290</v>
       </c>
       <c r="T28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D288</v>
+        <v>Month!D290</v>
       </c>
       <c r="U28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E288</v>
+        <v>Month!E290</v>
       </c>
       <c r="V28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F288</v>
+        <v>Month!F290</v>
       </c>
       <c r="W28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G288</v>
+        <v>Month!G290</v>
       </c>
       <c r="X28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H288</v>
+        <v>Month!H290</v>
       </c>
       <c r="Y28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I288</v>
+        <v>Month!I290</v>
       </c>
       <c r="Z28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J288</v>
+        <v>Month!J290</v>
       </c>
       <c r="AA28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K288</v>
+        <v>Month!K290</v>
       </c>
       <c r="AB28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L288</v>
+        <v>Month!L290</v>
       </c>
       <c r="AC28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M288</v>
+        <v>Month!M290</v>
       </c>
       <c r="AD28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N288</v>
+        <v>Month!N290</v>
       </c>
       <c r="AE28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O288</v>
+        <v>Month!O290</v>
       </c>
       <c r="AF28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P288</v>
+        <v>Month!P290</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -27371,71 +27522,71 @@
       </c>
       <c r="P29">
         <f t="shared" si="3"/>
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A289</v>
+        <v>Month!A291</v>
       </c>
       <c r="R29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B289</v>
+        <v>Month!B291</v>
       </c>
       <c r="S29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C289</v>
+        <v>Month!C291</v>
       </c>
       <c r="T29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D289</v>
+        <v>Month!D291</v>
       </c>
       <c r="U29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E289</v>
+        <v>Month!E291</v>
       </c>
       <c r="V29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F289</v>
+        <v>Month!F291</v>
       </c>
       <c r="W29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G289</v>
+        <v>Month!G291</v>
       </c>
       <c r="X29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H289</v>
+        <v>Month!H291</v>
       </c>
       <c r="Y29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I289</v>
+        <v>Month!I291</v>
       </c>
       <c r="Z29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J289</v>
+        <v>Month!J291</v>
       </c>
       <c r="AA29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K289</v>
+        <v>Month!K291</v>
       </c>
       <c r="AB29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L289</v>
+        <v>Month!L291</v>
       </c>
       <c r="AC29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M289</v>
+        <v>Month!M291</v>
       </c>
       <c r="AD29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N289</v>
+        <v>Month!N291</v>
       </c>
       <c r="AE29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O289</v>
+        <v>Month!O291</v>
       </c>
       <c r="AF29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P289</v>
+        <v>Month!P291</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -27495,71 +27646,71 @@
       </c>
       <c r="P30">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A290</v>
+        <v>Month!A292</v>
       </c>
       <c r="R30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B290</v>
+        <v>Month!B292</v>
       </c>
       <c r="S30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C290</v>
+        <v>Month!C292</v>
       </c>
       <c r="T30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D290</v>
+        <v>Month!D292</v>
       </c>
       <c r="U30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E290</v>
+        <v>Month!E292</v>
       </c>
       <c r="V30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F290</v>
+        <v>Month!F292</v>
       </c>
       <c r="W30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G290</v>
+        <v>Month!G292</v>
       </c>
       <c r="X30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H290</v>
+        <v>Month!H292</v>
       </c>
       <c r="Y30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I290</v>
+        <v>Month!I292</v>
       </c>
       <c r="Z30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J290</v>
+        <v>Month!J292</v>
       </c>
       <c r="AA30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K290</v>
+        <v>Month!K292</v>
       </c>
       <c r="AB30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L290</v>
+        <v>Month!L292</v>
       </c>
       <c r="AC30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M290</v>
+        <v>Month!M292</v>
       </c>
       <c r="AD30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N290</v>
+        <v>Month!N292</v>
       </c>
       <c r="AE30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O290</v>
+        <v>Month!O292</v>
       </c>
       <c r="AF30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P290</v>
+        <v>Month!P292</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -27619,71 +27770,71 @@
       </c>
       <c r="P31">
         <f t="shared" si="3"/>
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A291</v>
+        <v>Month!A293</v>
       </c>
       <c r="R31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B291</v>
+        <v>Month!B293</v>
       </c>
       <c r="S31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C291</v>
+        <v>Month!C293</v>
       </c>
       <c r="T31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D291</v>
+        <v>Month!D293</v>
       </c>
       <c r="U31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E291</v>
+        <v>Month!E293</v>
       </c>
       <c r="V31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F291</v>
+        <v>Month!F293</v>
       </c>
       <c r="W31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G291</v>
+        <v>Month!G293</v>
       </c>
       <c r="X31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H291</v>
+        <v>Month!H293</v>
       </c>
       <c r="Y31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I291</v>
+        <v>Month!I293</v>
       </c>
       <c r="Z31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J291</v>
+        <v>Month!J293</v>
       </c>
       <c r="AA31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K291</v>
+        <v>Month!K293</v>
       </c>
       <c r="AB31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L291</v>
+        <v>Month!L293</v>
       </c>
       <c r="AC31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M291</v>
+        <v>Month!M293</v>
       </c>
       <c r="AD31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N291</v>
+        <v>Month!N293</v>
       </c>
       <c r="AE31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O291</v>
+        <v>Month!O293</v>
       </c>
       <c r="AF31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P291</v>
+        <v>Month!P293</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -27743,71 +27894,71 @@
       </c>
       <c r="P32">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A292</v>
+        <v>Month!A294</v>
       </c>
       <c r="R32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B292</v>
+        <v>Month!B294</v>
       </c>
       <c r="S32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C292</v>
+        <v>Month!C294</v>
       </c>
       <c r="T32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D292</v>
+        <v>Month!D294</v>
       </c>
       <c r="U32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E292</v>
+        <v>Month!E294</v>
       </c>
       <c r="V32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F292</v>
+        <v>Month!F294</v>
       </c>
       <c r="W32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G292</v>
+        <v>Month!G294</v>
       </c>
       <c r="X32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H292</v>
+        <v>Month!H294</v>
       </c>
       <c r="Y32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I292</v>
+        <v>Month!I294</v>
       </c>
       <c r="Z32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J292</v>
+        <v>Month!J294</v>
       </c>
       <c r="AA32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K292</v>
+        <v>Month!K294</v>
       </c>
       <c r="AB32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L292</v>
+        <v>Month!L294</v>
       </c>
       <c r="AC32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M292</v>
+        <v>Month!M294</v>
       </c>
       <c r="AD32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N292</v>
+        <v>Month!N294</v>
       </c>
       <c r="AE32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O292</v>
+        <v>Month!O294</v>
       </c>
       <c r="AF32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P292</v>
+        <v>Month!P294</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -27867,71 +28018,71 @@
       </c>
       <c r="P33">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A293</v>
+        <v>Month!A295</v>
       </c>
       <c r="R33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B293</v>
+        <v>Month!B295</v>
       </c>
       <c r="S33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C293</v>
+        <v>Month!C295</v>
       </c>
       <c r="T33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D293</v>
+        <v>Month!D295</v>
       </c>
       <c r="U33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E293</v>
+        <v>Month!E295</v>
       </c>
       <c r="V33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F293</v>
+        <v>Month!F295</v>
       </c>
       <c r="W33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G293</v>
+        <v>Month!G295</v>
       </c>
       <c r="X33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H293</v>
+        <v>Month!H295</v>
       </c>
       <c r="Y33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I293</v>
+        <v>Month!I295</v>
       </c>
       <c r="Z33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J293</v>
+        <v>Month!J295</v>
       </c>
       <c r="AA33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K293</v>
+        <v>Month!K295</v>
       </c>
       <c r="AB33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L293</v>
+        <v>Month!L295</v>
       </c>
       <c r="AC33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M293</v>
+        <v>Month!M295</v>
       </c>
       <c r="AD33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N293</v>
+        <v>Month!N295</v>
       </c>
       <c r="AE33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O293</v>
+        <v>Month!O295</v>
       </c>
       <c r="AF33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P293</v>
+        <v>Month!P295</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -27991,71 +28142,71 @@
       </c>
       <c r="P34">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A294</v>
+        <v>Month!A296</v>
       </c>
       <c r="R34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B294</v>
+        <v>Month!B296</v>
       </c>
       <c r="S34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C294</v>
+        <v>Month!C296</v>
       </c>
       <c r="T34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D294</v>
+        <v>Month!D296</v>
       </c>
       <c r="U34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E294</v>
+        <v>Month!E296</v>
       </c>
       <c r="V34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F294</v>
+        <v>Month!F296</v>
       </c>
       <c r="W34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G294</v>
+        <v>Month!G296</v>
       </c>
       <c r="X34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H294</v>
+        <v>Month!H296</v>
       </c>
       <c r="Y34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I294</v>
+        <v>Month!I296</v>
       </c>
       <c r="Z34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J294</v>
+        <v>Month!J296</v>
       </c>
       <c r="AA34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K294</v>
+        <v>Month!K296</v>
       </c>
       <c r="AB34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L294</v>
+        <v>Month!L296</v>
       </c>
       <c r="AC34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M294</v>
+        <v>Month!M296</v>
       </c>
       <c r="AD34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N294</v>
+        <v>Month!N296</v>
       </c>
       <c r="AE34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O294</v>
+        <v>Month!O296</v>
       </c>
       <c r="AF34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P294</v>
+        <v>Month!P296</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -28115,71 +28266,71 @@
       </c>
       <c r="P35">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A295</v>
+        <v>Month!A297</v>
       </c>
       <c r="R35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B295</v>
+        <v>Month!B297</v>
       </c>
       <c r="S35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C295</v>
+        <v>Month!C297</v>
       </c>
       <c r="T35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D295</v>
+        <v>Month!D297</v>
       </c>
       <c r="U35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E295</v>
+        <v>Month!E297</v>
       </c>
       <c r="V35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F295</v>
+        <v>Month!F297</v>
       </c>
       <c r="W35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G295</v>
+        <v>Month!G297</v>
       </c>
       <c r="X35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H295</v>
+        <v>Month!H297</v>
       </c>
       <c r="Y35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I295</v>
+        <v>Month!I297</v>
       </c>
       <c r="Z35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J295</v>
+        <v>Month!J297</v>
       </c>
       <c r="AA35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K295</v>
+        <v>Month!K297</v>
       </c>
       <c r="AB35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L295</v>
+        <v>Month!L297</v>
       </c>
       <c r="AC35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M295</v>
+        <v>Month!M297</v>
       </c>
       <c r="AD35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N295</v>
+        <v>Month!N297</v>
       </c>
       <c r="AE35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O295</v>
+        <v>Month!O297</v>
       </c>
       <c r="AF35" s="6" t="str">
         <f t="shared" ref="Q35:AF36" si="4">$R$16&amp;AF$19&amp;$P35</f>
-        <v>Month!P295</v>
+        <v>Month!P297</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -28239,71 +28390,71 @@
       </c>
       <c r="P36">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!A296</v>
+        <v>Month!A298</v>
       </c>
       <c r="R36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!B296</v>
+        <v>Month!B298</v>
       </c>
       <c r="S36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!C296</v>
+        <v>Month!C298</v>
       </c>
       <c r="T36" s="6" t="str">
         <f>$R$16&amp;T$19&amp;$P36</f>
-        <v>Month!D296</v>
+        <v>Month!D298</v>
       </c>
       <c r="U36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!E296</v>
+        <v>Month!E298</v>
       </c>
       <c r="V36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!F296</v>
+        <v>Month!F298</v>
       </c>
       <c r="W36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!G296</v>
+        <v>Month!G298</v>
       </c>
       <c r="X36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!H296</v>
+        <v>Month!H298</v>
       </c>
       <c r="Y36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!I296</v>
+        <v>Month!I298</v>
       </c>
       <c r="Z36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!J296</v>
+        <v>Month!J298</v>
       </c>
       <c r="AA36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!K296</v>
+        <v>Month!K298</v>
       </c>
       <c r="AB36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!L296</v>
+        <v>Month!L298</v>
       </c>
       <c r="AC36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!M296</v>
+        <v>Month!M298</v>
       </c>
       <c r="AD36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!N296</v>
+        <v>Month!N298</v>
       </c>
       <c r="AE36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!O296</v>
+        <v>Month!O298</v>
       </c>
       <c r="AF36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!P296</v>
+        <v>Month!P298</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -28573,59 +28724,59 @@
       </c>
       <c r="P40">
         <f>P23+27-12</f>
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q40" s="6" t="str">
         <f>$R$38&amp;Q$39&amp;$P40</f>
-        <v>calculation_hide!b298</v>
+        <v>calculation_hide!b300</v>
       </c>
       <c r="R40" s="6" t="str">
         <f>$R$38&amp;R$39&amp;$P40</f>
-        <v>calculation_hide!c298</v>
+        <v>calculation_hide!c300</v>
       </c>
       <c r="S40" s="6" t="str">
         <f>$R$38&amp;S$39&amp;$P40</f>
-        <v>calculation_hide!d298</v>
+        <v>calculation_hide!d300</v>
       </c>
       <c r="T40" s="6" t="str">
         <f t="shared" ref="S40:AC41" si="5">$R$38&amp;T$39&amp;$P40</f>
-        <v>calculation_hide!e298</v>
+        <v>calculation_hide!e300</v>
       </c>
       <c r="U40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!f298</v>
+        <v>calculation_hide!f300</v>
       </c>
       <c r="V40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!g298</v>
+        <v>calculation_hide!g300</v>
       </c>
       <c r="W40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!h298</v>
+        <v>calculation_hide!h300</v>
       </c>
       <c r="X40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!I298</v>
+        <v>calculation_hide!I300</v>
       </c>
       <c r="Y40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!j298</v>
+        <v>calculation_hide!j300</v>
       </c>
       <c r="Z40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!k298</v>
+        <v>calculation_hide!k300</v>
       </c>
       <c r="AA40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!l298</v>
+        <v>calculation_hide!l300</v>
       </c>
       <c r="AB40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!m298</v>
+        <v>calculation_hide!m300</v>
       </c>
       <c r="AC40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!n298</v>
+        <v>calculation_hide!n300</v>
       </c>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
@@ -28688,59 +28839,59 @@
       </c>
       <c r="P41">
         <f>P23+27</f>
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q41" s="6" t="str">
         <f>$R$38&amp;Q$39&amp;$P41</f>
-        <v>calculation_hide!b310</v>
+        <v>calculation_hide!b312</v>
       </c>
       <c r="R41" s="6" t="str">
         <f>$R$38&amp;R$39&amp;$P41</f>
-        <v>calculation_hide!c310</v>
+        <v>calculation_hide!c312</v>
       </c>
       <c r="S41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!d310</v>
+        <v>calculation_hide!d312</v>
       </c>
       <c r="T41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!e310</v>
+        <v>calculation_hide!e312</v>
       </c>
       <c r="U41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!f310</v>
+        <v>calculation_hide!f312</v>
       </c>
       <c r="V41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!g310</v>
+        <v>calculation_hide!g312</v>
       </c>
       <c r="W41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!h310</v>
+        <v>calculation_hide!h312</v>
       </c>
       <c r="X41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!I310</v>
+        <v>calculation_hide!I312</v>
       </c>
       <c r="Y41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!j310</v>
+        <v>calculation_hide!j312</v>
       </c>
       <c r="Z41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!k310</v>
+        <v>calculation_hide!k312</v>
       </c>
       <c r="AA41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!l310</v>
+        <v>calculation_hide!l312</v>
       </c>
       <c r="AB41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!m310</v>
+        <v>calculation_hide!m312</v>
       </c>
       <c r="AC41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!n310</v>
+        <v>calculation_hide!n312</v>
       </c>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
@@ -43078,7 +43229,7 @@
         <v>2021</v>
       </c>
       <c r="B299" s="79" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C299" s="11">
         <f>C298+Month!B284</f>
@@ -43135,7 +43286,7 @@
         <v>2021</v>
       </c>
       <c r="B300" s="79" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C300" s="11">
         <f>C299+Month!B285</f>
@@ -43192,7 +43343,7 @@
         <v>2021</v>
       </c>
       <c r="B301" s="79" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C301" s="11">
         <f>C300+Month!B286</f>
@@ -43249,7 +43400,7 @@
         <v>2021</v>
       </c>
       <c r="B302" s="79" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C302" s="11">
         <f>C301+Month!B287</f>
@@ -43306,7 +43457,7 @@
         <v>2021</v>
       </c>
       <c r="B303" s="79" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C303" s="11">
         <f>C302+Month!B288</f>
@@ -43363,7 +43514,7 @@
         <v>2021</v>
       </c>
       <c r="B304" s="79" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C304" s="11">
         <f>C303+Month!B289</f>
@@ -43420,7 +43571,7 @@
         <v>2021</v>
       </c>
       <c r="B305" s="79" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C305" s="11">
         <f>C304+Month!B290</f>
@@ -43477,7 +43628,7 @@
         <v>2021</v>
       </c>
       <c r="B306" s="79" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C306" s="11">
         <f>C305+Month!B291</f>
@@ -43534,7 +43685,7 @@
         <v>2021</v>
       </c>
       <c r="B307" s="79" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="C307" s="11">
         <f>C306+Month!B292</f>
@@ -43591,7 +43742,7 @@
         <v>2021</v>
       </c>
       <c r="B308" s="79" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C308" s="11">
         <f>C307+Month!B293</f>
@@ -43648,7 +43799,7 @@
         <v>2021</v>
       </c>
       <c r="B309" s="79" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C309" s="11">
         <f>C308+Month!B294</f>
@@ -43708,11 +43859,11 @@
       </c>
       <c r="C310" s="11">
         <f>Month!B295</f>
-        <v>4384.2</v>
+        <v>4126.68</v>
       </c>
       <c r="D310" s="11">
         <f>Month!C295</f>
-        <v>273.75</v>
+        <v>273.76</v>
       </c>
       <c r="E310" s="11">
         <f>Month!D295</f>
@@ -43724,7 +43875,7 @@
       </c>
       <c r="G310" s="11">
         <f>Month!F295</f>
-        <v>882.19</v>
+        <v>843.81</v>
       </c>
       <c r="H310" s="11">
         <f>Month!G295</f>
@@ -43732,19 +43883,19 @@
       </c>
       <c r="I310" s="11">
         <f>Month!H295</f>
-        <v>355.83</v>
+        <v>362.35</v>
       </c>
       <c r="J310" s="11">
         <f>Month!I295</f>
-        <v>1780.61</v>
+        <v>1591.75</v>
       </c>
       <c r="K310" s="11">
         <f>Month!J295</f>
-        <v>320.91000000000003</v>
+        <v>317.58</v>
       </c>
       <c r="L310" s="11">
         <f>Month!K295</f>
-        <v>57.04</v>
+        <v>23.56</v>
       </c>
       <c r="M310" s="11">
         <f>Month!L295</f>
@@ -43764,52 +43915,52 @@
         <v>537</v>
       </c>
       <c r="C311" s="11">
-        <f>C310+Month!B295</f>
-        <v>8768.4</v>
+        <f>C310+Month!B296</f>
+        <v>8631.5600000000013</v>
       </c>
       <c r="D311" s="11">
-        <f>D310+Month!C295</f>
-        <v>547.5</v>
+        <f>D310+Month!C296</f>
+        <v>543.12</v>
       </c>
       <c r="E311" s="11">
-        <f>E310+Month!D295</f>
-        <v>105.24</v>
+        <f>E310+Month!D296</f>
+        <v>98.710000000000008</v>
       </c>
       <c r="F311" s="11">
-        <f>F310+Month!E295</f>
-        <v>0.28000000000000003</v>
+        <f>F310+Month!E296</f>
+        <v>4.26</v>
       </c>
       <c r="G311" s="11">
-        <f>G310+Month!F295</f>
-        <v>1764.38</v>
+        <f>G310+Month!F296</f>
+        <v>1711.67</v>
       </c>
       <c r="H311" s="11">
-        <f>H310+Month!G295</f>
-        <v>1004.4</v>
+        <f>H310+Month!G296</f>
+        <v>1008.16</v>
       </c>
       <c r="I311" s="11">
-        <f>I310+Month!H295</f>
-        <v>711.66</v>
+        <f>I310+Month!H296</f>
+        <v>744.99</v>
       </c>
       <c r="J311" s="11">
-        <f>J310+Month!I295</f>
-        <v>3561.22</v>
+        <f>J310+Month!I296</f>
+        <v>3454.29</v>
       </c>
       <c r="K311" s="11">
-        <f>K310+Month!J295</f>
-        <v>641.82000000000005</v>
+        <f>K310+Month!J296</f>
+        <v>690.44</v>
       </c>
       <c r="L311" s="11">
-        <f>L310+Month!K295</f>
-        <v>114.08</v>
+        <f>L310+Month!K296</f>
+        <v>37.54</v>
       </c>
       <c r="M311" s="11">
-        <f>M310+Month!L295</f>
-        <v>38.159999999999997</v>
+        <f>M310+Month!L296</f>
+        <v>39.61</v>
       </c>
       <c r="N311" s="11">
-        <f>N310+Month!M295</f>
-        <v>195.28</v>
+        <f>N310+Month!M296</f>
+        <v>208.74</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -43820,18 +43971,54 @@
       <c r="B312" s="79" t="s">
         <v>538</v>
       </c>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
-      <c r="F312" s="11"/>
-      <c r="G312" s="11"/>
-      <c r="H312" s="11"/>
-      <c r="I312" s="11"/>
-      <c r="J312" s="11"/>
-      <c r="K312" s="11"/>
-      <c r="L312" s="11"/>
-      <c r="M312" s="11"/>
-      <c r="N312" s="11"/>
+      <c r="C312" s="11">
+        <f>C311+Month!B297</f>
+        <v>13354.18</v>
+      </c>
+      <c r="D312" s="11">
+        <f>D311+Month!C297</f>
+        <v>866.03</v>
+      </c>
+      <c r="E312" s="11">
+        <f>E311+Month!D297</f>
+        <v>158.31</v>
+      </c>
+      <c r="F312" s="11">
+        <f>F311+Month!E297</f>
+        <v>5.82</v>
+      </c>
+      <c r="G312" s="11">
+        <f>G311+Month!F297</f>
+        <v>2569.79</v>
+      </c>
+      <c r="H312" s="11">
+        <f>H311+Month!G297</f>
+        <v>1649.01</v>
+      </c>
+      <c r="I312" s="11">
+        <f>I311+Month!H297</f>
+        <v>1107.02</v>
+      </c>
+      <c r="J312" s="11">
+        <f>J311+Month!I297</f>
+        <v>5263.05</v>
+      </c>
+      <c r="K312" s="11">
+        <f>K311+Month!J297</f>
+        <v>1095.1400000000001</v>
+      </c>
+      <c r="L312" s="11">
+        <f>L311+Month!K297</f>
+        <v>62.08</v>
+      </c>
+      <c r="M312" s="11">
+        <f>M311+Month!L297</f>
+        <v>63.03</v>
+      </c>
+      <c r="N312" s="11">
+        <f>N311+Month!M297</f>
+        <v>375.58000000000004</v>
+      </c>
     </row>
     <row r="313" spans="1:14">
       <c r="A313">

--- a/Data Sources/Daily Demand/Transport/ET_3.13.xlsx
+++ b/Data Sources/Daily Demand/Transport/ET_3.13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Statistics\Publications\Energy Trends\Tables\Oil and Oil Products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3CEBAA-6A68-4D55-BC31-1E7F46B9B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A7CC5-34F8-467F-B0F6-36DC71D85A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="591">
   <si>
     <t>Kerosene</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Energy statistics revisions policy (opens in a new window)</t>
   </si>
   <si>
-    <t>Glossary and acronyms (opens in a new window)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contact details </t>
   </si>
   <si>
@@ -436,16 +433,7 @@
     <t>Some cells refer to notes, which can be found in the 'Notes' sheet</t>
   </si>
   <si>
-    <t>Annual deliveries of petroleum products for inland consumption, 1998 - 2020</t>
-  </si>
-  <si>
-    <t>Quarterly deliveries of petroleum products for inland consumption, Quarter 1 1998 - Quarter 2 2021</t>
-  </si>
-  <si>
     <t>HM Revenue and Customs Hydrocarbon Oil Bulletin (opens in a new window)</t>
-  </si>
-  <si>
-    <t>Monthly deliveries of petroleum products for inland consumption, January 1998 - July 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Notes associated with tables </t>
@@ -1791,13 +1779,22 @@
     <t>February 2022</t>
   </si>
   <si>
-    <t>Quarter 1 2022 [provisional][Note 6]</t>
-  </si>
-  <si>
     <t>Quarter 4 2021</t>
   </si>
   <si>
     <t>March 2022</t>
+  </si>
+  <si>
+    <t>April 2022</t>
+  </si>
+  <si>
+    <t>Demand for transport fuels continue to boost post pandemic recovery</t>
+  </si>
+  <si>
+    <t>Zoe Clark</t>
+  </si>
+  <si>
+    <t>0743 672 9458</t>
   </si>
   <si>
     <r>
@@ -1811,7 +1808,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday 28th July 2022</t>
+      <t>Thursday 25th August 2022</t>
     </r>
     <r>
       <rPr>
@@ -1831,7 +1828,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday 25th August 2022</t>
+      <t>Thursday 29th September 2022</t>
     </r>
   </si>
   <si>
@@ -1846,7 +1843,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>new data for May 2022</t>
+      <t>new data for June 2022</t>
     </r>
     <r>
       <rPr>
@@ -1859,36 +1856,45 @@
     </r>
   </si>
   <si>
-    <t>The revisions period is for April 2022 data
+    <t>The revisions period is for April and May 2022 data
 Revisions are due to updates from data suppliers or the receipt of data replacing estimates unless otherwise stated.
-Deliveries of petrol and diesel are revised in line with HM Revenue and Customs' Hydrocarbon Oils bulletin. April 2022 petrol and road diesel deliveries are estimated in this current publication.
+Deliveries of petrol and diesel are revised in line with HM Revenue and Customs' Hydrocarbon Oils bulletin. There are no estimations in this publication.
 Estimated data will be revised at the earliest opportunity outside of the revisions period where necessary.</t>
   </si>
   <si>
-    <t>April 2022</t>
-  </si>
-  <si>
-    <t>May 2022 [provisional]</t>
-  </si>
-  <si>
-    <t>Demand for transport fuels continue to boost post pandemic recovery</t>
-  </si>
-  <si>
-    <t>Deliveries of petrol and diesel were up 25 and 8.6 per cent respectively in the three months to May compared to the same period in the previous year. Aviation demand continues to grow, with deliveries tripling in the three months to May compared with the same period last year. This growth means that deliveries are one quarter lower than those seen pre pandemic in the three months to May 2019. 
-Deliveries of burning oil have fallen by almost a quarter compared with the same period last year, as demand reduced following the warmer temperatures this year.</t>
-  </si>
-  <si>
-    <t>Zoe Clark</t>
-  </si>
-  <si>
-    <t>0743 672 9458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total deliveries were up a fifth in the three months to May 2022 compared to the same period in the previous year, as demand in the transport sector grows. Petrol demand is now broadly in line with pre-pandemic levels and diesel is only down 4 per cent on the same period in 2019. 
-Aviation fuel demand, despite tripling in the three months to May 2022, remains down 25 per cent on pre-pandemic levels. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demand continues to increase with petrol and diesel returning to near pre-pandemic levels. </t>
+    <t>June 2022 [provisional]</t>
+  </si>
+  <si>
+    <t>May 2022</t>
+  </si>
+  <si>
+    <t>Demand continues to grow, with many fuels nearing pre pandemic levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total deliveries were up 13 per cent in the three months to June 2022 compared to the same period in the previous year, as demand in the transport sector grows. In the latest three months diesel demand is broadly in line with pre pandemic levels, down 0.7 per cent compared with the same period in 2019, as petrol demand is down 5.6 per cent on 2019.
+Aviation fuel demand, despite tripling in the three months to June 2022, remains down 19 per cent on pre-pandemic levels seen in the same period in 2019. </t>
+  </si>
+  <si>
+    <t>Quarter 1 2022</t>
+  </si>
+  <si>
+    <t>Quarter 2 2022 [provisional][Note 6]</t>
+  </si>
+  <si>
+    <t>Deliveries of petrol and diesel were up 6.1 and 8.2 per cent respectively in the three months to June compared to the same period in the previous year
+Deliveries of burning oil have fallen a third compared with the same period last year, as demand reduced following the warmer temperatures this year.</t>
+  </si>
+  <si>
+    <t>Glossary and acronyms, DUKES Annex B (opens in a new window)</t>
+  </si>
+  <si>
+    <t>Annual deliveries of petroleum products for inland consumption</t>
+  </si>
+  <si>
+    <t>Quarterly deliveries of petroleum products for inland consumption</t>
+  </si>
+  <si>
+    <t>Monthly deliveries of petroleum products for inland consumption</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2348,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2565,9 +2571,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2664,11 +2667,29 @@
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="37" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="20" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2693,6 +2714,48 @@
     <cellStyle name="Percent" xfId="12" builtinId="5"/>
   </cellStyles>
   <dxfs count="120">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
       <fill>
@@ -4106,48 +4169,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4584,7 +4605,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Notes" displayName="Notes" ref="A4:B11" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Notes" displayName="Notes" ref="A4:B10" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114" headerRowCellStyle="Heading 2">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Note " dataDxfId="113" dataCellStyle="Normal 4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Description" dataDxfId="112" dataCellStyle="Normal 4"/>
@@ -4630,29 +4651,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_annual_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_annual_data_thousand_tonnes" ref="A6:M30" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86" headerRowCellStyle="Normal 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_annual_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_annual_data_thousand_tonnes" ref="A6:M30" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92" headerRowCellStyle="Normal 4">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Year" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Total _x000a_[note 1]" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Normal 4" totalsRowCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Butane and  propane _x000a_[note 2]" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Other petroleum gases _x000a_[note 3]_x000a_[note 4]" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Naphtha [LDF]" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Petrol" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Jet fuel" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Burning oil" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Road diesel" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Gas oil" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Fuel oil _x000a_[note 4]" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Lubricating oils" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Bitumen" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Year" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Total _x000a_[note 1]" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Normal 4" totalsRowCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Butane and  propane _x000a_[note 2]" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Other petroleum gases _x000a_[note 3]_x000a_[note 4]" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Naphtha [LDF]" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Petrol" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Jet fuel" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Burning oil" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Road diesel" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Gas oil" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Fuel oil _x000a_[note 4]" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Lubricating oils" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Bitumen" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" ref="A6:M103" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="55" headerRowBorderDxfId="58" tableBorderDxfId="56" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4">
-  <autoFilter ref="A6:M103" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" ref="A6:M104" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" totalsRowDxfId="61" headerRowBorderDxfId="64" tableBorderDxfId="62" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4">
+  <autoFilter ref="A6:M104" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4668,40 +4689,40 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{88B647EF-0B85-44A1-8413-3A540D93D703}" name="Column1" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{BCD56962-2BF2-4927-9F9F-69E5F2396E82}" name="Total _x000a_[note 1]" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{0B552053-4398-4B87-9D6E-A50B9DEA52B5}" name="Butane and  propane _x000a_[note 2]" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{BF37A140-0160-42E9-B897-58F148606AD6}" name="Other petroleum gases _x000a_[note 3][note 4]" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{75283270-1F12-4882-B29A-EAFC2EB38ED5}" name="Naphtha [LDF]" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="7" xr3:uid="{C8FE6921-2973-4065-B29B-9339B8C473EF}" name="Petrol" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{97D09F85-60EC-4966-A794-C2A4E92CB0A9}" name="Jet fuel" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="9" xr3:uid="{B6DD607A-CCFA-4901-BC68-666A9FCE23FF}" name="Burning oil" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="10" xr3:uid="{6D69EC46-8E75-4B41-9707-BDCC32395843}" name="Road diesel" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="11" xr3:uid="{387DD636-F736-4370-99A7-40C8D3BF1192}" name="Gas oil" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="12" xr3:uid="{E3D1EC5B-F99D-491D-84A4-589342A35884}" name="Fuel oil _x000a_[note 4]" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="13" xr3:uid="{40E1FBF7-FB79-4706-B123-EB65828D1725}" name="Lubricating oils" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
-    <tableColumn id="14" xr3:uid="{4CB90CA8-2CCE-426B-A639-B9A5D1563CA9}" name="Bitumen" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{88B647EF-0B85-44A1-8413-3A540D93D703}" name="Column1" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{BCD56962-2BF2-4927-9F9F-69E5F2396E82}" name="Total _x000a_[note 1]" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{0B552053-4398-4B87-9D6E-A50B9DEA52B5}" name="Butane and  propane _x000a_[note 2]" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{BF37A140-0160-42E9-B897-58F148606AD6}" name="Other petroleum gases _x000a_[note 3][note 4]" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{75283270-1F12-4882-B29A-EAFC2EB38ED5}" name="Naphtha [LDF]" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="7" xr3:uid="{C8FE6921-2973-4065-B29B-9339B8C473EF}" name="Petrol" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{97D09F85-60EC-4966-A794-C2A4E92CB0A9}" name="Jet fuel" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="9" xr3:uid="{B6DD607A-CCFA-4901-BC68-666A9FCE23FF}" name="Burning oil" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{6D69EC46-8E75-4B41-9707-BDCC32395843}" name="Road diesel" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="11" xr3:uid="{387DD636-F736-4370-99A7-40C8D3BF1192}" name="Gas oil" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="12" xr3:uid="{E3D1EC5B-F99D-491D-84A4-589342A35884}" name="Fuel oil _x000a_[note 4]" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="13" xr3:uid="{40E1FBF7-FB79-4706-B123-EB65828D1725}" name="Lubricating oils" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
+    <tableColumn id="14" xr3:uid="{4CB90CA8-2CCE-426B-A639-B9A5D1563CA9}" name="Bitumen" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Comma" totalsRowCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32EC90BF-6925-4350-9731-D694C97366E7}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" ref="A6:M301" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32EC90BF-6925-4350-9731-D694C97366E7}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" ref="A6:M300" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C1D016C8-7136-43D1-910A-4E18DF904FCD}" name="Column1" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="2" xr3:uid="{91EC4919-FD31-4FFA-AD1D-9A2EC0119BD1}" name="Total _x000a_[note 1]" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{9994B519-8D09-4513-9D89-15068D3F7DE7}" name="Butane and  propane _x000a_[note 2]" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="4" xr3:uid="{783F1BD5-1EC3-4630-B016-D961842351A4}" name="Other petroleum gases _x000a_[note 3] [note 4]" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{46CFC098-5F8C-4A0E-930C-156142155F6B}" name="Naphtha [LDF]" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="6" xr3:uid="{2634D3AF-533E-4B44-8B38-8AA6FF4B56F2}" name="Petrol" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="7" xr3:uid="{270DFCDF-A421-4777-B056-F0529134DBCA}" name="Jet fuel" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 4" totalsRowCellStyle="Percent"/>
-    <tableColumn id="8" xr3:uid="{27F8035E-2A2C-4CCE-8B43-5BC3605A1EA2}" name="Burning oil" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="9" xr3:uid="{32482D04-2567-40C6-B05A-081617C263FD}" name="Road diesel" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="10" xr3:uid="{50A07C9F-DFDA-4AFF-8695-4CBA4A267A54}" name="Gas oil" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="11" xr3:uid="{A8740E53-EE21-48A3-A4C7-9CF105304A07}" name="Fuel oil _x000a_[note 4]" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="12" xr3:uid="{D8A64CDD-4BB3-4A66-AA23-AF58CA437AA5}" name="Lubricating oils" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="13" xr3:uid="{4A9D043F-7235-4F2A-BA79-F748E9DEC20A}" name="Bitumen" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="1" xr3:uid="{C1D016C8-7136-43D1-910A-4E18DF904FCD}" name="Column1" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="2" xr3:uid="{91EC4919-FD31-4FFA-AD1D-9A2EC0119BD1}" name="Total _x000a_[note 1]" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{9994B519-8D09-4513-9D89-15068D3F7DE7}" name="Butane and  propane _x000a_[note 2]" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="4" xr3:uid="{783F1BD5-1EC3-4630-B016-D961842351A4}" name="Other petroleum gases _x000a_[note 3] [note 4]" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{46CFC098-5F8C-4A0E-930C-156142155F6B}" name="Naphtha [LDF]" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="6" xr3:uid="{2634D3AF-533E-4B44-8B38-8AA6FF4B56F2}" name="Petrol" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="7" xr3:uid="{270DFCDF-A421-4777-B056-F0529134DBCA}" name="Jet fuel" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal 4" totalsRowCellStyle="Percent"/>
+    <tableColumn id="8" xr3:uid="{27F8035E-2A2C-4CCE-8B43-5BC3605A1EA2}" name="Burning oil" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="9" xr3:uid="{32482D04-2567-40C6-B05A-081617C263FD}" name="Road diesel" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="10" xr3:uid="{50A07C9F-DFDA-4AFF-8695-4CBA4A267A54}" name="Gas oil" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="11" xr3:uid="{A8740E53-EE21-48A3-A4C7-9CF105304A07}" name="Fuel oil _x000a_[note 4]" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="12" xr3:uid="{D8A64CDD-4BB3-4A66-AA23-AF58CA437AA5}" name="Lubricating oils" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="13" xr3:uid="{4A9D043F-7235-4F2A-BA79-F748E9DEC20A}" name="Bitumen" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5059,10 +5080,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="150.54296875" style="30" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="30"/>
+    <col min="2" max="16384" width="8.6328125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
@@ -5072,7 +5093,7 @@
     </row>
     <row r="2" spans="1:8" ht="45" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
@@ -5082,17 +5103,17 @@
     </row>
     <row r="4" spans="1:8" ht="31">
       <c r="A4" s="87" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="119" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1">
       <c r="A6" s="87" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -5100,9 +5121,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="108.5">
+    <row r="8" spans="1:8" ht="93">
       <c r="A8" s="87" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -5142,7 +5163,7 @@
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -5154,7 +5175,7 @@
     </row>
     <row r="17" spans="1:1" ht="20.25" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.25" customHeight="1">
@@ -5163,38 +5184,38 @@
       </c>
     </row>
     <row r="19" spans="1:1" ht="20.25" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>93</v>
+      <c r="A19" s="129" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="30" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="20.25" customHeight="1">
       <c r="A21" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.25" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="20.25" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="20.25" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="20.25" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="20.25" customHeight="1">
@@ -5204,7 +5225,7 @@
     </row>
     <row r="27" spans="1:1" ht="20.25" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5212,14 +5233,14 @@
     <hyperlink ref="A26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A17" r:id="rId2" display="HM Revenue and Customs Hydrocarbon Oil Bulletin (opens in a new windonw)" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="A18" r:id="rId3" location="energy-statistics" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A15" r:id="rId7" display="Energy trends publication (opens in a new window) " xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A16:G16" r:id="rId8" display="Crude oil and petroleum products: methodology note" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A16:F16" r:id="rId9" display="Energy balance: methodology note" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A16" r:id="rId10" display="Crude oil and petroleum products: methodology note" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A16:H16" r:id="rId11" display="Crude oil and petroleum products: methodology note" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A15" r:id="rId6" display="Energy trends publication (opens in a new window) " xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A16:G16" r:id="rId7" display="Crude oil and petroleum products: methodology note" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A16:F16" r:id="rId8" display="Energy balance: methodology note" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A16" r:id="rId9" display="Crude oil and petroleum products: methodology note" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A16:H16" r:id="rId10" display="Crude oil and petroleum products: methodology note" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A19" r:id="rId11" display="Glossary and acronyms (opens in a new window)" xr:uid="{71E0454F-A19E-4F5D-A080-6F86C941B481}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
@@ -5232,11 +5253,11 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="91.54296875" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="32" customWidth="1"/>
-    <col min="3" max="16384" width="9.26953125" style="32"/>
+    <col min="2" max="2" width="15.6328125" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="9.36328125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1">
@@ -5246,33 +5267,33 @@
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.25" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.25" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.25" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>75</v>
@@ -5280,23 +5301,23 @@
     </row>
     <row r="7" spans="1:2" ht="20.25" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="21" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.25" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>74</v>
@@ -5304,15 +5325,15 @@
     </row>
     <row r="10" spans="1:2" ht="27.75" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>126</v>
+        <v>588</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="34.15" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="34.25" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>127</v>
+        <v>589</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>73</v>
@@ -5320,7 +5341,7 @@
     </row>
     <row r="12" spans="1:2" ht="20.25" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>129</v>
+        <v>590</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>17</v>
@@ -5348,91 +5369,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" style="36" customWidth="1"/>
     <col min="2" max="2" width="99.54296875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.26953125" style="36"/>
+    <col min="3" max="16384" width="9.36328125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="45" customHeight="1">
       <c r="A1" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="25" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="25" customFormat="1" ht="20.25" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="38" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="26" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="26" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="90"/>
-      <c r="B11" s="26"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.5">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39"/>
@@ -5462,7 +5483,7 @@
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
     </row>
-    <row r="13" spans="1:14" ht="15.5">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -5478,7 +5499,7 @@
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:14" ht="15.5">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -5497,26 +5518,10 @@
     <row r="15" spans="1:14" ht="15.5">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="15.5">
-      <c r="A16" s="39"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="39"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.5">
-      <c r="A17" s="40"/>
-      <c r="B17" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="26" type="noConversion"/>
@@ -5534,40 +5539,40 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="150.54296875" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="9.26953125" style="28"/>
+    <col min="2" max="16384" width="9.36328125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="45" customHeight="1">
-      <c r="A1" s="118" t="s">
-        <v>111</v>
+      <c r="A1" s="117" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" customHeight="1">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="89" customFormat="1" ht="21" customHeight="1">
       <c r="A3" s="89" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="62">
-      <c r="A4" s="124" t="s">
-        <v>587</v>
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="77.5">
+      <c r="A4" s="122" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21" customHeight="1">
       <c r="A5" s="89" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="77.5">
-      <c r="A6" s="124" t="s">
-        <v>584</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="46.5">
+      <c r="A6" s="122" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5583,1062 +5588,1052 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="36" style="50" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" style="50" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="50" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="50" customWidth="1"/>
-    <col min="9" max="10" width="11.26953125" style="50" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="50" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" style="50" customWidth="1"/>
-    <col min="14" max="16384" width="9.26953125" style="50"/>
+    <col min="2" max="13" width="12.6328125" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="9.36328125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="83" customFormat="1" ht="45" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="92" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="92" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="92" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="95"/>
+      <c r="I4" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="95"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="95"/>
+    </row>
+    <row r="5" spans="1:13" s="92" customFormat="1" ht="77.5">
+      <c r="A5" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="98" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="93" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="93" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="93" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
-    </row>
-    <row r="5" spans="1:13" s="93" customFormat="1" ht="46.5">
-      <c r="A5" s="97" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="99" t="s">
-        <v>552</v>
-      </c>
-      <c r="E5" s="99" t="s">
+      <c r="D5" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="E5" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="98" t="s">
+        <v>545</v>
+      </c>
+      <c r="G5" s="97" t="s">
         <v>549</v>
       </c>
-      <c r="G5" s="98" t="s">
-        <v>553</v>
-      </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="98" t="s">
-        <v>550</v>
-      </c>
-      <c r="J5" s="100" t="s">
-        <v>551</v>
-      </c>
-      <c r="K5" s="99" t="s">
-        <v>518</v>
-      </c>
-      <c r="L5" s="99" t="s">
+      <c r="I5" s="97" t="s">
+        <v>546</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="K5" s="98" t="s">
+        <v>514</v>
+      </c>
+      <c r="L5" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="100" t="s">
+      <c r="M5" s="99" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="101">
+    <row r="6" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A6" s="100">
         <f ca="1">INDIRECT(calculation_hide!P9)</f>
         <v>2017</v>
       </c>
-      <c r="B6" s="102">
+      <c r="B6" s="101">
         <f ca="1">INDIRECT(calculation_hide!Q9)</f>
         <v>67317.88</v>
       </c>
-      <c r="C6" s="102">
+      <c r="C6" s="101">
         <f ca="1">INDIRECT(calculation_hide!R9)</f>
         <v>3131.6400000000003</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="101">
         <f ca="1">INDIRECT(calculation_hide!S9)</f>
         <v>1667.54</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="101">
         <f ca="1">INDIRECT(calculation_hide!T9)</f>
         <v>1348.07</v>
       </c>
-      <c r="F6" s="102">
+      <c r="F6" s="101">
         <f ca="1">INDIRECT(calculation_hide!U9)</f>
         <v>11793.41</v>
       </c>
-      <c r="G6" s="103">
+      <c r="G6" s="102">
         <f ca="1">INDIRECT(calculation_hide!V9)</f>
         <v>12185.869999999999</v>
       </c>
-      <c r="H6" s="104">
+      <c r="H6" s="103">
         <f ca="1">INDIRECT(calculation_hide!W9)</f>
         <v>3312.1000000000004</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="102">
         <f ca="1">INDIRECT(calculation_hide!X9)</f>
         <v>24910.92</v>
       </c>
-      <c r="J6" s="104">
+      <c r="J6" s="103">
         <f ca="1">INDIRECT(calculation_hide!Y9)</f>
         <v>5354.6</v>
       </c>
-      <c r="K6" s="102">
+      <c r="K6" s="101">
         <f ca="1">INDIRECT(calculation_hide!Z9)</f>
         <v>557.36</v>
       </c>
-      <c r="L6" s="102">
+      <c r="L6" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA9)</f>
         <v>413.85</v>
       </c>
-      <c r="M6" s="102">
+      <c r="M6" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB9)</f>
         <v>1631.83</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="105">
+    <row r="7" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A7" s="104">
         <f ca="1">INDIRECT(calculation_hide!P10)</f>
         <v>2018</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="101">
         <f ca="1">INDIRECT(calculation_hide!Q10)</f>
         <v>66394.260000000009</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="101">
         <f ca="1">INDIRECT(calculation_hide!R10)</f>
         <v>3118.4300000000003</v>
       </c>
-      <c r="D7" s="102">
+      <c r="D7" s="101">
         <f ca="1">INDIRECT(calculation_hide!S10)</f>
         <v>1445.9</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="101">
         <f ca="1">INDIRECT(calculation_hide!T10)</f>
         <v>1175.79</v>
       </c>
-      <c r="F7" s="102">
+      <c r="F7" s="101">
         <f ca="1">INDIRECT(calculation_hide!U10)</f>
         <v>11584</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="102">
         <f ca="1">INDIRECT(calculation_hide!V10)</f>
         <v>12272.160000000002</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H7" s="103">
         <f ca="1">INDIRECT(calculation_hide!W10)</f>
         <v>3435.1400000000003</v>
       </c>
-      <c r="I7" s="103">
+      <c r="I7" s="102">
         <f ca="1">INDIRECT(calculation_hide!X10)</f>
         <v>24626.67</v>
       </c>
-      <c r="J7" s="104">
+      <c r="J7" s="103">
         <f ca="1">INDIRECT(calculation_hide!Y10)</f>
         <v>5350.56</v>
       </c>
-      <c r="K7" s="102">
+      <c r="K7" s="101">
         <f ca="1">INDIRECT(calculation_hide!Z10)</f>
         <v>450.49</v>
       </c>
-      <c r="L7" s="102">
+      <c r="L7" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA10)</f>
         <v>369.46999999999997</v>
       </c>
-      <c r="M7" s="102">
+      <c r="M7" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB10)</f>
         <v>1601.46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="105">
+    <row r="8" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A8" s="104">
         <f ca="1">INDIRECT(calculation_hide!P11)</f>
         <v>2019</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="101">
         <f ca="1">INDIRECT(calculation_hide!Q11)</f>
         <v>65059.61</v>
       </c>
-      <c r="C8" s="102">
+      <c r="C8" s="101">
         <f ca="1">INDIRECT(calculation_hide!R11)</f>
         <v>3224.11</v>
       </c>
-      <c r="D8" s="102">
+      <c r="D8" s="101">
         <f ca="1">INDIRECT(calculation_hide!S11)</f>
         <v>1005.85</v>
       </c>
-      <c r="E8" s="102">
+      <c r="E8" s="101">
         <f ca="1">INDIRECT(calculation_hide!T11)</f>
         <v>1213.42</v>
       </c>
-      <c r="F8" s="102">
+      <c r="F8" s="101">
         <f ca="1">INDIRECT(calculation_hide!U11)</f>
         <v>11713.420000000002</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="102">
         <f ca="1">INDIRECT(calculation_hide!V11)</f>
         <v>12308.630000000001</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="103">
         <f ca="1">INDIRECT(calculation_hide!W11)</f>
         <v>3363.5999999999995</v>
       </c>
-      <c r="I8" s="103">
+      <c r="I8" s="102">
         <f ca="1">INDIRECT(calculation_hide!X11)</f>
         <v>23806.079999999998</v>
       </c>
-      <c r="J8" s="104">
+      <c r="J8" s="103">
         <f ca="1">INDIRECT(calculation_hide!Y11)</f>
         <v>5218.12</v>
       </c>
-      <c r="K8" s="102">
+      <c r="K8" s="101">
         <f ca="1">INDIRECT(calculation_hide!Z11)</f>
         <v>327.65000000000003</v>
       </c>
-      <c r="L8" s="102">
+      <c r="L8" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA11)</f>
         <v>358.16999999999996</v>
       </c>
-      <c r="M8" s="102">
+      <c r="M8" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB11)</f>
         <v>1662.5200000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="105">
+    <row r="9" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A9" s="104">
         <f ca="1">INDIRECT(calculation_hide!P12)</f>
         <v>2020</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="101">
         <f ca="1">INDIRECT(calculation_hide!Q12)</f>
         <v>49790.590000000011</v>
       </c>
-      <c r="C9" s="102">
+      <c r="C9" s="101">
         <f ca="1">INDIRECT(calculation_hide!R12)</f>
         <v>2717.5699999999997</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="101">
         <f ca="1">INDIRECT(calculation_hide!S12)</f>
         <v>1114.71</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="101">
         <f ca="1">INDIRECT(calculation_hide!T12)</f>
         <v>1310.3</v>
       </c>
-      <c r="F9" s="102">
+      <c r="F9" s="101">
         <f ca="1">INDIRECT(calculation_hide!U12)</f>
         <v>9144.48</v>
       </c>
-      <c r="G9" s="103">
+      <c r="G9" s="102">
         <f ca="1">INDIRECT(calculation_hide!V12)</f>
         <v>5099.58</v>
       </c>
-      <c r="H9" s="104">
+      <c r="H9" s="103">
         <f ca="1">INDIRECT(calculation_hide!W12)</f>
         <v>3507.99</v>
       </c>
-      <c r="I9" s="103">
+      <c r="I9" s="102">
         <f ca="1">INDIRECT(calculation_hide!X12)</f>
         <v>19693.510000000002</v>
       </c>
-      <c r="J9" s="104">
+      <c r="J9" s="103">
         <f ca="1">INDIRECT(calculation_hide!Y12)</f>
         <v>4368.3999999999996</v>
       </c>
-      <c r="K9" s="102">
+      <c r="K9" s="101">
         <f ca="1">INDIRECT(calculation_hide!Z12)</f>
         <v>261.21999999999997</v>
       </c>
-      <c r="L9" s="102">
+      <c r="L9" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA12)</f>
         <v>293.02999999999997</v>
       </c>
-      <c r="M9" s="102">
+      <c r="M9" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB12)</f>
         <v>1570.8899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="105">
+    <row r="10" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A10" s="104">
         <f ca="1">INDIRECT(calculation_hide!P13)</f>
         <v>2021</v>
       </c>
-      <c r="B10" s="102">
+      <c r="B10" s="101">
         <f ca="1">INDIRECT(calculation_hide!Q13)</f>
         <v>51871.020000000004</v>
       </c>
-      <c r="C10" s="102">
+      <c r="C10" s="101">
         <f ca="1">INDIRECT(calculation_hide!R13)</f>
         <v>2810.1400000000003</v>
       </c>
-      <c r="D10" s="102">
+      <c r="D10" s="101">
         <f ca="1">INDIRECT(calculation_hide!S13)</f>
         <v>902.64</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="101">
         <f ca="1">INDIRECT(calculation_hide!T13)</f>
         <v>177.07</v>
       </c>
-      <c r="F10" s="102">
+      <c r="F10" s="101">
         <f ca="1">INDIRECT(calculation_hide!U13)</f>
         <v>10159.380000000001</v>
       </c>
-      <c r="G10" s="103">
+      <c r="G10" s="102">
         <f ca="1">INDIRECT(calculation_hide!V13)</f>
         <v>4672.9400000000005</v>
       </c>
-      <c r="H10" s="104">
+      <c r="H10" s="103">
         <f ca="1">INDIRECT(calculation_hide!W13)</f>
         <v>3485.69</v>
       </c>
-      <c r="I10" s="103">
+      <c r="I10" s="102">
         <f ca="1">INDIRECT(calculation_hide!X13)</f>
         <v>21727.199999999997</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="103">
         <f ca="1">INDIRECT(calculation_hide!Y13)</f>
         <v>4884.83</v>
       </c>
-      <c r="K10" s="102">
+      <c r="K10" s="101">
         <f ca="1">INDIRECT(calculation_hide!Z13)</f>
         <v>244.43</v>
       </c>
-      <c r="L10" s="102">
+      <c r="L10" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA13)</f>
         <v>300.38</v>
       </c>
-      <c r="M10" s="102">
+      <c r="M10" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB13)</f>
         <v>1851.7700000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A11" s="106" t="s">
+    <row r="11" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A11" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="107" t="str">
+      <c r="B11" s="106" t="str">
         <f t="shared" ref="B11:M11" ca="1" si="0">IF(((B10-B9)/B9*100)&gt;100,"(+) ",IF(((B10-B9)/B9*100)&lt;-100,"(-) ",IF(ROUND(((B10-B9)/B9*100),1)=0,"- ",IF(((B10-B9)/B9*100)&gt;0,TEXT(((B10-B9)/B9*100),"+0.0 "),TEXT(((B10-B9)/B9*100),"0.0 ")))))</f>
         <v xml:space="preserve">+4.2 </v>
       </c>
-      <c r="C11" s="107" t="str">
+      <c r="C11" s="106" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+3.4 </v>
       </c>
-      <c r="D11" s="107" t="str">
+      <c r="D11" s="106" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-19.0 </v>
       </c>
-      <c r="E11" s="107" t="str">
+      <c r="E11" s="106" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-86.5 </v>
       </c>
-      <c r="F11" s="107" t="str">
+      <c r="F11" s="106" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+11.1 </v>
       </c>
-      <c r="G11" s="108" t="str">
+      <c r="G11" s="107" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-8.4 </v>
       </c>
-      <c r="H11" s="109" t="str">
+      <c r="H11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-0.6 </v>
       </c>
-      <c r="I11" s="108" t="str">
+      <c r="I11" s="107" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+10.3 </v>
       </c>
-      <c r="J11" s="109" t="str">
+      <c r="J11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+11.8 </v>
       </c>
-      <c r="K11" s="107" t="str">
+      <c r="K11" s="106" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">-6.4 </v>
       </c>
-      <c r="L11" s="107" t="str">
+      <c r="L11" s="106" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+2.5 </v>
       </c>
-      <c r="M11" s="109" t="str">
+      <c r="M11" s="108" t="str">
         <f t="shared" ca="1" si="0"/>
         <v xml:space="preserve">+17.9 </v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A12" s="102" t="str">
+    <row r="12" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A12" s="101" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q40)</f>
-        <v>January - May 2021</v>
-      </c>
-      <c r="B12" s="110">
+        <v>January - June 2021</v>
+      </c>
+      <c r="B12" s="109">
         <f ca="1">INDIRECT(calculation_hide!R40)</f>
-        <v>19664.38</v>
-      </c>
-      <c r="C12" s="102">
+        <v>24000.33</v>
+      </c>
+      <c r="C12" s="101">
         <f ca="1">INDIRECT(calculation_hide!S40)</f>
-        <v>1152.68</v>
-      </c>
-      <c r="D12" s="102">
+        <v>1392.49</v>
+      </c>
+      <c r="D12" s="101">
         <f ca="1">INDIRECT(calculation_hide!T40)</f>
-        <v>394.04</v>
-      </c>
-      <c r="E12" s="102">
+        <v>421.58000000000004</v>
+      </c>
+      <c r="E12" s="101">
         <f ca="1">INDIRECT(calculation_hide!U40)</f>
-        <v>127.38</v>
-      </c>
-      <c r="F12" s="102">
+        <v>151.07</v>
+      </c>
+      <c r="F12" s="101">
         <f ca="1">INDIRECT(calculation_hide!V40)</f>
-        <v>3521.65</v>
-      </c>
-      <c r="G12" s="103">
+        <v>4481.43</v>
+      </c>
+      <c r="G12" s="102">
         <f ca="1">INDIRECT(calculation_hide!W40)</f>
-        <v>1263.3</v>
-      </c>
-      <c r="H12" s="104">
+        <v>1578.96</v>
+      </c>
+      <c r="H12" s="103">
         <f ca="1">INDIRECT(calculation_hide!X40)</f>
-        <v>1814.9699999999998</v>
-      </c>
-      <c r="I12" s="103">
+        <v>1970.9399999999998</v>
+      </c>
+      <c r="I12" s="102">
         <f ca="1">INDIRECT(calculation_hide!Y40)</f>
-        <v>8193.48</v>
-      </c>
-      <c r="J12" s="104">
+        <v>10121.89</v>
+      </c>
+      <c r="J12" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z40)</f>
-        <v>2007.96</v>
-      </c>
-      <c r="K12" s="102">
+        <v>2405.6</v>
+      </c>
+      <c r="K12" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA40)</f>
-        <v>113.39</v>
-      </c>
-      <c r="L12" s="102">
+        <v>129.57</v>
+      </c>
+      <c r="L12" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB40)</f>
-        <v>122.20000000000002</v>
-      </c>
-      <c r="M12" s="102">
+        <v>145.62</v>
+      </c>
+      <c r="M12" s="101">
         <f ca="1">INDIRECT(calculation_hide!AC40)</f>
-        <v>717.76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="102" t="str">
+        <v>906.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A13" s="101" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q41)</f>
-        <v>January - May 2022 [provisional]</v>
-      </c>
-      <c r="B13" s="111">
+        <v>January - June 2022 [provisional]</v>
+      </c>
+      <c r="B13" s="110">
         <f ca="1">INDIRECT(calculation_hide!R41)</f>
-        <v>23421.65</v>
-      </c>
-      <c r="C13" s="102">
+        <v>27841.739999999998</v>
+      </c>
+      <c r="C13" s="101">
         <f ca="1">INDIRECT(calculation_hide!S41)</f>
-        <v>1396.97</v>
-      </c>
-      <c r="D13" s="102">
+        <v>1611.72</v>
+      </c>
+      <c r="D13" s="101">
         <f ca="1">INDIRECT(calculation_hide!T41)</f>
-        <v>258.52999999999997</v>
-      </c>
-      <c r="E13" s="102">
+        <v>319.38</v>
+      </c>
+      <c r="E13" s="101">
         <f ca="1">INDIRECT(calculation_hide!U41)</f>
-        <v>26.42</v>
-      </c>
-      <c r="F13" s="102">
+        <v>34.43</v>
+      </c>
+      <c r="F13" s="101">
         <f ca="1">INDIRECT(calculation_hide!V41)</f>
-        <v>4554.79</v>
-      </c>
-      <c r="G13" s="103">
+        <v>5384.49</v>
+      </c>
+      <c r="G13" s="102">
         <f ca="1">INDIRECT(calculation_hide!W41)</f>
-        <v>3389.7400000000002</v>
-      </c>
-      <c r="H13" s="104">
+        <v>4261.2800000000007</v>
+      </c>
+      <c r="H13" s="103">
         <f ca="1">INDIRECT(calculation_hide!X41)</f>
-        <v>1465.27</v>
-      </c>
-      <c r="I13" s="103">
+        <v>1602.3000000000002</v>
+      </c>
+      <c r="I13" s="102">
         <f ca="1">INDIRECT(calculation_hide!Y41)</f>
-        <v>9113.0499999999993</v>
-      </c>
-      <c r="J13" s="104">
+        <v>11276.689999999999</v>
+      </c>
+      <c r="J13" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z41)</f>
-        <v>2068</v>
-      </c>
-      <c r="K13" s="102">
+        <v>1964.23</v>
+      </c>
+      <c r="K13" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA41)</f>
-        <v>115.66</v>
-      </c>
-      <c r="L13" s="102">
+        <v>129.68</v>
+      </c>
+      <c r="L13" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB41)</f>
-        <v>131.41999999999999</v>
-      </c>
-      <c r="M13" s="102">
+        <v>158.63</v>
+      </c>
+      <c r="M13" s="101">
         <f ca="1">INDIRECT(calculation_hide!AC41)</f>
-        <v>649.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="106" t="s">
+        <v>796.68999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A14" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="107" t="str">
+      <c r="B14" s="106" t="str">
         <f t="shared" ref="B14:M14" ca="1" si="1">IF(((B13-B12)/B12*100)&gt;100,"(+) ",IF(((B13-B12)/B12*100)&lt;-100,"(-) ",IF(ROUND(((B13-B12)/B12*100),1)=0,"- ",IF(((B13-B12)/B12*100)&gt;0,TEXT(((B13-B12)/B12*100),"+0.0 "),TEXT(((B13-B12)/B12*100),"0.0 ")))))</f>
-        <v xml:space="preserve">+19.1 </v>
-      </c>
-      <c r="C14" s="107" t="str">
+        <v xml:space="preserve">+16.0 </v>
+      </c>
+      <c r="C14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+21.2 </v>
-      </c>
-      <c r="D14" s="107" t="str">
+        <v xml:space="preserve">+15.7 </v>
+      </c>
+      <c r="D14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-34.4 </v>
-      </c>
-      <c r="E14" s="107" t="str">
+        <v xml:space="preserve">-24.2 </v>
+      </c>
+      <c r="E14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-79.3 </v>
-      </c>
-      <c r="F14" s="107" t="str">
+        <v xml:space="preserve">-77.2 </v>
+      </c>
+      <c r="F14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+29.3 </v>
-      </c>
-      <c r="G14" s="108" t="str">
+        <v xml:space="preserve">+20.2 </v>
+      </c>
+      <c r="G14" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
         <v xml:space="preserve">(+) </v>
       </c>
-      <c r="H14" s="109" t="str">
+      <c r="H14" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-19.3 </v>
-      </c>
-      <c r="I14" s="108" t="str">
+        <v xml:space="preserve">-18.7 </v>
+      </c>
+      <c r="I14" s="107" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+11.2 </v>
-      </c>
-      <c r="J14" s="109" t="str">
+        <v xml:space="preserve">+11.4 </v>
+      </c>
+      <c r="J14" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+3.0 </v>
-      </c>
-      <c r="K14" s="107" t="str">
+        <v xml:space="preserve">-18.3 </v>
+      </c>
+      <c r="K14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+2.0 </v>
-      </c>
-      <c r="L14" s="107" t="str">
+        <v xml:space="preserve">+0.1 </v>
+      </c>
+      <c r="L14" s="106" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+7.5 </v>
-      </c>
-      <c r="M14" s="109" t="str">
+        <v xml:space="preserve">+8.9 </v>
+      </c>
+      <c r="M14" s="108" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-9.5 </v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="105" t="str">
+        <v xml:space="preserve">-12.1 </v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A15" s="104" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q21)</f>
-        <v>March 2021</v>
-      </c>
-      <c r="B15" s="102">
+        <v>April 2021</v>
+      </c>
+      <c r="B15" s="101">
         <f ca="1">INDIRECT(calculation_hide!R21)</f>
-        <v>3883.85</v>
-      </c>
-      <c r="C15" s="102">
+        <v>4150.29</v>
+      </c>
+      <c r="C15" s="101">
         <f ca="1">INDIRECT(calculation_hide!S21)</f>
-        <v>264.24</v>
-      </c>
-      <c r="D15" s="102">
+        <v>223.26</v>
+      </c>
+      <c r="D15" s="101">
         <f ca="1">INDIRECT(calculation_hide!T21)</f>
-        <v>110.85</v>
-      </c>
-      <c r="E15" s="102">
+        <v>49.34</v>
+      </c>
+      <c r="E15" s="101">
         <f ca="1">INDIRECT(calculation_hide!U21)</f>
-        <v>27.36</v>
-      </c>
-      <c r="F15" s="102">
+        <v>43.33</v>
+      </c>
+      <c r="F15" s="101">
         <f ca="1">INDIRECT(calculation_hide!V21)</f>
-        <v>585.05999999999995</v>
-      </c>
-      <c r="G15" s="103">
+        <v>777.34</v>
+      </c>
+      <c r="G15" s="102">
         <f ca="1">INDIRECT(calculation_hide!W21)</f>
-        <v>259.24</v>
-      </c>
-      <c r="H15" s="104">
+        <v>261.74</v>
+      </c>
+      <c r="H15" s="103">
         <f ca="1">INDIRECT(calculation_hide!X21)</f>
-        <v>374.31</v>
-      </c>
-      <c r="I15" s="103">
+        <v>329.07</v>
+      </c>
+      <c r="I15" s="102">
         <f ca="1">INDIRECT(calculation_hide!Y21)</f>
-        <v>1584.54</v>
-      </c>
-      <c r="J15" s="104">
+        <v>1749.74</v>
+      </c>
+      <c r="J15" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z21)</f>
-        <v>407.68</v>
-      </c>
-      <c r="K15" s="102">
+        <v>442.91</v>
+      </c>
+      <c r="K15" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA21)</f>
-        <v>20.65</v>
-      </c>
-      <c r="L15" s="102">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="L15" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB21)</f>
-        <v>29.12</v>
-      </c>
-      <c r="M15" s="102">
+        <v>23.12</v>
+      </c>
+      <c r="M15" s="101">
         <f ca="1">INDIRECT(calculation_hide!AC21)</f>
-        <v>179.84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="105" t="str">
+        <v>189.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A16" s="104" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q22)</f>
-        <v>April 2021</v>
-      </c>
-      <c r="B16" s="102">
+        <v>May 2021</v>
+      </c>
+      <c r="B16" s="101">
         <f ca="1">INDIRECT(calculation_hide!R22)</f>
-        <v>4150.29</v>
-      </c>
-      <c r="C16" s="102">
+        <v>4229.82</v>
+      </c>
+      <c r="C16" s="101">
         <f ca="1">INDIRECT(calculation_hide!S22)</f>
-        <v>223.26</v>
-      </c>
-      <c r="D16" s="102">
+        <v>193.44</v>
+      </c>
+      <c r="D16" s="101">
         <f ca="1">INDIRECT(calculation_hide!T22)</f>
-        <v>49.34</v>
-      </c>
-      <c r="E16" s="102">
+        <v>29.69</v>
+      </c>
+      <c r="E16" s="101">
         <f ca="1">INDIRECT(calculation_hide!U22)</f>
-        <v>43.33</v>
-      </c>
-      <c r="F16" s="102">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="F16" s="101">
         <f ca="1">INDIRECT(calculation_hide!V22)</f>
-        <v>777.34</v>
-      </c>
-      <c r="G16" s="103">
+        <v>914.75</v>
+      </c>
+      <c r="G16" s="102">
         <f ca="1">INDIRECT(calculation_hide!W22)</f>
-        <v>261.74</v>
-      </c>
-      <c r="H16" s="104">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="H16" s="103">
         <f ca="1">INDIRECT(calculation_hide!X22)</f>
-        <v>329.07</v>
-      </c>
-      <c r="I16" s="103">
+        <v>246.97</v>
+      </c>
+      <c r="I16" s="102">
         <f ca="1">INDIRECT(calculation_hide!Y22)</f>
-        <v>1749.74</v>
-      </c>
-      <c r="J16" s="104">
+        <v>1878.1</v>
+      </c>
+      <c r="J16" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z22)</f>
-        <v>442.91</v>
-      </c>
-      <c r="K16" s="102">
+        <v>418.55</v>
+      </c>
+      <c r="K16" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA22)</f>
-        <v>19.329999999999998</v>
-      </c>
-      <c r="L16" s="102">
+        <v>23.23</v>
+      </c>
+      <c r="L16" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB22)</f>
-        <v>23.12</v>
-      </c>
-      <c r="M16" s="102">
+        <v>27.18</v>
+      </c>
+      <c r="M16" s="101">
         <f ca="1">INDIRECT(calculation_hide!AC22)</f>
-        <v>189.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A17" s="105" t="str">
+        <v>153.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A17" s="104" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q23)</f>
-        <v>May 2021</v>
-      </c>
-      <c r="B17" s="102">
+        <v>June 2021</v>
+      </c>
+      <c r="B17" s="101">
         <f ca="1">INDIRECT(calculation_hide!R23)</f>
-        <v>4229.82</v>
-      </c>
-      <c r="C17" s="102">
+        <v>4335.95</v>
+      </c>
+      <c r="C17" s="101">
         <f ca="1">INDIRECT(calculation_hide!S23)</f>
-        <v>193.44</v>
-      </c>
-      <c r="D17" s="102">
+        <v>239.81</v>
+      </c>
+      <c r="D17" s="101">
         <f ca="1">INDIRECT(calculation_hide!T23)</f>
-        <v>29.69</v>
-      </c>
-      <c r="E17" s="102">
+        <v>27.54</v>
+      </c>
+      <c r="E17" s="101">
         <f ca="1">INDIRECT(calculation_hide!U23)</f>
-        <v>20.079999999999998</v>
-      </c>
-      <c r="F17" s="102">
+        <v>23.69</v>
+      </c>
+      <c r="F17" s="101">
         <f ca="1">INDIRECT(calculation_hide!V23)</f>
-        <v>914.75</v>
-      </c>
-      <c r="G17" s="103">
+        <v>959.78</v>
+      </c>
+      <c r="G17" s="102">
         <f ca="1">INDIRECT(calculation_hide!W23)</f>
-        <v>273.14999999999998</v>
-      </c>
-      <c r="H17" s="104">
+        <v>315.66000000000003</v>
+      </c>
+      <c r="H17" s="103">
         <f ca="1">INDIRECT(calculation_hide!X23)</f>
-        <v>246.97</v>
-      </c>
-      <c r="I17" s="103">
+        <v>155.97</v>
+      </c>
+      <c r="I17" s="102">
         <f ca="1">INDIRECT(calculation_hide!Y23)</f>
-        <v>1878.1</v>
-      </c>
-      <c r="J17" s="104">
+        <v>1928.41</v>
+      </c>
+      <c r="J17" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z23)</f>
-        <v>418.55</v>
-      </c>
-      <c r="K17" s="102">
+        <v>397.64</v>
+      </c>
+      <c r="K17" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA23)</f>
-        <v>23.23</v>
-      </c>
-      <c r="L17" s="102">
+        <v>16.18</v>
+      </c>
+      <c r="L17" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB23)</f>
-        <v>27.18</v>
-      </c>
-      <c r="M17" s="102">
+        <v>23.42</v>
+      </c>
+      <c r="M17" s="101">
         <f ca="1">INDIRECT(calculation_hide!AC23)</f>
-        <v>153.65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="112" t="s">
+        <v>188.99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A18" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="113">
+      <c r="B18" s="112">
         <f t="shared" ref="B18:M18" ca="1" si="2">SUM(B15:B17)</f>
-        <v>12263.96</v>
-      </c>
-      <c r="C18" s="113">
+        <v>12716.060000000001</v>
+      </c>
+      <c r="C18" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>680.94</v>
-      </c>
-      <c r="D18" s="113">
+        <v>656.51</v>
+      </c>
+      <c r="D18" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>189.88</v>
-      </c>
-      <c r="E18" s="113">
+        <v>106.57</v>
+      </c>
+      <c r="E18" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>90.77</v>
-      </c>
-      <c r="F18" s="113">
+        <v>87.1</v>
+      </c>
+      <c r="F18" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>2277.15</v>
-      </c>
-      <c r="G18" s="114">
+        <v>2651.87</v>
+      </c>
+      <c r="G18" s="113">
         <f t="shared" ca="1" si="2"/>
-        <v>794.13</v>
-      </c>
-      <c r="H18" s="115">
+        <v>850.55</v>
+      </c>
+      <c r="H18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>950.35</v>
-      </c>
-      <c r="I18" s="114">
+        <v>732.01</v>
+      </c>
+      <c r="I18" s="113">
         <f t="shared" ca="1" si="2"/>
-        <v>5212.3799999999992</v>
-      </c>
-      <c r="J18" s="115">
+        <v>5556.25</v>
+      </c>
+      <c r="J18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>1269.1400000000001</v>
-      </c>
-      <c r="K18" s="113">
+        <v>1259.0999999999999</v>
+      </c>
+      <c r="K18" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>63.209999999999994</v>
-      </c>
-      <c r="L18" s="113">
+        <v>58.74</v>
+      </c>
+      <c r="L18" s="112">
         <f t="shared" ca="1" si="2"/>
-        <v>79.42</v>
-      </c>
-      <c r="M18" s="115">
+        <v>73.72</v>
+      </c>
+      <c r="M18" s="114">
         <f t="shared" ca="1" si="2"/>
-        <v>522.76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="105" t="str">
+        <v>531.91000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A19" s="104" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q33)</f>
-        <v>March 2022</v>
-      </c>
-      <c r="B19" s="102">
+        <v>April 2022</v>
+      </c>
+      <c r="B19" s="101">
         <f ca="1">INDIRECT(calculation_hide!R33)</f>
-        <v>4731.8999999999996</v>
-      </c>
-      <c r="C19" s="102">
+        <v>4847.8599999999997</v>
+      </c>
+      <c r="C19" s="101">
         <f ca="1">INDIRECT(calculation_hide!S33)</f>
-        <v>281.58</v>
-      </c>
-      <c r="D19" s="102">
+        <v>280.26</v>
+      </c>
+      <c r="D19" s="101">
         <f ca="1">INDIRECT(calculation_hide!T33)</f>
-        <v>61.09</v>
-      </c>
-      <c r="E19" s="102">
+        <v>48.94</v>
+      </c>
+      <c r="E19" s="101">
         <f ca="1">INDIRECT(calculation_hide!U33)</f>
-        <v>2.52</v>
-      </c>
-      <c r="F19" s="102">
+        <v>11.03</v>
+      </c>
+      <c r="F19" s="101">
         <f ca="1">INDIRECT(calculation_hide!V33)</f>
-        <v>858.12</v>
-      </c>
-      <c r="G19" s="103">
+        <v>866.95</v>
+      </c>
+      <c r="G19" s="102">
         <f ca="1">INDIRECT(calculation_hide!W33)</f>
-        <v>635.87</v>
-      </c>
-      <c r="H19" s="104">
+        <v>834.27</v>
+      </c>
+      <c r="H19" s="103">
         <f ca="1">INDIRECT(calculation_hide!X33)</f>
-        <v>367.52</v>
-      </c>
-      <c r="I19" s="103">
+        <v>192.41</v>
+      </c>
+      <c r="I19" s="102">
         <f ca="1">INDIRECT(calculation_hide!Y33)</f>
-        <v>1808.76</v>
-      </c>
-      <c r="J19" s="104">
+        <v>2058.5300000000002</v>
+      </c>
+      <c r="J19" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z33)</f>
-        <v>432.32</v>
-      </c>
-      <c r="K19" s="102">
+        <v>331.21</v>
+      </c>
+      <c r="K19" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA33)</f>
-        <v>29.46</v>
-      </c>
-      <c r="L19" s="102">
+        <v>21.58</v>
+      </c>
+      <c r="L19" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB33)</f>
-        <v>27.62</v>
-      </c>
-      <c r="M19" s="102">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="M19" s="101">
         <f ca="1">INDIRECT(calculation_hide!AC33)</f>
-        <v>168.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="105" t="str">
+        <v>121.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A20" s="104" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q34)</f>
-        <v>April 2022</v>
-      </c>
-      <c r="B20" s="102">
+        <v>May 2022</v>
+      </c>
+      <c r="B20" s="101">
         <f ca="1">INDIRECT(calculation_hide!R34)</f>
-        <v>5011.55</v>
-      </c>
-      <c r="C20" s="102">
+        <v>4832.2</v>
+      </c>
+      <c r="C20" s="101">
         <f ca="1">INDIRECT(calculation_hide!S34)</f>
-        <v>281.45</v>
-      </c>
-      <c r="D20" s="102">
+        <v>245.18</v>
+      </c>
+      <c r="D20" s="101">
         <f ca="1">INDIRECT(calculation_hide!T34)</f>
-        <v>48.94</v>
-      </c>
-      <c r="E20" s="102">
+        <v>46.81</v>
+      </c>
+      <c r="E20" s="101">
         <f ca="1">INDIRECT(calculation_hide!U34)</f>
-        <v>14.65</v>
-      </c>
-      <c r="F20" s="102">
+        <v>1.65</v>
+      </c>
+      <c r="F20" s="101">
         <f ca="1">INDIRECT(calculation_hide!V34)</f>
-        <v>1000</v>
-      </c>
-      <c r="G20" s="103">
+        <v>974.74</v>
+      </c>
+      <c r="G20" s="102">
         <f ca="1">INDIRECT(calculation_hide!W34)</f>
-        <v>834.27</v>
-      </c>
-      <c r="H20" s="104">
+        <v>907.73</v>
+      </c>
+      <c r="H20" s="103">
         <f ca="1">INDIRECT(calculation_hide!X34)</f>
-        <v>192.41</v>
-      </c>
-      <c r="I20" s="103">
+        <v>158.26</v>
+      </c>
+      <c r="I20" s="102">
         <f ca="1">INDIRECT(calculation_hide!Y34)</f>
-        <v>1950</v>
-      </c>
-      <c r="J20" s="104">
+        <v>1984.38</v>
+      </c>
+      <c r="J20" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z34)</f>
-        <v>465.77</v>
-      </c>
-      <c r="K20" s="102">
+        <v>253.03</v>
+      </c>
+      <c r="K20" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA34)</f>
-        <v>21.58</v>
-      </c>
-      <c r="L20" s="102">
+        <v>19.14</v>
+      </c>
+      <c r="L20" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB34)</f>
-        <v>35.450000000000003</v>
-      </c>
-      <c r="M20" s="102">
+        <v>25.87</v>
+      </c>
+      <c r="M20" s="101">
         <f ca="1">INDIRECT(calculation_hide!AC34)</f>
-        <v>121.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="105" t="str">
+        <v>162.30000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A21" s="104" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q35)</f>
-        <v>May 2022 [provisional]</v>
-      </c>
-      <c r="B21" s="102">
+        <v>June 2022 [provisional]</v>
+      </c>
+      <c r="B21" s="101">
         <f ca="1">INDIRECT(calculation_hide!R35)</f>
-        <v>4984.1099999999997</v>
-      </c>
-      <c r="C21" s="102">
+        <v>4735.6899999999996</v>
+      </c>
+      <c r="C21" s="101">
         <f ca="1">INDIRECT(calculation_hide!S35)</f>
-        <v>297.27</v>
-      </c>
-      <c r="D21" s="102">
+        <v>268.02999999999997</v>
+      </c>
+      <c r="D21" s="101">
         <f ca="1">INDIRECT(calculation_hide!T35)</f>
-        <v>46.81</v>
-      </c>
-      <c r="E21" s="102">
+        <v>60.85</v>
+      </c>
+      <c r="E21" s="101">
         <f ca="1">INDIRECT(calculation_hide!U35)</f>
-        <v>4.99</v>
-      </c>
-      <c r="F21" s="102">
+        <v>14.97</v>
+      </c>
+      <c r="F21" s="101">
         <f ca="1">INDIRECT(calculation_hide!V35)</f>
-        <v>985</v>
-      </c>
-      <c r="G21" s="103">
+        <v>973.01</v>
+      </c>
+      <c r="G21" s="102">
         <f ca="1">INDIRECT(calculation_hide!W35)</f>
-        <v>911.44</v>
-      </c>
-      <c r="H21" s="104">
+        <v>875.25</v>
+      </c>
+      <c r="H21" s="103">
         <f ca="1">INDIRECT(calculation_hide!X35)</f>
-        <v>164.35</v>
-      </c>
-      <c r="I21" s="103">
+        <v>143.12</v>
+      </c>
+      <c r="I21" s="102">
         <f ca="1">INDIRECT(calculation_hide!Y35)</f>
-        <v>1900</v>
-      </c>
-      <c r="J21" s="104">
+        <v>1970.73</v>
+      </c>
+      <c r="J21" s="103">
         <f ca="1">INDIRECT(calculation_hide!Z35)</f>
-        <v>426.23</v>
-      </c>
-      <c r="K21" s="102">
+        <v>203.99</v>
+      </c>
+      <c r="K21" s="101">
         <f ca="1">INDIRECT(calculation_hide!AA35)</f>
-        <v>19.14</v>
-      </c>
-      <c r="L21" s="102">
+        <v>14.02</v>
+      </c>
+      <c r="L21" s="101">
         <f ca="1">INDIRECT(calculation_hide!AB35)</f>
-        <v>28.7</v>
-      </c>
-      <c r="M21" s="102">
+        <v>30.04</v>
+      </c>
+      <c r="M21" s="101">
         <f ca="1">INDIRECT(calculation_hide!AC35)</f>
-        <v>152.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A22" s="112" t="s">
+        <v>136.66999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A22" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="113">
+      <c r="B22" s="112">
         <f t="shared" ref="B22:M22" ca="1" si="3">SUM(B19:B21)</f>
-        <v>14727.560000000001</v>
-      </c>
-      <c r="C22" s="113">
+        <v>14415.75</v>
+      </c>
+      <c r="C22" s="112">
         <f t="shared" ca="1" si="3"/>
-        <v>860.3</v>
-      </c>
-      <c r="D22" s="113">
+        <v>793.47</v>
+      </c>
+      <c r="D22" s="112">
         <f t="shared" ca="1" si="3"/>
-        <v>156.84</v>
-      </c>
-      <c r="E22" s="113">
+        <v>156.6</v>
+      </c>
+      <c r="E22" s="112">
         <f t="shared" ca="1" si="3"/>
-        <v>22.160000000000004</v>
-      </c>
-      <c r="F22" s="113">
+        <v>27.65</v>
+      </c>
+      <c r="F22" s="112">
         <f t="shared" ca="1" si="3"/>
-        <v>2843.12</v>
-      </c>
-      <c r="G22" s="114">
+        <v>2814.7</v>
+      </c>
+      <c r="G22" s="113">
         <f t="shared" ca="1" si="3"/>
-        <v>2381.58</v>
-      </c>
-      <c r="H22" s="115">
+        <v>2617.25</v>
+      </c>
+      <c r="H22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>724.28</v>
-      </c>
-      <c r="I22" s="114">
+        <v>493.78999999999996</v>
+      </c>
+      <c r="I22" s="113">
         <f t="shared" ca="1" si="3"/>
-        <v>5658.76</v>
-      </c>
-      <c r="J22" s="115">
+        <v>6013.64</v>
+      </c>
+      <c r="J22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>1324.32</v>
-      </c>
-      <c r="K22" s="113">
+        <v>788.23</v>
+      </c>
+      <c r="K22" s="112">
         <f t="shared" ca="1" si="3"/>
-        <v>70.180000000000007</v>
-      </c>
-      <c r="L22" s="113">
+        <v>54.739999999999995</v>
+      </c>
+      <c r="L22" s="112">
         <f t="shared" ca="1" si="3"/>
-        <v>91.77000000000001</v>
-      </c>
-      <c r="M22" s="115">
+        <v>91.360000000000014</v>
+      </c>
+      <c r="M22" s="114">
         <f t="shared" ca="1" si="3"/>
-        <v>441.09</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="93" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="106" t="s">
-        <v>559</v>
-      </c>
-      <c r="B23" s="116" t="str">
+        <v>419.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="92" customFormat="1" ht="20" customHeight="1">
+      <c r="A23" s="105" t="s">
+        <v>555</v>
+      </c>
+      <c r="B23" s="115" t="str">
         <f t="shared" ref="B23:M23" ca="1" si="4">IF(((B22-B18)/B18*100)&gt;100,"(+) ",IF(((B22-B18)/B18*100)&lt;-100,"(-) ",IF(ROUND(((B22-B18)/B18*100),1)=0,"- ",IF(((B22-B18)/B18*100)&gt;0,TEXT(((B22-B18)/B18*100),"+0.0 "),TEXT(((B22-B18)/B18*100),"0.0 ")))))</f>
-        <v xml:space="preserve">+20.1 </v>
-      </c>
-      <c r="C23" s="107" t="str">
+        <v xml:space="preserve">+13.4 </v>
+      </c>
+      <c r="C23" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+26.3 </v>
-      </c>
-      <c r="D23" s="107" t="str">
+        <v xml:space="preserve">+20.9 </v>
+      </c>
+      <c r="D23" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-17.4 </v>
-      </c>
-      <c r="E23" s="107" t="str">
+        <v xml:space="preserve">+46.9 </v>
+      </c>
+      <c r="E23" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-75.6 </v>
-      </c>
-      <c r="F23" s="121" t="str">
+        <v xml:space="preserve">-68.3 </v>
+      </c>
+      <c r="F23" s="120" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+24.9 </v>
-      </c>
-      <c r="G23" s="108" t="str">
+        <v xml:space="preserve">+6.1 </v>
+      </c>
+      <c r="G23" s="107" t="str">
         <f t="shared" ca="1" si="4"/>
         <v xml:space="preserve">(+) </v>
       </c>
-      <c r="H23" s="109" t="str">
+      <c r="H23" s="108" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-23.8 </v>
-      </c>
-      <c r="I23" s="117" t="str">
+        <v xml:space="preserve">-32.5 </v>
+      </c>
+      <c r="I23" s="116" t="str">
         <f ca="1">IF(((I22-I18)/I18*100)&gt;100,"(+) ",IF(((I22-I18)/I18*100)&lt;-100,"(-) ",IF(ROUND(((I22-I18)/I18*100),1)=0,"- ",IF(((I22-I18)/I18*100)&gt;0,TEXT(((I22-I18)/I18*100),"+0.0 "),TEXT(((I22-I18)/I18*100),"0.0 ")))))</f>
-        <v xml:space="preserve">+8.6 </v>
-      </c>
-      <c r="J23" s="109" t="str">
+        <v xml:space="preserve">+8.2 </v>
+      </c>
+      <c r="J23" s="108" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+4.3 </v>
-      </c>
-      <c r="K23" s="107" t="str">
+        <v xml:space="preserve">-37.4 </v>
+      </c>
+      <c r="K23" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+11.0 </v>
-      </c>
-      <c r="L23" s="107" t="str">
+        <v xml:space="preserve">-6.8 </v>
+      </c>
+      <c r="L23" s="106" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+15.6 </v>
-      </c>
-      <c r="M23" s="109" t="str">
+        <v xml:space="preserve">+23.9 </v>
+      </c>
+      <c r="M23" s="108" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-15.6 </v>
+        <v xml:space="preserve">-21.0 </v>
       </c>
     </row>
   </sheetData>
@@ -6660,38 +6655,38 @@
   <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.54296875" style="57" customWidth="1"/>
-    <col min="2" max="13" width="12.7265625" style="50" customWidth="1"/>
-    <col min="14" max="14" width="13.7265625" style="50" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="50"/>
+    <col min="2" max="13" width="12.6328125" style="50" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="50" customWidth="1"/>
+    <col min="15" max="16384" width="8.6328125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
       <c r="A2" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
       <c r="A4" s="50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
@@ -6717,34 +6712,34 @@
         <v>9</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="47" t="s">
         <v>549</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>553</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>79</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L6" s="48" t="s">
         <v>80</v>
@@ -8095,37 +8090,37 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="P18:P24">
-    <cfRule type="cellIs" dxfId="94" priority="7" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="notBetween">
       <formula>$P7-0.5</formula>
       <formula>$P7+0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:N27">
-    <cfRule type="cellIs" dxfId="93" priority="2" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="notBetween">
       <formula>N1048572-0.5</formula>
       <formula>N1048572+0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P27">
-    <cfRule type="cellIs" dxfId="92" priority="14" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="notBetween">
       <formula>$P13-0.5</formula>
       <formula>$P13+0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N30">
-    <cfRule type="cellIs" dxfId="91" priority="15" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="notBetween">
       <formula>N14-0.5</formula>
       <formula>N14+0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:P30">
-    <cfRule type="cellIs" dxfId="90" priority="18" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="18" stopIfTrue="1" operator="notBetween">
       <formula>$P14-0.5</formula>
       <formula>$P14+0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>N1048569-0.5</formula>
       <formula>N1048569+0.5</formula>
     </cfRule>
@@ -8133,6 +8128,9 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7:M30" formulaRange="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -8147,39 +8145,39 @@
   <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="35" style="50" customWidth="1"/>
-    <col min="2" max="3" width="13.7265625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="35.6328125" style="50" customWidth="1"/>
+    <col min="2" max="3" width="13.6328125" style="50" customWidth="1"/>
     <col min="4" max="4" width="16" style="50" customWidth="1"/>
-    <col min="5" max="13" width="13.7265625" style="50" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="50"/>
+    <col min="5" max="13" width="13.6328125" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="8.6328125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
       <c r="A2" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1">
@@ -8202,37 +8200,37 @@
     </row>
     <row r="6" spans="1:13" ht="46.5">
       <c r="A6" s="46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="47" t="s">
         <v>549</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>553</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>79</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L6" s="48" t="s">
         <v>80</v>
@@ -8241,9 +8239,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.5">
+    <row r="7" spans="1:13">
       <c r="A7" s="65" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" s="66">
         <f>SUM(Month!B7:B9)</f>
@@ -8294,9 +8292,9 @@
         <v>475.53999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.5">
+    <row r="8" spans="1:13">
       <c r="A8" s="64" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8" s="66">
         <f>SUM(Month!B10:B12)</f>
@@ -8347,9 +8345,9 @@
         <v>495.3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.5">
+    <row r="9" spans="1:13">
       <c r="A9" s="64" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B9" s="66">
         <f>SUM(Month!B13:B15)</f>
@@ -8400,9 +8398,9 @@
         <v>551.61</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.5">
+    <row r="10" spans="1:13">
       <c r="A10" s="64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B10" s="66">
         <f>SUM(Month!B16:B18)</f>
@@ -8453,9 +8451,9 @@
         <v>444.61</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.5">
+    <row r="11" spans="1:13">
       <c r="A11" s="64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B11" s="66">
         <f>SUM(Month!B19:B21)</f>
@@ -8506,9 +8504,9 @@
         <v>430.97</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5">
+    <row r="12" spans="1:13">
       <c r="A12" s="64" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B12" s="66">
         <f>SUM(Month!B22:B24)</f>
@@ -8559,9 +8557,9 @@
         <v>468.68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5">
+    <row r="13" spans="1:13">
       <c r="A13" s="64" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B13" s="66">
         <f>SUM(Month!B25:B27)</f>
@@ -8612,9 +8610,9 @@
         <v>510.42</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5">
+    <row r="14" spans="1:13">
       <c r="A14" s="64" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B14" s="66">
         <f>SUM(Month!B28:B30)</f>
@@ -8665,9 +8663,9 @@
         <v>518.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.5">
+    <row r="15" spans="1:13">
       <c r="A15" s="64" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B15" s="66">
         <f>SUM(Month!B31:B33)</f>
@@ -8718,9 +8716,9 @@
         <v>526.15000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.5">
+    <row r="16" spans="1:13">
       <c r="A16" s="64" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B16" s="66">
         <f>SUM(Month!B34:B36)</f>
@@ -8771,9 +8769,9 @@
         <v>474.3</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.5">
+    <row r="17" spans="1:13">
       <c r="A17" s="64" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B17" s="66">
         <f>SUM(Month!B37:B39)</f>
@@ -8824,9 +8822,9 @@
         <v>492.56000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.5">
+    <row r="18" spans="1:13">
       <c r="A18" s="64" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B18" s="66">
         <f>SUM(Month!B40:B42)</f>
@@ -8877,9 +8875,9 @@
         <v>482.22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.5">
+    <row r="19" spans="1:13">
       <c r="A19" s="64" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B19" s="66">
         <f>SUM(Month!B43:B45)</f>
@@ -8930,9 +8928,9 @@
         <v>444.18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.5">
+    <row r="20" spans="1:13">
       <c r="A20" s="64" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B20" s="66">
         <f>SUM(Month!B46:B48)</f>
@@ -8983,9 +8981,9 @@
         <v>493.22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.5">
+    <row r="21" spans="1:13">
       <c r="A21" s="64" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B21" s="66">
         <f>SUM(Month!B49:B51)</f>
@@ -9036,9 +9034,9 @@
         <v>534.20000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.5">
+    <row r="22" spans="1:13">
       <c r="A22" s="64" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B22" s="66">
         <f>SUM(Month!B52:B54)</f>
@@ -9089,9 +9087,9 @@
         <v>463.29999999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.5">
+    <row r="23" spans="1:13">
       <c r="A23" s="64" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B23" s="66">
         <f>SUM(Month!B55:B57)</f>
@@ -9142,9 +9140,9 @@
         <v>460.03000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.5">
+    <row r="24" spans="1:13">
       <c r="A24" s="64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B24" s="66">
         <f>SUM(Month!B58:B60)</f>
@@ -9195,9 +9193,9 @@
         <v>512.02</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.5">
+    <row r="25" spans="1:13">
       <c r="A25" s="64" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B25" s="66">
         <f>SUM(Month!B61:B63)</f>
@@ -9248,9 +9246,9 @@
         <v>573.82999999999993</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.5">
+    <row r="26" spans="1:13">
       <c r="A26" s="64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B26" s="66">
         <f>SUM(Month!B64:B66)</f>
@@ -9301,9 +9299,9 @@
         <v>456.48</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.5">
+    <row r="27" spans="1:13">
       <c r="A27" s="64" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B27" s="66">
         <f>SUM(Month!B67:B69)</f>
@@ -9354,9 +9352,9 @@
         <v>469.98999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.5">
+    <row r="28" spans="1:13">
       <c r="A28" s="64" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B28" s="66">
         <f>SUM(Month!B70:B72)</f>
@@ -9407,9 +9405,9 @@
         <v>535.04</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.5">
+    <row r="29" spans="1:13">
       <c r="A29" s="64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B29" s="66">
         <f>SUM(Month!B73:B75)</f>
@@ -9460,9 +9458,9 @@
         <v>541.68000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.5">
+    <row r="30" spans="1:13">
       <c r="A30" s="64" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B30" s="66">
         <f>SUM(Month!B76:B78)</f>
@@ -9513,9 +9511,9 @@
         <v>411.99</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.5">
+    <row r="31" spans="1:13">
       <c r="A31" s="64" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B31" s="66">
         <f>SUM(Month!B79:B81)</f>
@@ -9566,9 +9564,9 @@
         <v>452.75</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5">
+    <row r="32" spans="1:13">
       <c r="A32" s="64" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B32" s="66">
         <f>SUM(Month!B82:B84)</f>
@@ -9619,9 +9617,9 @@
         <v>525.34999999999991</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.5">
+    <row r="33" spans="1:13">
       <c r="A33" s="64" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B33" s="66">
         <f>SUM(Month!B85:B87)</f>
@@ -9672,9 +9670,9 @@
         <v>550.36</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.5">
+    <row r="34" spans="1:13">
       <c r="A34" s="64" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B34" s="66">
         <f>SUM(Month!B88:B90)</f>
@@ -9725,9 +9723,9 @@
         <v>462.55000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.5">
+    <row r="35" spans="1:13">
       <c r="A35" s="64" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B35" s="66">
         <f>SUM(Month!B91:B93)</f>
@@ -9778,9 +9776,9 @@
         <v>427.83000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.5">
+    <row r="36" spans="1:13">
       <c r="A36" s="64" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B36" s="66">
         <f>SUM(Month!B94:B96)</f>
@@ -9831,9 +9829,9 @@
         <v>493.5200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.5">
+    <row r="37" spans="1:13">
       <c r="A37" s="64" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B37" s="66">
         <f>SUM(Month!B97:B99)</f>
@@ -9884,9 +9882,9 @@
         <v>522.71</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5">
+    <row r="38" spans="1:13">
       <c r="A38" s="64" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B38" s="66">
         <f>SUM(Month!B100:B102)</f>
@@ -9937,9 +9935,9 @@
         <v>461.66999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.5">
+    <row r="39" spans="1:13">
       <c r="A39" s="64" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B39" s="66">
         <f>SUM(Month!B103:B105)</f>
@@ -9990,9 +9988,9 @@
         <v>417.09999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5">
+    <row r="40" spans="1:13">
       <c r="A40" s="64" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B40" s="66">
         <f>SUM(Month!B106:B108)</f>
@@ -10043,9 +10041,9 @@
         <v>454.53999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.5">
+    <row r="41" spans="1:13">
       <c r="A41" s="64" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B41" s="66">
         <f>SUM(Month!B109:B111)</f>
@@ -10096,9 +10094,9 @@
         <v>370.72</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.5">
+    <row r="42" spans="1:13">
       <c r="A42" s="64" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B42" s="66">
         <f>SUM(Month!B112:B114)</f>
@@ -10149,9 +10147,9 @@
         <v>367.46</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.5">
+    <row r="43" spans="1:13">
       <c r="A43" s="64" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B43" s="66">
         <f>SUM(Month!B115:B117)</f>
@@ -10202,9 +10200,9 @@
         <v>328.1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.5">
+    <row r="44" spans="1:13">
       <c r="A44" s="64" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B44" s="66">
         <f>SUM(Month!B118:B120)</f>
@@ -10255,9 +10253,9 @@
         <v>386.02</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.5">
+    <row r="45" spans="1:13">
       <c r="A45" s="64" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B45" s="66">
         <f>SUM(Month!B121:B123)</f>
@@ -10308,9 +10306,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.5">
+    <row r="46" spans="1:13">
       <c r="A46" s="64" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B46" s="66">
         <f>SUM(Month!B124:B126)</f>
@@ -10361,9 +10359,9 @@
         <v>396.17999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.5">
+    <row r="47" spans="1:13">
       <c r="A47" s="64" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B47" s="66">
         <f>SUM(Month!B127:B129)</f>
@@ -10414,9 +10412,9 @@
         <v>400.27</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.5">
+    <row r="48" spans="1:13">
       <c r="A48" s="64" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B48" s="66">
         <f>SUM(Month!B130:B132)</f>
@@ -10467,9 +10465,9 @@
         <v>484.69000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.5">
+    <row r="49" spans="1:13">
       <c r="A49" s="64" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B49" s="66">
         <f>SUM(Month!B133:B135)</f>
@@ -10520,9 +10518,9 @@
         <v>476.17999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.5">
+    <row r="50" spans="1:13">
       <c r="A50" s="64" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B50" s="66">
         <f>SUM(Month!B136:B138)</f>
@@ -10573,9 +10571,9 @@
         <v>379.71000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.5">
+    <row r="51" spans="1:13">
       <c r="A51" s="64" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B51" s="66">
         <f>SUM(Month!B139:B141)</f>
@@ -10626,9 +10624,9 @@
         <v>317.05</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.5">
+    <row r="52" spans="1:13">
       <c r="A52" s="64" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B52" s="66">
         <f>SUM(Month!B142:B144)</f>
@@ -10679,9 +10677,9 @@
         <v>402.57</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.5">
+    <row r="53" spans="1:13">
       <c r="A53" s="64" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B53" s="66">
         <f>SUM(Month!B145:B147)</f>
@@ -10732,9 +10730,9 @@
         <v>371.65</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.5">
+    <row r="54" spans="1:13">
       <c r="A54" s="64" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B54" s="66">
         <f>SUM(Month!B148:B150)</f>
@@ -10785,9 +10783,9 @@
         <v>290.15999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.5">
+    <row r="55" spans="1:13">
       <c r="A55" s="64" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B55" s="66">
         <f>SUM(Month!B151:B153)</f>
@@ -10838,9 +10836,9 @@
         <v>327.81</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.5">
+    <row r="56" spans="1:13">
       <c r="A56" s="64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B56" s="66">
         <f>SUM(Month!B154:B156)</f>
@@ -10891,9 +10889,9 @@
         <v>385.34000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.5">
+    <row r="57" spans="1:13">
       <c r="A57" s="64" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B57" s="66">
         <f>SUM(Month!B157:B159)</f>
@@ -10944,9 +10942,9 @@
         <v>365.19000000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.5">
+    <row r="58" spans="1:13">
       <c r="A58" s="64" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B58" s="66">
         <f>SUM(Month!B160:B162)</f>
@@ -10997,9 +10995,9 @@
         <v>291.69</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.5">
+    <row r="59" spans="1:13">
       <c r="A59" s="64" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B59" s="66">
         <f>SUM(Month!B163:B165)</f>
@@ -11050,9 +11048,9 @@
         <v>400.65</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.5">
+    <row r="60" spans="1:13">
       <c r="A60" s="64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B60" s="66">
         <f>SUM(Month!B166:B168)</f>
@@ -11103,9 +11101,9 @@
         <v>421.45</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.5">
+    <row r="61" spans="1:13">
       <c r="A61" s="64" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B61" s="66">
         <f>SUM(Month!B169:B171)</f>
@@ -11156,9 +11154,9 @@
         <v>449.65</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.5">
+    <row r="62" spans="1:13">
       <c r="A62" s="64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B62" s="66">
         <f>SUM(Month!B172:B174)</f>
@@ -11209,9 +11207,9 @@
         <v>348.96</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.5">
+    <row r="63" spans="1:13">
       <c r="A63" s="64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B63" s="66">
         <f>SUM(Month!B175:B177)</f>
@@ -11262,9 +11260,9 @@
         <v>346.74</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.5">
+    <row r="64" spans="1:13">
       <c r="A64" s="64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B64" s="66">
         <f>SUM(Month!B178:B180)</f>
@@ -11315,9 +11313,9 @@
         <v>345.68</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.5">
+    <row r="65" spans="1:13">
       <c r="A65" s="64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B65" s="66">
         <f>SUM(Month!B181:B183)</f>
@@ -11368,9 +11366,9 @@
         <v>380.05</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.5">
+    <row r="66" spans="1:13">
       <c r="A66" s="64" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B66" s="66">
         <f>SUM(Month!B184:B186)</f>
@@ -11421,9 +11419,9 @@
         <v>282.05</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.5">
+    <row r="67" spans="1:13">
       <c r="A67" s="64" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B67" s="66">
         <f>SUM(Month!B187:B189)</f>
@@ -11474,9 +11472,9 @@
         <v>287.39999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.5">
+    <row r="68" spans="1:13">
       <c r="A68" s="64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B68" s="66">
         <f>SUM(Month!B190:B192)</f>
@@ -11527,9 +11525,9 @@
         <v>367.87</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.5">
+    <row r="69" spans="1:13">
       <c r="A69" s="64" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B69" s="66">
         <f>SUM(Month!B193:B195)</f>
@@ -11580,9 +11578,9 @@
         <v>388.90000000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.5">
+    <row r="70" spans="1:13">
       <c r="A70" s="64" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B70" s="66">
         <f>SUM(Month!B196:B198)</f>
@@ -11633,9 +11631,9 @@
         <v>314.22000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.5">
+    <row r="71" spans="1:13">
       <c r="A71" s="64" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B71" s="66">
         <f>SUM(Month!B199:B201)</f>
@@ -11686,9 +11684,9 @@
         <v>312.27</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.5">
+    <row r="72" spans="1:13">
       <c r="A72" s="64" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B72" s="66">
         <f>SUM(Month!B202:B204)</f>
@@ -11739,9 +11737,9 @@
         <v>372.83</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.5">
+    <row r="73" spans="1:13">
       <c r="A73" s="64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B73" s="66">
         <f>SUM(Month!B205:B207)</f>
@@ -11792,9 +11790,9 @@
         <v>392.24999999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.5">
+    <row r="74" spans="1:13">
       <c r="A74" s="64" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B74" s="66">
         <f>SUM(Month!B208:B210)</f>
@@ -11845,9 +11843,9 @@
         <v>332.39</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.5">
+    <row r="75" spans="1:13">
       <c r="A75" s="64" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B75" s="66">
         <f>SUM(Month!B211:B213)</f>
@@ -11898,9 +11896,9 @@
         <v>338.17</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.5">
+    <row r="76" spans="1:13">
       <c r="A76" s="64" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B76" s="66">
         <f>SUM(Month!B214:B216)</f>
@@ -11951,9 +11949,9 @@
         <v>404.78</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.5">
+    <row r="77" spans="1:13">
       <c r="A77" s="64" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B77" s="66">
         <f>SUM(Month!B217:B219)</f>
@@ -12004,9 +12002,9 @@
         <v>415.53</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.5">
+    <row r="78" spans="1:13">
       <c r="A78" s="64" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B78" s="66">
         <f>SUM(Month!B220:B222)</f>
@@ -12057,9 +12055,9 @@
         <v>305.8</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.5">
+    <row r="79" spans="1:13">
       <c r="A79" s="64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B79" s="66">
         <f>SUM(Month!B223:B225)</f>
@@ -12110,9 +12108,9 @@
         <v>273.92</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.5">
+    <row r="80" spans="1:13">
       <c r="A80" s="64" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B80" s="66">
         <f>SUM(Month!B226:B228)</f>
@@ -12163,9 +12161,9 @@
         <v>376.57</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.5">
+    <row r="81" spans="1:13">
       <c r="A81" s="64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B81" s="66">
         <f>SUM(Month!B229:B231)</f>
@@ -12216,9 +12214,9 @@
         <v>399.40999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.5">
+    <row r="82" spans="1:13">
       <c r="A82" s="64" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B82" s="66">
         <f>SUM(Month!B232:B234)</f>
@@ -12269,9 +12267,9 @@
         <v>277.49</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.5">
+    <row r="83" spans="1:13">
       <c r="A83" s="64" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B83" s="66">
         <f>SUM(Month!B235:B237)</f>
@@ -12322,9 +12320,9 @@
         <v>356.12</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.5">
+    <row r="84" spans="1:13">
       <c r="A84" s="64" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B84" s="66">
         <f>SUM(Month!B238:B240)</f>
@@ -12375,9 +12373,9 @@
         <v>449.35</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.5">
+    <row r="85" spans="1:13">
       <c r="A85" s="64" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B85" s="66">
         <f>SUM(Month!B241:B243)</f>
@@ -12428,9 +12426,9 @@
         <v>421.93000000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.5">
+    <row r="86" spans="1:13">
       <c r="A86" s="64" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B86" s="66">
         <f>SUM(Month!B244:B246)</f>
@@ -12481,9 +12479,9 @@
         <v>404.42999999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.5">
+    <row r="87" spans="1:13">
       <c r="A87" s="64" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B87" s="66">
         <f>SUM(Month!B247:B249)</f>
@@ -12534,9 +12532,9 @@
         <v>313.75</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.5">
+    <row r="88" spans="1:13">
       <c r="A88" s="64" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B88" s="66">
         <f>SUM(Month!B250:B252)</f>
@@ -12587,9 +12585,9 @@
         <v>428.28</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.5">
+    <row r="89" spans="1:13">
       <c r="A89" s="64" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B89" s="66">
         <f>SUM(Month!B253:B255)</f>
@@ -12640,9 +12638,9 @@
         <v>467.14</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.5">
+    <row r="90" spans="1:13">
       <c r="A90" s="64" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B90" s="66">
         <f>SUM(Month!B256:B258)</f>
@@ -12693,9 +12691,9 @@
         <v>392.28999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.5">
+    <row r="91" spans="1:13">
       <c r="A91" s="64" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B91" s="66">
         <f>SUM(Month!B259:B261)</f>
@@ -12746,9 +12744,9 @@
         <v>399.15</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.5">
+    <row r="92" spans="1:13">
       <c r="A92" s="64" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B92" s="66">
         <f>SUM(Month!B262:B264)</f>
@@ -12799,9 +12797,9 @@
         <v>425.55</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.5">
+    <row r="93" spans="1:13">
       <c r="A93" s="64" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B93" s="66">
         <f>SUM(Month!B265:B267)</f>
@@ -12852,9 +12850,9 @@
         <v>465.56000000000006</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.5">
+    <row r="94" spans="1:13">
       <c r="A94" s="64" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B94" s="66">
         <f>SUM(Month!B268:B270)</f>
@@ -12905,9 +12903,9 @@
         <v>372.26000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.5">
+    <row r="95" spans="1:13">
       <c r="A95" s="64" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B95" s="66">
         <f>SUM(Month!B271:B273)</f>
@@ -12958,9 +12956,9 @@
         <v>336.22</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.5">
+    <row r="96" spans="1:13">
       <c r="A96" s="64" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B96" s="66">
         <f>SUM(Month!B274:B276)</f>
@@ -13011,9 +13009,9 @@
         <v>318.74</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.5">
+    <row r="97" spans="1:13">
       <c r="A97" s="64" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B97" s="66">
         <f>SUM(Month!B277:B279)</f>
@@ -13064,9 +13062,9 @@
         <v>479.12</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.5">
+    <row r="98" spans="1:13">
       <c r="A98" s="64" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B98" s="66">
         <f>SUM(Month!B280:B282)</f>
@@ -13117,9 +13115,9 @@
         <v>436.80999999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.5">
+    <row r="99" spans="1:13">
       <c r="A99" s="64" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B99" s="66">
         <f>SUM(Month!B283:B285)</f>
@@ -13170,9 +13168,9 @@
         <v>374.84000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.5">
+    <row r="100" spans="1:13">
       <c r="A100" s="64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B100" s="66">
         <f>SUM(Month!B286:B288)</f>
@@ -13223,9 +13221,9 @@
         <v>531.91000000000008</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.5">
+    <row r="101" spans="1:13">
       <c r="A101" s="88" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B101" s="66">
         <f>SUM(Month!B289:B291)</f>
@@ -13276,9 +13274,9 @@
         <v>511.31</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" customHeight="1">
+    <row r="102" spans="1:13">
       <c r="A102" s="88" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B102" s="66">
         <f>SUM(Month!B292:B294)</f>
@@ -13329,85 +13327,135 @@
         <v>433.71000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" customHeight="1">
+    <row r="103" spans="1:13" s="128" customFormat="1">
       <c r="A103" s="88" t="s">
-        <v>575</v>
-      </c>
-      <c r="B103" s="66">
+        <v>584</v>
+      </c>
+      <c r="B103" s="125">
         <f>SUM(Month!B295:B297)</f>
         <v>13425.99</v>
       </c>
-      <c r="C103" s="66">
+      <c r="C103" s="125">
         <f>SUM(Month!C295:C297)</f>
         <v>818.25</v>
       </c>
-      <c r="D103" s="66">
+      <c r="D103" s="125">
         <f>SUM(Month!D295:D297)</f>
         <v>162.78</v>
       </c>
-      <c r="E103" s="66">
+      <c r="E103" s="125">
         <f>SUM(Month!E295:E297)</f>
         <v>6.7799999999999994</v>
       </c>
-      <c r="F103" s="66">
+      <c r="F103" s="125">
         <f>SUM(Month!F295:F297)</f>
         <v>2569.79</v>
       </c>
-      <c r="G103" s="67">
+      <c r="G103" s="126">
         <f>SUM(Month!G295:G297)</f>
         <v>1644.03</v>
       </c>
-      <c r="H103" s="63">
+      <c r="H103" s="127">
         <f>SUM(Month!H295:H297)</f>
         <v>1108.51</v>
       </c>
-      <c r="I103" s="67">
+      <c r="I103" s="126">
         <f>SUM(Month!I295:I297)</f>
         <v>5263.05</v>
       </c>
-      <c r="J103" s="63">
+      <c r="J103" s="127">
         <f>SUM(Month!J295:J297)</f>
         <v>1176</v>
       </c>
-      <c r="K103" s="66">
+      <c r="K103" s="125">
         <f>SUM(Month!K295:K297)</f>
         <v>74.94</v>
       </c>
-      <c r="L103" s="66">
+      <c r="L103" s="125">
         <f>SUM(Month!L295:L297)</f>
         <v>67.27</v>
       </c>
-      <c r="M103" s="66">
+      <c r="M103" s="125">
         <f>SUM(Month!M295:M297)</f>
         <v>376.71</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="12" customHeight="1">
-      <c r="B104" s="84"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="84"/>
-      <c r="G104" s="84"/>
-      <c r="H104" s="84"/>
-      <c r="I104" s="84"/>
-      <c r="J104" s="84"/>
-      <c r="K104" s="84"/>
-      <c r="L104" s="84"/>
-      <c r="M104" s="84"/>
-    </row>
-    <row r="105" spans="1:13" ht="12" customHeight="1">
+    <row r="104" spans="1:13" s="128" customFormat="1">
+      <c r="A104" s="88" t="s">
+        <v>585</v>
+      </c>
+      <c r="B104" s="125">
+        <f>SUM(Month!B298:B300)</f>
+        <v>14415.75</v>
+      </c>
+      <c r="C104" s="125">
+        <f>SUM(Month!C298:C300)</f>
+        <v>793.47</v>
+      </c>
+      <c r="D104" s="125">
+        <f>SUM(Month!D298:D300)</f>
+        <v>156.6</v>
+      </c>
+      <c r="E104" s="125">
+        <f>SUM(Month!E298:E300)</f>
+        <v>27.65</v>
+      </c>
+      <c r="F104" s="125">
+        <f>SUM(Month!F298:F300)</f>
+        <v>2814.7</v>
+      </c>
+      <c r="G104" s="126">
+        <f>SUM(Month!G298:G300)</f>
+        <v>2617.25</v>
+      </c>
+      <c r="H104" s="127">
+        <f>SUM(Month!H298:H300)</f>
+        <v>493.78999999999996</v>
+      </c>
+      <c r="I104" s="126">
+        <f>SUM(Month!I298:I300)</f>
+        <v>6013.64</v>
+      </c>
+      <c r="J104" s="127">
+        <f>SUM(Month!J298:J300)</f>
+        <v>788.23</v>
+      </c>
+      <c r="K104" s="125">
+        <f>SUM(Month!K298:K300)</f>
+        <v>54.739999999999995</v>
+      </c>
+      <c r="L104" s="125">
+        <f>SUM(Month!L298:L300)</f>
+        <v>91.360000000000014</v>
+      </c>
+      <c r="M104" s="125">
+        <f>SUM(Month!M298:M300)</f>
+        <v>419.98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="F105" s="84"/>
       <c r="I105" s="84"/>
     </row>
-    <row r="106" spans="1:13" ht="12" customHeight="1">
+    <row r="106" spans="1:13">
       <c r="F106" s="84"/>
       <c r="I106" s="84"/>
     </row>
-    <row r="107" spans="1:13" ht="12" customHeight="1">
-      <c r="I107" s="84"/>
-    </row>
-    <row r="111" spans="1:13" ht="12" customHeight="1">
+    <row r="107" spans="1:13">
+      <c r="B107" s="124"/>
+      <c r="C107" s="124"/>
+      <c r="D107" s="124"/>
+      <c r="E107" s="124"/>
+      <c r="F107" s="124"/>
+      <c r="G107" s="124"/>
+      <c r="H107" s="124"/>
+      <c r="I107" s="124"/>
+      <c r="J107" s="124"/>
+      <c r="K107" s="124"/>
+      <c r="L107" s="124"/>
+      <c r="M107" s="124"/>
+    </row>
+    <row r="111" spans="1:13">
       <c r="B111" s="84"/>
       <c r="C111" s="84"/>
       <c r="D111" s="84"/>
@@ -13427,7 +13475,7 @@
   <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="N88 B7:M101 B102:M102 B103:M103" formulaRange="1"/>
+    <ignoredError sqref="N88 B7:M101 B102:M103 B104:M104" formulaRange="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -13440,42 +13488,42 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O325"/>
+  <dimension ref="A1:O324"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B294" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B298" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" style="50" customWidth="1"/>
-    <col min="2" max="3" width="12.7265625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="50" customWidth="1"/>
-    <col min="5" max="13" width="12.7265625" style="50" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="50"/>
+    <col min="1" max="1" width="34.6328125" style="50" customWidth="1"/>
+    <col min="2" max="3" width="15.6328125" style="50" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="15.6328125" style="50" customWidth="1"/>
+    <col min="14" max="16384" width="8.6328125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="45" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1">
       <c r="A2" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1">
       <c r="A3" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="20.25" customHeight="1">
       <c r="A4" s="50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1">
@@ -13496,39 +13544,39 @@
       <c r="L5" s="52"/>
       <c r="M5" s="53"/>
     </row>
-    <row r="6" spans="1:13" s="43" customFormat="1" ht="46.5">
+    <row r="6" spans="1:13" s="43" customFormat="1" ht="60" customHeight="1">
       <c r="A6" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>78</v>
       </c>
       <c r="F6" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="G6" s="47" t="s">
         <v>549</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>553</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>79</v>
       </c>
       <c r="I6" s="80" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="K6" s="48" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L6" s="48" t="s">
         <v>80</v>
@@ -13539,7 +13587,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="69" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B7" s="66">
         <v>6097.28</v>
@@ -13580,7 +13628,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="68" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B8" s="66">
         <v>5766.35</v>
@@ -13621,7 +13669,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="68" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B9" s="66">
         <v>6408.32</v>
@@ -13662,7 +13710,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="68" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B10" s="66">
         <v>5637.11</v>
@@ -13703,7 +13751,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="68" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B11" s="66">
         <v>5712.43</v>
@@ -13744,7 +13792,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="68" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B12" s="66">
         <v>5938.4</v>
@@ -13785,7 +13833,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="68" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B13" s="66">
         <v>6097.35</v>
@@ -13826,7 +13874,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="68" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B14" s="66">
         <v>6020.76</v>
@@ -13867,7 +13915,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="68" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B15" s="66">
         <v>5964.73</v>
@@ -13908,7 +13956,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="68" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B16" s="66">
         <v>6207.16</v>
@@ -13949,7 +13997,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="68" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B17" s="66">
         <v>6178.53</v>
@@ -13990,7 +14038,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="68" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B18" s="66">
         <v>6232.17</v>
@@ -14031,7 +14079,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="68" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B19" s="66">
         <v>5763.35</v>
@@ -14072,7 +14120,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="68" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B20" s="66">
         <v>6010.58</v>
@@ -14113,7 +14161,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="68" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B21" s="66">
         <v>6686.28</v>
@@ -14154,7 +14202,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="68" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B22" s="66">
         <v>5741.57</v>
@@ -14195,7 +14243,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="68" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B23" s="66">
         <v>5707.38</v>
@@ -14236,7 +14284,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="68" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B24" s="66">
         <v>5887.03</v>
@@ -14277,7 +14325,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="68" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B25" s="66">
         <v>6057.34</v>
@@ -14318,7 +14366,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="68" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B26" s="66">
         <v>6077.07</v>
@@ -14359,7 +14407,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="68" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B27" s="66">
         <v>5953.03</v>
@@ -14400,7 +14448,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="68" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B28" s="66">
         <v>6031.34</v>
@@ -14441,7 +14489,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="68" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B29" s="66">
         <v>6317.71</v>
@@ -14482,7 +14530,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="68" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B30" s="66">
         <v>6203.26</v>
@@ -14523,7 +14571,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="68" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B31" s="66">
         <v>5962.95</v>
@@ -14564,7 +14612,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="68" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B32" s="66">
         <v>5892.96</v>
@@ -14605,7 +14653,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="68" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B33" s="66">
         <v>6681.95</v>
@@ -14646,7 +14694,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="68" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B34" s="66">
         <v>5445.96</v>
@@ -14687,7 +14735,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="68" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B35" s="66">
         <v>5887.96</v>
@@ -14728,7 +14776,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="68" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B36" s="66">
         <v>5834.96</v>
@@ -14769,7 +14817,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="68" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B37" s="66">
         <v>5696.96</v>
@@ -14810,7 +14858,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="68" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B38" s="66">
         <v>6157.95</v>
@@ -14851,7 +14899,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="68" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B39" s="66">
         <v>6008.95</v>
@@ -14892,7 +14940,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="68" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B40" s="66">
         <v>6317.95</v>
@@ -14933,7 +14981,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="68" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B41" s="66">
         <v>6370.95</v>
@@ -14974,7 +15022,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="68" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B42" s="66">
         <v>5684.96</v>
@@ -15015,7 +15063,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="68" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B43" s="66">
         <v>6128.54</v>
@@ -15056,7 +15104,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="68" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B44" s="66">
         <v>5495.01</v>
@@ -15097,7 +15145,7 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="68" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B45" s="66">
         <v>6601.15</v>
@@ -15138,7 +15186,7 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="68" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B46" s="66">
         <v>5945.46</v>
@@ -15179,7 +15227,7 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="68" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B47" s="66">
         <v>6025.61</v>
@@ -15220,7 +15268,7 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="68" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B48" s="66">
         <v>5783.66</v>
@@ -15261,7 +15309,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="68" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B49" s="66">
         <v>5793.13</v>
@@ -15302,7 +15350,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="68" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B50" s="66">
         <v>5825.16</v>
@@ -15343,7 +15391,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="68" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B51" s="66">
         <v>5959.42</v>
@@ -15384,7 +15432,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="68" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B52" s="66">
         <v>5877.69</v>
@@ -15425,7 +15473,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="68" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B53" s="66">
         <v>6066.42</v>
@@ -15466,7 +15514,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="68" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B54" s="66">
         <v>5853.09</v>
@@ -15507,7 +15555,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="68" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B55" s="66">
         <v>5946.5</v>
@@ -15548,7 +15596,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="68" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B56" s="66">
         <v>5672.15</v>
@@ -15589,7 +15637,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="68" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B57" s="66">
         <v>6397.05</v>
@@ -15630,7 +15678,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="68" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B58" s="66">
         <v>5359.92</v>
@@ -15671,7 +15719,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="68" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B59" s="66">
         <v>5844.97</v>
@@ -15712,7 +15760,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="68" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B60" s="66">
         <v>5316.88</v>
@@ -15753,7 +15801,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="68" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B61" s="66">
         <v>5077.6099999999997</v>
@@ -15794,7 +15842,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="68" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B62" s="66">
         <v>6379.65</v>
@@ -15835,7 +15883,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="68" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B63" s="66">
         <v>6424.76</v>
@@ -15876,7 +15924,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="68" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B64" s="66">
         <v>6523.82</v>
@@ -15917,7 +15965,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="68" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B65" s="66">
         <v>5423.58</v>
@@ -15958,7 +16006,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="68" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B66" s="66">
         <v>6189.73</v>
@@ -15999,7 +16047,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="68" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B67" s="66">
         <v>5943.13</v>
@@ -16040,7 +16088,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="68" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B68" s="66">
         <v>5965.82</v>
@@ -16081,7 +16129,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="68" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B69" s="66">
         <v>6360.55</v>
@@ -16122,7 +16170,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B70" s="66">
         <v>5482.69</v>
@@ -16163,7 +16211,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="68" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B71" s="66">
         <v>5704.06</v>
@@ -16204,7 +16252,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="68" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B72" s="66">
         <v>5664.31</v>
@@ -16245,7 +16293,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="68" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B73" s="66">
         <v>6234.66</v>
@@ -16286,7 +16334,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="68" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B74" s="66">
         <v>5903.48</v>
@@ -16327,7 +16375,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="68" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B75" s="66">
         <v>6221.02</v>
@@ -16368,7 +16416,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="68" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B76" s="66">
         <v>6018.55</v>
@@ -16409,7 +16457,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="68" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B77" s="66">
         <v>6097.24</v>
@@ -16450,7 +16498,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B78" s="66">
         <v>6102.85</v>
@@ -16491,7 +16539,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="68" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B79" s="66">
         <v>6214.12</v>
@@ -16532,7 +16580,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="68" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B80" s="66">
         <v>5790.71</v>
@@ -16573,7 +16621,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="68" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B81" s="66">
         <v>6464.03</v>
@@ -16614,7 +16662,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="68" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B82" s="66">
         <v>6122.75</v>
@@ -16655,7 +16703,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="68" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B83" s="66">
         <v>5977.55</v>
@@ -16696,7 +16744,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="68" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B84" s="66">
         <v>6126.2</v>
@@ -16737,7 +16785,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="68" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B85" s="66">
         <v>6402.66</v>
@@ -16778,7 +16826,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="68" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B86" s="66">
         <v>6165.54</v>
@@ -16819,7 +16867,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="68" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B87" s="66">
         <v>6077.12</v>
@@ -16860,7 +16908,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="68" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B88" s="66">
         <v>6215.77</v>
@@ -16901,7 +16949,7 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="68" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B89" s="66">
         <v>6114.06</v>
@@ -16942,7 +16990,7 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="68" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B90" s="66">
         <v>5971.07</v>
@@ -16983,7 +17031,7 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="68" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B91" s="66">
         <v>6130.57</v>
@@ -17024,7 +17072,7 @@
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="68" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B92" s="66">
         <v>6293.15</v>
@@ -17065,7 +17113,7 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="68" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B93" s="66">
         <v>6568.8</v>
@@ -17106,7 +17154,7 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="68" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B94" s="66">
         <v>6083.33</v>
@@ -17147,7 +17195,7 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="68" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B95" s="66">
         <v>6255.34</v>
@@ -17188,7 +17236,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="68" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B96" s="66">
         <v>6015.63</v>
@@ -17229,7 +17277,7 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="68" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B97" s="66">
         <v>6332.82</v>
@@ -17270,7 +17318,7 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="68" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B98" s="66">
         <v>6450.7</v>
@@ -17311,7 +17359,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="68" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B99" s="66">
         <v>6247.34</v>
@@ -17352,7 +17400,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="68" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B100" s="66">
         <v>6332.61</v>
@@ -17393,7 +17441,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="68" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B101" s="70">
         <v>5954.56</v>
@@ -17434,7 +17482,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="68" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B102" s="70">
         <v>6831.48</v>
@@ -17475,7 +17523,7 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="68" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B103" s="70">
         <v>6062.93</v>
@@ -17516,7 +17564,7 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="68" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B104" s="70">
         <v>6157.66</v>
@@ -17557,7 +17605,7 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="68" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B105" s="70">
         <v>7019.4</v>
@@ -17598,7 +17646,7 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="68" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B106" s="70">
         <v>5767.33</v>
@@ -17639,7 +17687,7 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="68" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B107" s="70">
         <v>6349.74</v>
@@ -17680,7 +17728,7 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="68" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B108" s="70">
         <v>6470.5</v>
@@ -17721,7 +17769,7 @@
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="68" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B109" s="70">
         <v>6182.55</v>
@@ -17762,7 +17810,7 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="68" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B110" s="70">
         <v>6156.67</v>
@@ -17803,7 +17851,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="68" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B111" s="70">
         <v>6409.88</v>
@@ -17844,7 +17892,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="68" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B112" s="70">
         <v>6332.75</v>
@@ -17885,7 +17933,7 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="68" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B113" s="70">
         <v>5942.3</v>
@@ -17926,7 +17974,7 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="68" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B114" s="70">
         <v>6044.17</v>
@@ -17967,7 +18015,7 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="68" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B115" s="70">
         <v>5929.33</v>
@@ -18008,7 +18056,7 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="68" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B116" s="70">
         <v>6217.31</v>
@@ -18049,7 +18097,7 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="68" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B117" s="70">
         <v>6190.68</v>
@@ -18090,7 +18138,7 @@
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="68" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B118" s="70">
         <v>6029.26</v>
@@ -18131,7 +18179,7 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="68" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B119" s="70">
         <v>5887.82</v>
@@ -18172,7 +18220,7 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="68" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B120" s="70">
         <v>6073.2</v>
@@ -18213,7 +18261,7 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="68" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B121" s="70">
         <v>6078.7</v>
@@ -18254,7 +18302,7 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="68" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B122" s="70">
         <v>6348.79</v>
@@ -18295,7 +18343,7 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="68" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B123" s="70">
         <v>5928.16</v>
@@ -18336,7 +18384,7 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="68" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B124" s="70">
         <v>6252.81</v>
@@ -18377,7 +18425,7 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="68" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B125" s="70">
         <v>5878.55</v>
@@ -18418,7 +18466,7 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="68" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B126" s="70">
         <v>5933.4</v>
@@ -18459,7 +18507,7 @@
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="68" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B127" s="70">
         <v>6114.98</v>
@@ -18500,7 +18548,7 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="68" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B128" s="70">
         <v>5824.98</v>
@@ -18541,7 +18589,7 @@
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="68" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B129" s="70">
         <v>6244.95</v>
@@ -18582,7 +18630,7 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="68" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B130" s="70">
         <v>6055.61</v>
@@ -18623,7 +18671,7 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="68" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B131" s="70">
         <v>5756.56</v>
@@ -18664,7 +18712,7 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="68" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B132" s="70">
         <v>5775.68</v>
@@ -18705,7 +18753,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="68" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B133" s="70">
         <v>5800.91</v>
@@ -18746,7 +18794,7 @@
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="68" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B134" s="70">
         <v>5504.75</v>
@@ -18787,7 +18835,7 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="68" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B135" s="70">
         <v>5910.83</v>
@@ -18828,7 +18876,7 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="68" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B136" s="70">
         <v>5958.23</v>
@@ -18869,7 +18917,7 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="68" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B137" s="70">
         <v>5451.53</v>
@@ -18910,7 +18958,7 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="68" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B138" s="70">
         <v>5865.14</v>
@@ -18951,7 +18999,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="68" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B139" s="70">
         <v>5530.13</v>
@@ -18992,7 +19040,7 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="68" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B140" s="70">
         <v>5725.89</v>
@@ -19033,7 +19081,7 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="68" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B141" s="70">
         <v>5833.16</v>
@@ -19074,7 +19122,7 @@
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="68" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B142" s="70">
         <v>5796.7</v>
@@ -19115,7 +19163,7 @@
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="68" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B143" s="70">
         <v>5510.81</v>
@@ -19156,7 +19204,7 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="68" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B144" s="70">
         <v>5421.69</v>
@@ -19197,7 +19245,7 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="68" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B145" s="70">
         <v>5582.48</v>
@@ -19238,7 +19286,7 @@
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="68" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B146" s="70">
         <v>5592.42</v>
@@ -19279,7 +19327,7 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="68" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B147" s="70">
         <v>5676.74</v>
@@ -19320,7 +19368,7 @@
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="68" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B148" s="70">
         <v>5565.65</v>
@@ -19361,7 +19409,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="68" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B149" s="70">
         <v>5186.1499999999996</v>
@@ -19402,7 +19450,7 @@
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="68" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B150" s="70">
         <v>5638.19</v>
@@ -19443,7 +19491,7 @@
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="68" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B151" s="70">
         <v>5288.37</v>
@@ -19484,7 +19532,7 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="68" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B152" s="70">
         <v>5409.05</v>
@@ -19525,7 +19573,7 @@
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="68" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B153" s="70">
         <v>5486.91</v>
@@ -19566,7 +19614,7 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="68" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B154" s="70">
         <v>5726.1</v>
@@ -19607,7 +19655,7 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="68" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B155" s="70">
         <v>5460.38</v>
@@ -19648,7 +19696,7 @@
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="68" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B156" s="70">
         <v>5324.22</v>
@@ -19689,7 +19737,7 @@
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="68" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B157" s="70">
         <v>5542.59</v>
@@ -19730,7 +19778,7 @@
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="68" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B158" s="70">
         <v>5616.38</v>
@@ -19771,7 +19819,7 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="68" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B159" s="70">
         <v>5481.65</v>
@@ -19812,7 +19860,7 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="68" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B160" s="70">
         <v>5515.03</v>
@@ -19853,7 +19901,7 @@
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="68" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B161" s="70">
         <v>5760.33</v>
@@ -19894,7 +19942,7 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="68" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B162" s="70">
         <v>5684</v>
@@ -19935,7 +19983,7 @@
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="68" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B163" s="70">
         <v>5312.07</v>
@@ -19976,7 +20024,7 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="68" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B164" s="70">
         <v>5224.78</v>
@@ -20017,7 +20065,7 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="68" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B165" s="70">
         <v>5371.25</v>
@@ -20058,7 +20106,7 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="68" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B166" s="70">
         <v>5409.05</v>
@@ -20099,7 +20147,7 @@
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="68" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B167" s="70">
         <v>5175.82</v>
@@ -20140,7 +20188,7 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="68" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B168" s="70">
         <v>5537.92</v>
@@ -20181,7 +20229,7 @@
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="68" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B169" s="70">
         <v>5274.76</v>
@@ -20222,7 +20270,7 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="68" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B170" s="70">
         <v>5170.28</v>
@@ -20263,7 +20311,7 @@
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="68" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B171" s="70">
         <v>5536.82</v>
@@ -20304,7 +20352,7 @@
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="68" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B172" s="70">
         <v>5503.88</v>
@@ -20345,7 +20393,7 @@
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="68" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B173" s="70">
         <v>5546.9</v>
@@ -20386,7 +20434,7 @@
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="68" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B174" s="70">
         <v>5179.6899999999996</v>
@@ -20427,7 +20475,7 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="68" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B175" s="70">
         <v>5016.8999999999996</v>
@@ -20468,7 +20516,7 @@
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="68" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B176" s="70">
         <v>5192.84</v>
@@ -20509,7 +20557,7 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="68" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B177" s="70">
         <v>5523.11</v>
@@ -20550,7 +20598,7 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="68" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B178" s="70">
         <v>5009.7299999999996</v>
@@ -20591,7 +20639,7 @@
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="68" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B179" s="70">
         <v>5116.59</v>
@@ -20632,7 +20680,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="68" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B180" s="70">
         <v>5255.56</v>
@@ -20673,7 +20721,7 @@
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="68" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B181" s="70">
         <v>5151.1000000000004</v>
@@ -20714,7 +20762,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="68" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B182" s="70">
         <v>5257.13</v>
@@ -20755,7 +20803,7 @@
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="68" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B183" s="70">
         <v>5289.94</v>
@@ -20796,7 +20844,7 @@
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="68" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B184" s="70">
         <v>5172.18</v>
@@ -20837,7 +20885,7 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="68" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B185" s="70">
         <v>5419.57</v>
@@ -20878,7 +20926,7 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="68" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B186" s="70">
         <v>5643.13</v>
@@ -20919,7 +20967,7 @@
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="68" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B187" s="70">
         <v>4811.53</v>
@@ -20960,7 +21008,7 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="68" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B188" s="70">
         <v>5008.09</v>
@@ -21001,7 +21049,7 @@
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="68" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B189" s="70">
         <v>5036.82</v>
@@ -21042,7 +21090,7 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="68" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B190" s="70">
         <v>5220.9799999999996</v>
@@ -21083,7 +21131,7 @@
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="68" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B191" s="70">
         <v>5356.29</v>
@@ -21124,7 +21172,7 @@
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="68" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B192" s="70">
         <v>5309.52</v>
@@ -21165,7 +21213,7 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="68" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B193" s="70">
         <v>5124.5</v>
@@ -21206,7 +21254,7 @@
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="68" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B194" s="70">
         <v>5223.6400000000003</v>
@@ -21247,7 +21295,7 @@
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="68" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B195" s="70">
         <v>5360.54</v>
@@ -21288,7 +21336,7 @@
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="68" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B196" s="70">
         <v>5288.91</v>
@@ -21329,7 +21377,7 @@
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="68" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B197" s="70">
         <v>5460.04</v>
@@ -21370,7 +21418,7 @@
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="68" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B198" s="70">
         <v>5196.16</v>
@@ -21411,7 +21459,7 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="68" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B199" s="70">
         <v>4916.88</v>
@@ -21452,7 +21500,7 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="68" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B200" s="70">
         <v>5070.9399999999996</v>
@@ -21493,7 +21541,7 @@
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="68" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B201" s="70">
         <v>5119.37</v>
@@ -21534,7 +21582,7 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="68" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B202" s="70">
         <v>5189.37</v>
@@ -21575,7 +21623,7 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="68" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B203" s="70">
         <v>5032.62</v>
@@ -21616,7 +21664,7 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="68" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B204" s="70">
         <v>5444.43</v>
@@ -21657,7 +21705,7 @@
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="68" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B205" s="70">
         <v>5158.28</v>
@@ -21698,7 +21746,7 @@
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="68" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B206" s="70">
         <v>5517.93</v>
@@ -21739,7 +21787,7 @@
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="68" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B207" s="70">
         <v>5368.73</v>
@@ -21780,7 +21828,7 @@
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="68" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B208" s="70">
         <v>5429.6</v>
@@ -21821,7 +21869,7 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="68" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B209" s="70">
         <v>5187.3900000000003</v>
@@ -21862,7 +21910,7 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="68" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B210" s="70">
         <v>5416.95</v>
@@ -21903,7 +21951,7 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="68" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B211" s="70">
         <v>5157.78</v>
@@ -21944,7 +21992,7 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="68" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B212" s="70">
         <v>5279.98</v>
@@ -21985,7 +22033,7 @@
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="68" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B213" s="70">
         <v>5257.14</v>
@@ -22026,7 +22074,7 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="68" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B214" s="70">
         <v>5342.42</v>
@@ -22067,7 +22115,7 @@
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="68" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B215" s="70">
         <v>5267.11</v>
@@ -22108,7 +22156,7 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="68" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B216" s="70">
         <v>5315.48</v>
@@ -22149,7 +22197,7 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="68" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B217" s="70">
         <v>5451.22</v>
@@ -22190,7 +22238,7 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="68" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B218" s="70">
         <v>5543.52</v>
@@ -22231,7 +22279,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="68" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B219" s="70">
         <v>5496.56</v>
@@ -22272,7 +22320,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="68" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B220" s="70">
         <v>5618.21</v>
@@ -22313,7 +22361,7 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="68" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B221" s="70">
         <v>5436.29</v>
@@ -22354,7 +22402,7 @@
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="68" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B222" s="70">
         <v>5669.66</v>
@@ -22395,7 +22443,7 @@
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="68" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B223" s="70">
         <v>5222.37</v>
@@ -22436,7 +22484,7 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="68" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B224" s="70">
         <v>5357.49</v>
@@ -22477,7 +22525,7 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="68" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B225" s="70">
         <v>5499.63</v>
@@ -22518,7 +22566,7 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="68" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B226" s="70">
         <v>5485.79</v>
@@ -22559,7 +22607,7 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="68" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B227" s="70">
         <v>5407.53</v>
@@ -22600,7 +22648,7 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="68" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B228" s="70">
         <v>5615.97</v>
@@ -22641,7 +22689,7 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="68" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B229" s="70">
         <v>5552.71</v>
@@ -22682,7 +22730,7 @@
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="68" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B230" s="70">
         <v>5575.47</v>
@@ -22723,7 +22771,7 @@
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="68" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B231" s="70">
         <v>5672.11</v>
@@ -22764,7 +22812,7 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="68" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B232" s="70">
         <v>5692.38</v>
@@ -22805,7 +22853,7 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="68" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B233" s="70">
         <v>5480.63</v>
@@ -22846,7 +22894,7 @@
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="68" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B234" s="70">
         <v>5631.49</v>
@@ -22887,7 +22935,7 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="68" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B235" s="70">
         <v>5305.46</v>
@@ -22928,7 +22976,7 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="68" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B236" s="70">
         <v>5627.4</v>
@@ -22969,7 +23017,7 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="68" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B237" s="70">
         <v>5500.95</v>
@@ -23010,7 +23058,7 @@
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="68" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B238" s="70">
         <v>5766.41</v>
@@ -23051,7 +23099,7 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="68" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B239" s="70">
         <v>5483.32</v>
@@ -23092,7 +23140,7 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="68" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B240" s="70">
         <v>5573.78</v>
@@ -23133,7 +23181,7 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="68" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B241" s="70">
         <v>5591.16</v>
@@ -23174,7 +23222,7 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="68" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B242" s="70">
         <v>5700.06</v>
@@ -23215,7 +23263,7 @@
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="68" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B243" s="70">
         <v>5727.87</v>
@@ -23256,7 +23304,7 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="68" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B244" s="70">
         <v>5605.3</v>
@@ -23297,7 +23345,7 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="68" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B245" s="70">
         <v>5737.87</v>
@@ -23338,7 +23386,7 @@
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="68" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B246" s="70">
         <v>5698.3</v>
@@ -23379,7 +23427,7 @@
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="68" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B247" s="70">
         <v>5274.38</v>
@@ -23420,7 +23468,7 @@
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="68" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B248" s="70">
         <v>5402.29</v>
@@ -23461,7 +23509,7 @@
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="68" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B249" s="70">
         <v>5345.26</v>
@@ -23502,7 +23550,7 @@
     </row>
     <row r="250" spans="1:13">
       <c r="A250" s="68" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B250" s="70">
         <v>5749.79</v>
@@ -23543,7 +23591,7 @@
     </row>
     <row r="251" spans="1:13">
       <c r="A251" s="68" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B251" s="70">
         <v>5488.49</v>
@@ -23584,7 +23632,7 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="68" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B252" s="70">
         <v>5644.7</v>
@@ -23625,7 +23673,7 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="68" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B253" s="70">
         <v>5513.72</v>
@@ -23666,7 +23714,7 @@
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="68" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B254" s="70">
         <v>5692.71</v>
@@ -23707,7 +23755,7 @@
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="68" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B255" s="70">
         <v>5656.47</v>
@@ -23748,7 +23796,7 @@
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="68" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B256" s="70">
         <v>5363.84</v>
@@ -23789,7 +23837,7 @@
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="68" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B257" s="70">
         <v>5634.65</v>
@@ -23831,7 +23879,7 @@
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="68" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B258" s="70">
         <v>5627.96</v>
@@ -23873,7 +23921,7 @@
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="68" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B259" s="70">
         <v>5462</v>
@@ -23915,7 +23963,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="68" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B260" s="70">
         <v>5220.3100000000004</v>
@@ -23957,7 +24005,7 @@
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="68" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B261" s="70">
         <v>5356.4</v>
@@ -23999,7 +24047,7 @@
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="68" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B262" s="70">
         <v>5630.99</v>
@@ -24041,7 +24089,7 @@
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="68" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B263" s="70">
         <v>5549.52</v>
@@ -24083,7 +24131,7 @@
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="68" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B264" s="70">
         <v>5434.9</v>
@@ -24125,7 +24173,7 @@
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="68" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B265" s="70">
         <v>5436.77</v>
@@ -24167,7 +24215,7 @@
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="68" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B266" s="70">
         <v>5290.03</v>
@@ -24209,7 +24257,7 @@
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="68" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B267" s="70">
         <v>5446.51</v>
@@ -24251,7 +24299,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="68" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B268" s="70">
         <v>5380.19</v>
@@ -24293,7 +24341,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="68" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B269" s="70">
         <v>5435.12</v>
@@ -24335,7 +24383,7 @@
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="68" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B270" s="70">
         <v>5416.87</v>
@@ -24377,7 +24425,7 @@
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="68" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B271" s="70">
         <v>5150.42</v>
@@ -24419,7 +24467,7 @@
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="68" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B272" s="70">
         <v>5427.8</v>
@@ -24461,7 +24509,7 @@
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="68" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B273" s="70">
         <v>5030.6099999999997</v>
@@ -24503,7 +24551,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="68" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B274" s="70">
         <v>3267.91</v>
@@ -24545,7 +24593,7 @@
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="68" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B275" s="70">
         <v>2728.28</v>
@@ -24587,7 +24635,7 @@
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="68" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B276" s="70">
         <v>3249.8</v>
@@ -24629,7 +24677,7 @@
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="68" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B277" s="70">
         <v>3744.79</v>
@@ -24671,7 +24719,7 @@
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="68" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B278" s="70">
         <v>4158.21</v>
@@ -24713,7 +24761,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="68" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B279" s="70">
         <v>4335.5</v>
@@ -24755,7 +24803,7 @@
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="68" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B280" s="70">
         <v>4411.1499999999996</v>
@@ -24797,7 +24845,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="68" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B281" s="70">
         <v>4225.5200000000004</v>
@@ -24839,7 +24887,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="68" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B282" s="70">
         <v>4060.6</v>
@@ -24881,7 +24929,7 @@
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="68" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B283" s="70">
         <v>3736.82</v>
@@ -24923,7 +24971,7 @@
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="68" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B284" s="70">
         <v>3663.6</v>
@@ -24965,7 +25013,7 @@
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="68" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B285" s="70">
         <v>3883.85</v>
@@ -25007,7 +25055,7 @@
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="68" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B286" s="70">
         <v>4150.29</v>
@@ -25049,7 +25097,7 @@
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="68" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B287" s="70">
         <v>4229.82</v>
@@ -25091,7 +25139,7 @@
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="76" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B288" s="70">
         <v>4335.95</v>
@@ -25133,7 +25181,7 @@
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="76" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B289" s="70">
         <v>4259.67</v>
@@ -25175,7 +25223,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="76" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B290" s="70">
         <v>4582.45</v>
@@ -25217,7 +25265,7 @@
     </row>
     <row r="291" spans="1:15" ht="17.25" customHeight="1">
       <c r="A291" s="85" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B291" s="72">
         <v>4604.7299999999996</v>
@@ -25259,7 +25307,7 @@
     </row>
     <row r="292" spans="1:15" ht="15.75" customHeight="1">
       <c r="A292" s="85" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B292" s="72">
         <v>4734.57</v>
@@ -25301,7 +25349,7 @@
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="85" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B293" s="72">
         <v>4713.3</v>
@@ -25343,7 +25391,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="85" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B294" s="72">
         <v>4975.97</v>
@@ -25385,7 +25433,7 @@
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="86" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B295" s="72">
         <v>4160.25</v>
@@ -25427,7 +25475,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="86" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B296" s="72">
         <v>4533.84</v>
@@ -25469,7 +25517,7 @@
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="86" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B297" s="72">
         <v>4731.8999999999996</v>
@@ -25511,22 +25559,22 @@
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="86" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B298" s="72">
-        <v>5011.55</v>
+        <v>4847.8599999999997</v>
       </c>
       <c r="C298" s="73">
-        <v>281.45</v>
+        <v>280.26</v>
       </c>
       <c r="D298" s="73">
         <v>48.94</v>
       </c>
       <c r="E298" s="73">
-        <v>14.65</v>
+        <v>11.03</v>
       </c>
       <c r="F298" s="73">
-        <v>1000</v>
+        <v>866.95</v>
       </c>
       <c r="G298" s="74">
         <v>834.27</v>
@@ -25535,10 +25583,10 @@
         <v>192.41</v>
       </c>
       <c r="I298" s="73">
-        <v>1950</v>
+        <v>2058.5300000000002</v>
       </c>
       <c r="J298" s="75">
-        <v>465.77</v>
+        <v>331.21</v>
       </c>
       <c r="K298" s="73">
         <v>21.58</v>
@@ -25553,75 +25601,99 @@
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="86" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B299" s="72">
-        <v>4984.1099999999997</v>
+        <v>4832.2</v>
       </c>
       <c r="C299" s="73">
-        <v>297.27</v>
+        <v>245.18</v>
       </c>
       <c r="D299" s="73">
         <v>46.81</v>
       </c>
       <c r="E299" s="73">
-        <v>4.99</v>
+        <v>1.65</v>
       </c>
       <c r="F299" s="73">
-        <v>985</v>
+        <v>974.74</v>
       </c>
       <c r="G299" s="74">
-        <v>911.44</v>
+        <v>907.73</v>
       </c>
       <c r="H299" s="75">
-        <v>164.35</v>
+        <v>158.26</v>
       </c>
       <c r="I299" s="73">
-        <v>1900</v>
+        <v>1984.38</v>
       </c>
       <c r="J299" s="75">
-        <v>426.23</v>
+        <v>253.03</v>
       </c>
       <c r="K299" s="73">
         <v>19.14</v>
       </c>
       <c r="L299" s="73">
-        <v>28.7</v>
+        <v>25.87</v>
       </c>
       <c r="M299" s="73">
-        <v>152.01</v>
+        <v>162.30000000000001</v>
       </c>
     </row>
     <row r="300" spans="1:15">
-      <c r="A300" s="123"/>
-      <c r="B300" s="84"/>
-      <c r="C300" s="73"/>
-      <c r="D300" s="73"/>
-      <c r="E300" s="73"/>
-      <c r="F300" s="73"/>
-      <c r="G300" s="74"/>
-      <c r="H300" s="75"/>
-      <c r="I300" s="73"/>
-      <c r="J300" s="75"/>
-      <c r="K300" s="73"/>
-      <c r="L300" s="73"/>
-      <c r="M300" s="73"/>
+      <c r="A300" s="86" t="s">
+        <v>580</v>
+      </c>
+      <c r="B300" s="72">
+        <v>4735.6899999999996</v>
+      </c>
+      <c r="C300" s="73">
+        <v>268.02999999999997</v>
+      </c>
+      <c r="D300" s="73">
+        <v>60.85</v>
+      </c>
+      <c r="E300" s="73">
+        <v>14.97</v>
+      </c>
+      <c r="F300" s="73">
+        <v>973.01</v>
+      </c>
+      <c r="G300" s="74">
+        <v>875.25</v>
+      </c>
+      <c r="H300" s="75">
+        <v>143.12</v>
+      </c>
+      <c r="I300" s="73">
+        <v>1970.73</v>
+      </c>
+      <c r="J300" s="75">
+        <v>203.99</v>
+      </c>
+      <c r="K300" s="73">
+        <v>14.02</v>
+      </c>
+      <c r="L300" s="73">
+        <v>30.04</v>
+      </c>
+      <c r="M300" s="73">
+        <v>136.66999999999999</v>
+      </c>
     </row>
     <row r="301" spans="1:15">
-      <c r="A301" s="123"/>
       <c r="B301" s="84"/>
-      <c r="C301" s="73"/>
-      <c r="D301" s="73"/>
-      <c r="E301" s="73"/>
-      <c r="F301" s="73"/>
-      <c r="G301" s="74"/>
-      <c r="H301" s="75"/>
-      <c r="I301" s="73"/>
-      <c r="J301" s="75"/>
-      <c r="K301" s="73"/>
-      <c r="L301" s="73"/>
-      <c r="M301" s="73"/>
-      <c r="N301" s="82"/>
+      <c r="C301" s="82"/>
+      <c r="D301" s="82"/>
+      <c r="E301" s="82"/>
+      <c r="F301" s="82"/>
+      <c r="G301" s="82"/>
+      <c r="H301" s="82"/>
+      <c r="I301" s="82"/>
+      <c r="J301" s="82"/>
+      <c r="K301" s="82"/>
+      <c r="L301" s="82"/>
+      <c r="M301" s="82"/>
     </row>
     <row r="302" spans="1:15">
       <c r="B302" s="84"/>
@@ -25629,7 +25701,7 @@
       <c r="D302" s="82"/>
       <c r="E302" s="82"/>
       <c r="F302" s="82"/>
-      <c r="G302" s="82"/>
+      <c r="G302" s="84"/>
       <c r="H302" s="82"/>
       <c r="I302" s="82"/>
       <c r="J302" s="82"/>
@@ -25638,46 +25710,46 @@
       <c r="M302" s="82"/>
     </row>
     <row r="303" spans="1:15">
-      <c r="B303" s="84"/>
-      <c r="C303" s="82"/>
-      <c r="D303" s="82"/>
-      <c r="E303" s="82"/>
-      <c r="F303" s="82"/>
-      <c r="G303" s="84"/>
-      <c r="H303" s="82"/>
-      <c r="I303" s="82"/>
-      <c r="J303" s="82"/>
-      <c r="K303" s="82"/>
-      <c r="L303" s="82"/>
-      <c r="M303" s="82"/>
+      <c r="B303" s="121"/>
+      <c r="C303" s="121"/>
+      <c r="D303" s="121"/>
+      <c r="E303" s="121"/>
+      <c r="F303" s="118"/>
+      <c r="G303" s="121"/>
+      <c r="H303" s="121"/>
+      <c r="I303" s="118"/>
+      <c r="J303" s="121"/>
+      <c r="K303" s="121"/>
+      <c r="L303" s="121"/>
+      <c r="M303" s="121"/>
     </row>
     <row r="304" spans="1:15">
-      <c r="B304" s="84"/>
-      <c r="C304" s="84"/>
-      <c r="D304" s="84"/>
-      <c r="E304" s="84"/>
-      <c r="F304" s="84"/>
-      <c r="G304" s="84"/>
-      <c r="H304" s="84"/>
-      <c r="I304" s="84"/>
-      <c r="J304" s="84"/>
-      <c r="K304" s="84"/>
-      <c r="L304" s="84"/>
-      <c r="M304" s="84"/>
+      <c r="B304" s="123"/>
+      <c r="C304" s="123"/>
+      <c r="D304" s="123"/>
+      <c r="E304" s="123"/>
+      <c r="F304" s="123"/>
+      <c r="G304" s="123"/>
+      <c r="H304" s="123"/>
+      <c r="I304" s="123"/>
+      <c r="J304" s="123"/>
+      <c r="K304" s="123"/>
+      <c r="L304" s="123"/>
+      <c r="M304" s="123"/>
     </row>
     <row r="305" spans="2:13">
-      <c r="B305" s="54"/>
-      <c r="C305" s="54"/>
-      <c r="D305" s="54"/>
-      <c r="E305" s="54"/>
-      <c r="F305" s="54"/>
-      <c r="G305" s="54"/>
-      <c r="H305" s="122"/>
-      <c r="I305" s="54"/>
-      <c r="J305" s="54"/>
-      <c r="K305" s="54"/>
-      <c r="L305" s="54"/>
-      <c r="M305" s="54"/>
+      <c r="B305" s="123"/>
+      <c r="C305" s="123"/>
+      <c r="D305" s="123"/>
+      <c r="E305" s="123"/>
+      <c r="F305" s="123"/>
+      <c r="G305" s="123"/>
+      <c r="H305" s="123"/>
+      <c r="I305" s="123"/>
+      <c r="J305" s="123"/>
+      <c r="K305" s="123"/>
+      <c r="L305" s="123"/>
+      <c r="M305" s="123"/>
     </row>
     <row r="306" spans="2:13">
       <c r="B306" s="54"/>
@@ -25694,32 +25766,32 @@
       <c r="M306" s="54"/>
     </row>
     <row r="307" spans="2:13">
-      <c r="B307" s="54"/>
-      <c r="C307" s="54"/>
-      <c r="D307" s="54"/>
-      <c r="E307" s="54"/>
-      <c r="F307" s="54"/>
-      <c r="G307" s="54"/>
-      <c r="H307" s="54"/>
-      <c r="I307" s="54"/>
-      <c r="J307" s="54"/>
-      <c r="K307" s="54"/>
-      <c r="L307" s="54"/>
-      <c r="M307" s="54"/>
+      <c r="B307" s="118"/>
+      <c r="C307" s="118"/>
+      <c r="D307" s="118"/>
+      <c r="E307" s="118"/>
+      <c r="F307" s="118"/>
+      <c r="G307" s="118"/>
+      <c r="H307" s="118"/>
+      <c r="I307" s="118"/>
+      <c r="J307" s="118"/>
+      <c r="K307" s="118"/>
+      <c r="L307" s="118"/>
+      <c r="M307" s="118"/>
     </row>
     <row r="308" spans="2:13">
-      <c r="B308" s="119"/>
-      <c r="C308" s="119"/>
-      <c r="D308" s="119"/>
-      <c r="E308" s="119"/>
-      <c r="F308" s="119"/>
-      <c r="G308" s="119"/>
-      <c r="H308" s="119"/>
-      <c r="I308" s="119"/>
-      <c r="J308" s="119"/>
-      <c r="K308" s="119"/>
-      <c r="L308" s="119"/>
-      <c r="M308" s="119"/>
+      <c r="B308" s="82"/>
+      <c r="C308" s="82"/>
+      <c r="D308" s="82"/>
+      <c r="E308" s="82"/>
+      <c r="F308" s="82"/>
+      <c r="G308" s="82"/>
+      <c r="H308" s="82"/>
+      <c r="I308" s="82"/>
+      <c r="J308" s="82"/>
+      <c r="K308" s="82"/>
+      <c r="L308" s="82"/>
+      <c r="M308" s="82"/>
     </row>
     <row r="309" spans="2:13">
       <c r="B309" s="82"/>
@@ -25944,20 +26016,6 @@
       <c r="K324" s="82"/>
       <c r="L324" s="82"/>
       <c r="M324" s="82"/>
-    </row>
-    <row r="325" spans="2:13">
-      <c r="B325" s="82"/>
-      <c r="C325" s="82"/>
-      <c r="D325" s="82"/>
-      <c r="E325" s="82"/>
-      <c r="F325" s="82"/>
-      <c r="G325" s="82"/>
-      <c r="H325" s="82"/>
-      <c r="I325" s="82"/>
-      <c r="J325" s="82"/>
-      <c r="K325" s="82"/>
-      <c r="L325" s="82"/>
-      <c r="M325" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -25975,25 +26033,25 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A4:AF321"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A292" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.26953125" customWidth="1"/>
+    <col min="16" max="16" width="13.36328125" customWidth="1"/>
     <col min="17" max="17" width="28.54296875" customWidth="1"/>
-    <col min="18" max="18" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" customWidth="1"/>
-    <col min="20" max="20" width="12.26953125" customWidth="1"/>
-    <col min="21" max="21" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.36328125" customWidth="1"/>
+    <col min="20" max="20" width="12.36328125" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.26953125" customWidth="1"/>
-    <col min="26" max="26" width="12.26953125" customWidth="1"/>
-    <col min="27" max="27" width="13.26953125" customWidth="1"/>
-    <col min="28" max="30" width="12.26953125" customWidth="1"/>
-    <col min="31" max="31" width="11.26953125" customWidth="1"/>
-    <col min="32" max="32" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.36328125" customWidth="1"/>
+    <col min="26" max="26" width="12.36328125" customWidth="1"/>
+    <col min="27" max="27" width="13.36328125" customWidth="1"/>
+    <col min="28" max="30" width="12.36328125" customWidth="1"/>
+    <col min="31" max="31" width="11.36328125" customWidth="1"/>
+    <col min="32" max="32" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:30" ht="13.5" thickBot="1"/>
@@ -26013,7 +26071,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:30">
@@ -26412,10 +26470,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="125" t="s">
+      <c r="H18" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="125"/>
+      <c r="I18" s="130"/>
       <c r="J18" s="16"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -26432,10 +26490,10 @@
         <v>3</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="125" t="s">
+      <c r="J19" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="126"/>
+      <c r="K19" s="131"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="Q19" t="s">
@@ -26517,71 +26575,71 @@
       <c r="N20" s="2"/>
       <c r="P20">
         <f>P21-1</f>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q20" s="6" t="str">
         <f t="shared" ref="Q20:AF35" si="2">$R$16&amp;Q$19&amp;$P20</f>
-        <v>Month!A284</v>
+        <v>Month!A285</v>
       </c>
       <c r="R20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B284</v>
+        <v>Month!B285</v>
       </c>
       <c r="S20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C284</v>
+        <v>Month!C285</v>
       </c>
       <c r="T20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D284</v>
+        <v>Month!D285</v>
       </c>
       <c r="U20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E284</v>
+        <v>Month!E285</v>
       </c>
       <c r="V20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F284</v>
+        <v>Month!F285</v>
       </c>
       <c r="W20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G284</v>
+        <v>Month!G285</v>
       </c>
       <c r="X20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H284</v>
+        <v>Month!H285</v>
       </c>
       <c r="Y20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I284</v>
+        <v>Month!I285</v>
       </c>
       <c r="Z20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J284</v>
+        <v>Month!J285</v>
       </c>
       <c r="AA20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K284</v>
+        <v>Month!K285</v>
       </c>
       <c r="AB20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L284</v>
+        <v>Month!L285</v>
       </c>
       <c r="AC20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M284</v>
+        <v>Month!M285</v>
       </c>
       <c r="AD20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N284</v>
+        <v>Month!N285</v>
       </c>
       <c r="AE20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O284</v>
+        <v>Month!O285</v>
       </c>
       <c r="AF20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P284</v>
+        <v>Month!P285</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -26629,71 +26687,71 @@
       </c>
       <c r="P21">
         <f>P22-1</f>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A285</v>
+        <v>Month!A286</v>
       </c>
       <c r="R21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B285</v>
+        <v>Month!B286</v>
       </c>
       <c r="S21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C285</v>
+        <v>Month!C286</v>
       </c>
       <c r="T21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D285</v>
+        <v>Month!D286</v>
       </c>
       <c r="U21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E285</v>
+        <v>Month!E286</v>
       </c>
       <c r="V21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F285</v>
+        <v>Month!F286</v>
       </c>
       <c r="W21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G285</v>
+        <v>Month!G286</v>
       </c>
       <c r="X21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H285</v>
+        <v>Month!H286</v>
       </c>
       <c r="Y21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I285</v>
+        <v>Month!I286</v>
       </c>
       <c r="Z21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J285</v>
+        <v>Month!J286</v>
       </c>
       <c r="AA21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K285</v>
+        <v>Month!K286</v>
       </c>
       <c r="AB21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L285</v>
+        <v>Month!L286</v>
       </c>
       <c r="AC21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M285</v>
+        <v>Month!M286</v>
       </c>
       <c r="AD21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N285</v>
+        <v>Month!N286</v>
       </c>
       <c r="AE21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O285</v>
+        <v>Month!O286</v>
       </c>
       <c r="AF21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P285</v>
+        <v>Month!P286</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -26753,71 +26811,71 @@
       </c>
       <c r="P22">
         <f>P23-1</f>
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A286</v>
+        <v>Month!A287</v>
       </c>
       <c r="R22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B286</v>
+        <v>Month!B287</v>
       </c>
       <c r="S22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C286</v>
+        <v>Month!C287</v>
       </c>
       <c r="T22" s="6" t="str">
         <f>$R$16&amp;T$19&amp;$P22</f>
-        <v>Month!D286</v>
+        <v>Month!D287</v>
       </c>
       <c r="U22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E286</v>
+        <v>Month!E287</v>
       </c>
       <c r="V22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F286</v>
+        <v>Month!F287</v>
       </c>
       <c r="W22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G286</v>
+        <v>Month!G287</v>
       </c>
       <c r="X22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H286</v>
+        <v>Month!H287</v>
       </c>
       <c r="Y22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I286</v>
+        <v>Month!I287</v>
       </c>
       <c r="Z22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J286</v>
+        <v>Month!J287</v>
       </c>
       <c r="AA22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K286</v>
+        <v>Month!K287</v>
       </c>
       <c r="AB22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L286</v>
+        <v>Month!L287</v>
       </c>
       <c r="AC22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M286</v>
+        <v>Month!M287</v>
       </c>
       <c r="AD22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N286</v>
+        <v>Month!N287</v>
       </c>
       <c r="AE22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O286</v>
+        <v>Month!O287</v>
       </c>
       <c r="AF22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P286</v>
+        <v>Month!P287</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -26877,71 +26935,71 @@
       </c>
       <c r="P23">
         <f>(((P5-1998)*12)-(12-P6))+6</f>
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A287</v>
+        <v>Month!A288</v>
       </c>
       <c r="R23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B287</v>
+        <v>Month!B288</v>
       </c>
       <c r="S23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C287</v>
+        <v>Month!C288</v>
       </c>
       <c r="T23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D287</v>
+        <v>Month!D288</v>
       </c>
       <c r="U23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E287</v>
+        <v>Month!E288</v>
       </c>
       <c r="V23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F287</v>
+        <v>Month!F288</v>
       </c>
       <c r="W23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G287</v>
+        <v>Month!G288</v>
       </c>
       <c r="X23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H287</v>
+        <v>Month!H288</v>
       </c>
       <c r="Y23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I287</v>
+        <v>Month!I288</v>
       </c>
       <c r="Z23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J287</v>
+        <v>Month!J288</v>
       </c>
       <c r="AA23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K287</v>
+        <v>Month!K288</v>
       </c>
       <c r="AB23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L287</v>
+        <v>Month!L288</v>
       </c>
       <c r="AC23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M287</v>
+        <v>Month!M288</v>
       </c>
       <c r="AD23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N287</v>
+        <v>Month!N288</v>
       </c>
       <c r="AE23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O287</v>
+        <v>Month!O288</v>
       </c>
       <c r="AF23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P287</v>
+        <v>Month!P288</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -27001,71 +27059,71 @@
       </c>
       <c r="P24">
         <f>P23+1</f>
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A288</v>
+        <v>Month!A289</v>
       </c>
       <c r="R24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B288</v>
+        <v>Month!B289</v>
       </c>
       <c r="S24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C288</v>
+        <v>Month!C289</v>
       </c>
       <c r="T24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D288</v>
+        <v>Month!D289</v>
       </c>
       <c r="U24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E288</v>
+        <v>Month!E289</v>
       </c>
       <c r="V24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F288</v>
+        <v>Month!F289</v>
       </c>
       <c r="W24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G288</v>
+        <v>Month!G289</v>
       </c>
       <c r="X24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H288</v>
+        <v>Month!H289</v>
       </c>
       <c r="Y24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I288</v>
+        <v>Month!I289</v>
       </c>
       <c r="Z24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J288</v>
+        <v>Month!J289</v>
       </c>
       <c r="AA24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K288</v>
+        <v>Month!K289</v>
       </c>
       <c r="AB24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L288</v>
+        <v>Month!L289</v>
       </c>
       <c r="AC24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M288</v>
+        <v>Month!M289</v>
       </c>
       <c r="AD24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N288</v>
+        <v>Month!N289</v>
       </c>
       <c r="AE24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O288</v>
+        <v>Month!O289</v>
       </c>
       <c r="AF24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P288</v>
+        <v>Month!P289</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -27125,71 +27183,71 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P36" si="3">P24+1</f>
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A289</v>
+        <v>Month!A290</v>
       </c>
       <c r="R25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B289</v>
+        <v>Month!B290</v>
       </c>
       <c r="S25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C289</v>
+        <v>Month!C290</v>
       </c>
       <c r="T25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D289</v>
+        <v>Month!D290</v>
       </c>
       <c r="U25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E289</v>
+        <v>Month!E290</v>
       </c>
       <c r="V25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F289</v>
+        <v>Month!F290</v>
       </c>
       <c r="W25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G289</v>
+        <v>Month!G290</v>
       </c>
       <c r="X25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H289</v>
+        <v>Month!H290</v>
       </c>
       <c r="Y25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I289</v>
+        <v>Month!I290</v>
       </c>
       <c r="Z25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J289</v>
+        <v>Month!J290</v>
       </c>
       <c r="AA25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K289</v>
+        <v>Month!K290</v>
       </c>
       <c r="AB25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L289</v>
+        <v>Month!L290</v>
       </c>
       <c r="AC25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M289</v>
+        <v>Month!M290</v>
       </c>
       <c r="AD25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N289</v>
+        <v>Month!N290</v>
       </c>
       <c r="AE25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O289</v>
+        <v>Month!O290</v>
       </c>
       <c r="AF25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P289</v>
+        <v>Month!P290</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -27249,71 +27307,71 @@
       </c>
       <c r="P26">
         <f>P25+1</f>
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A290</v>
+        <v>Month!A291</v>
       </c>
       <c r="R26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B290</v>
+        <v>Month!B291</v>
       </c>
       <c r="S26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C290</v>
+        <v>Month!C291</v>
       </c>
       <c r="T26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D290</v>
+        <v>Month!D291</v>
       </c>
       <c r="U26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E290</v>
+        <v>Month!E291</v>
       </c>
       <c r="V26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F290</v>
+        <v>Month!F291</v>
       </c>
       <c r="W26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G290</v>
+        <v>Month!G291</v>
       </c>
       <c r="X26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H290</v>
+        <v>Month!H291</v>
       </c>
       <c r="Y26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I290</v>
+        <v>Month!I291</v>
       </c>
       <c r="Z26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J290</v>
+        <v>Month!J291</v>
       </c>
       <c r="AA26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K290</v>
+        <v>Month!K291</v>
       </c>
       <c r="AB26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L290</v>
+        <v>Month!L291</v>
       </c>
       <c r="AC26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M290</v>
+        <v>Month!M291</v>
       </c>
       <c r="AD26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N290</v>
+        <v>Month!N291</v>
       </c>
       <c r="AE26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O290</v>
+        <v>Month!O291</v>
       </c>
       <c r="AF26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P290</v>
+        <v>Month!P291</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -27373,71 +27431,71 @@
       </c>
       <c r="P27">
         <f t="shared" si="3"/>
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A291</v>
+        <v>Month!A292</v>
       </c>
       <c r="R27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B291</v>
+        <v>Month!B292</v>
       </c>
       <c r="S27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C291</v>
+        <v>Month!C292</v>
       </c>
       <c r="T27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D291</v>
+        <v>Month!D292</v>
       </c>
       <c r="U27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E291</v>
+        <v>Month!E292</v>
       </c>
       <c r="V27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F291</v>
+        <v>Month!F292</v>
       </c>
       <c r="W27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G291</v>
+        <v>Month!G292</v>
       </c>
       <c r="X27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H291</v>
+        <v>Month!H292</v>
       </c>
       <c r="Y27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I291</v>
+        <v>Month!I292</v>
       </c>
       <c r="Z27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J291</v>
+        <v>Month!J292</v>
       </c>
       <c r="AA27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K291</v>
+        <v>Month!K292</v>
       </c>
       <c r="AB27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L291</v>
+        <v>Month!L292</v>
       </c>
       <c r="AC27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M291</v>
+        <v>Month!M292</v>
       </c>
       <c r="AD27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N291</v>
+        <v>Month!N292</v>
       </c>
       <c r="AE27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O291</v>
+        <v>Month!O292</v>
       </c>
       <c r="AF27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P291</v>
+        <v>Month!P292</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -27497,71 +27555,71 @@
       </c>
       <c r="P28">
         <f t="shared" si="3"/>
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A292</v>
+        <v>Month!A293</v>
       </c>
       <c r="R28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B292</v>
+        <v>Month!B293</v>
       </c>
       <c r="S28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C292</v>
+        <v>Month!C293</v>
       </c>
       <c r="T28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D292</v>
+        <v>Month!D293</v>
       </c>
       <c r="U28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E292</v>
+        <v>Month!E293</v>
       </c>
       <c r="V28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F292</v>
+        <v>Month!F293</v>
       </c>
       <c r="W28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G292</v>
+        <v>Month!G293</v>
       </c>
       <c r="X28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H292</v>
+        <v>Month!H293</v>
       </c>
       <c r="Y28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I292</v>
+        <v>Month!I293</v>
       </c>
       <c r="Z28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J292</v>
+        <v>Month!J293</v>
       </c>
       <c r="AA28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K292</v>
+        <v>Month!K293</v>
       </c>
       <c r="AB28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L292</v>
+        <v>Month!L293</v>
       </c>
       <c r="AC28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M292</v>
+        <v>Month!M293</v>
       </c>
       <c r="AD28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N292</v>
+        <v>Month!N293</v>
       </c>
       <c r="AE28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O292</v>
+        <v>Month!O293</v>
       </c>
       <c r="AF28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P292</v>
+        <v>Month!P293</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -27621,71 +27679,71 @@
       </c>
       <c r="P29">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A293</v>
+        <v>Month!A294</v>
       </c>
       <c r="R29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B293</v>
+        <v>Month!B294</v>
       </c>
       <c r="S29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C293</v>
+        <v>Month!C294</v>
       </c>
       <c r="T29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D293</v>
+        <v>Month!D294</v>
       </c>
       <c r="U29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E293</v>
+        <v>Month!E294</v>
       </c>
       <c r="V29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F293</v>
+        <v>Month!F294</v>
       </c>
       <c r="W29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G293</v>
+        <v>Month!G294</v>
       </c>
       <c r="X29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H293</v>
+        <v>Month!H294</v>
       </c>
       <c r="Y29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I293</v>
+        <v>Month!I294</v>
       </c>
       <c r="Z29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J293</v>
+        <v>Month!J294</v>
       </c>
       <c r="AA29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K293</v>
+        <v>Month!K294</v>
       </c>
       <c r="AB29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L293</v>
+        <v>Month!L294</v>
       </c>
       <c r="AC29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M293</v>
+        <v>Month!M294</v>
       </c>
       <c r="AD29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N293</v>
+        <v>Month!N294</v>
       </c>
       <c r="AE29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O293</v>
+        <v>Month!O294</v>
       </c>
       <c r="AF29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P293</v>
+        <v>Month!P294</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -27745,71 +27803,71 @@
       </c>
       <c r="P30">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A294</v>
+        <v>Month!A295</v>
       </c>
       <c r="R30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B294</v>
+        <v>Month!B295</v>
       </c>
       <c r="S30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C294</v>
+        <v>Month!C295</v>
       </c>
       <c r="T30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D294</v>
+        <v>Month!D295</v>
       </c>
       <c r="U30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E294</v>
+        <v>Month!E295</v>
       </c>
       <c r="V30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F294</v>
+        <v>Month!F295</v>
       </c>
       <c r="W30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G294</v>
+        <v>Month!G295</v>
       </c>
       <c r="X30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H294</v>
+        <v>Month!H295</v>
       </c>
       <c r="Y30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I294</v>
+        <v>Month!I295</v>
       </c>
       <c r="Z30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J294</v>
+        <v>Month!J295</v>
       </c>
       <c r="AA30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K294</v>
+        <v>Month!K295</v>
       </c>
       <c r="AB30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L294</v>
+        <v>Month!L295</v>
       </c>
       <c r="AC30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M294</v>
+        <v>Month!M295</v>
       </c>
       <c r="AD30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N294</v>
+        <v>Month!N295</v>
       </c>
       <c r="AE30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O294</v>
+        <v>Month!O295</v>
       </c>
       <c r="AF30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P294</v>
+        <v>Month!P295</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -27869,71 +27927,71 @@
       </c>
       <c r="P31">
         <f t="shared" si="3"/>
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A295</v>
+        <v>Month!A296</v>
       </c>
       <c r="R31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B295</v>
+        <v>Month!B296</v>
       </c>
       <c r="S31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C295</v>
+        <v>Month!C296</v>
       </c>
       <c r="T31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D295</v>
+        <v>Month!D296</v>
       </c>
       <c r="U31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E295</v>
+        <v>Month!E296</v>
       </c>
       <c r="V31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F295</v>
+        <v>Month!F296</v>
       </c>
       <c r="W31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G295</v>
+        <v>Month!G296</v>
       </c>
       <c r="X31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H295</v>
+        <v>Month!H296</v>
       </c>
       <c r="Y31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I295</v>
+        <v>Month!I296</v>
       </c>
       <c r="Z31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J295</v>
+        <v>Month!J296</v>
       </c>
       <c r="AA31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K295</v>
+        <v>Month!K296</v>
       </c>
       <c r="AB31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L295</v>
+        <v>Month!L296</v>
       </c>
       <c r="AC31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M295</v>
+        <v>Month!M296</v>
       </c>
       <c r="AD31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N295</v>
+        <v>Month!N296</v>
       </c>
       <c r="AE31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O295</v>
+        <v>Month!O296</v>
       </c>
       <c r="AF31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P295</v>
+        <v>Month!P296</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -27993,71 +28051,71 @@
       </c>
       <c r="P32">
         <f t="shared" si="3"/>
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A296</v>
+        <v>Month!A297</v>
       </c>
       <c r="R32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B296</v>
+        <v>Month!B297</v>
       </c>
       <c r="S32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C296</v>
+        <v>Month!C297</v>
       </c>
       <c r="T32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D296</v>
+        <v>Month!D297</v>
       </c>
       <c r="U32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E296</v>
+        <v>Month!E297</v>
       </c>
       <c r="V32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F296</v>
+        <v>Month!F297</v>
       </c>
       <c r="W32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G296</v>
+        <v>Month!G297</v>
       </c>
       <c r="X32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H296</v>
+        <v>Month!H297</v>
       </c>
       <c r="Y32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I296</v>
+        <v>Month!I297</v>
       </c>
       <c r="Z32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J296</v>
+        <v>Month!J297</v>
       </c>
       <c r="AA32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K296</v>
+        <v>Month!K297</v>
       </c>
       <c r="AB32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L296</v>
+        <v>Month!L297</v>
       </c>
       <c r="AC32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M296</v>
+        <v>Month!M297</v>
       </c>
       <c r="AD32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N296</v>
+        <v>Month!N297</v>
       </c>
       <c r="AE32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O296</v>
+        <v>Month!O297</v>
       </c>
       <c r="AF32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P296</v>
+        <v>Month!P297</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -28117,71 +28175,71 @@
       </c>
       <c r="P33">
         <f t="shared" si="3"/>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A297</v>
+        <v>Month!A298</v>
       </c>
       <c r="R33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B297</v>
+        <v>Month!B298</v>
       </c>
       <c r="S33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C297</v>
+        <v>Month!C298</v>
       </c>
       <c r="T33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D297</v>
+        <v>Month!D298</v>
       </c>
       <c r="U33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E297</v>
+        <v>Month!E298</v>
       </c>
       <c r="V33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F297</v>
+        <v>Month!F298</v>
       </c>
       <c r="W33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G297</v>
+        <v>Month!G298</v>
       </c>
       <c r="X33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H297</v>
+        <v>Month!H298</v>
       </c>
       <c r="Y33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I297</v>
+        <v>Month!I298</v>
       </c>
       <c r="Z33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J297</v>
+        <v>Month!J298</v>
       </c>
       <c r="AA33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K297</v>
+        <v>Month!K298</v>
       </c>
       <c r="AB33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L297</v>
+        <v>Month!L298</v>
       </c>
       <c r="AC33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M297</v>
+        <v>Month!M298</v>
       </c>
       <c r="AD33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N297</v>
+        <v>Month!N298</v>
       </c>
       <c r="AE33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O297</v>
+        <v>Month!O298</v>
       </c>
       <c r="AF33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P297</v>
+        <v>Month!P298</v>
       </c>
     </row>
     <row r="34" spans="1:32">
@@ -28241,71 +28299,71 @@
       </c>
       <c r="P34">
         <f t="shared" si="3"/>
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A298</v>
+        <v>Month!A299</v>
       </c>
       <c r="R34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B298</v>
+        <v>Month!B299</v>
       </c>
       <c r="S34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C298</v>
+        <v>Month!C299</v>
       </c>
       <c r="T34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D298</v>
+        <v>Month!D299</v>
       </c>
       <c r="U34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E298</v>
+        <v>Month!E299</v>
       </c>
       <c r="V34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F298</v>
+        <v>Month!F299</v>
       </c>
       <c r="W34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G298</v>
+        <v>Month!G299</v>
       </c>
       <c r="X34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H298</v>
+        <v>Month!H299</v>
       </c>
       <c r="Y34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I298</v>
+        <v>Month!I299</v>
       </c>
       <c r="Z34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J298</v>
+        <v>Month!J299</v>
       </c>
       <c r="AA34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K298</v>
+        <v>Month!K299</v>
       </c>
       <c r="AB34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L298</v>
+        <v>Month!L299</v>
       </c>
       <c r="AC34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M298</v>
+        <v>Month!M299</v>
       </c>
       <c r="AD34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N298</v>
+        <v>Month!N299</v>
       </c>
       <c r="AE34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O298</v>
+        <v>Month!O299</v>
       </c>
       <c r="AF34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!P298</v>
+        <v>Month!P299</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -28365,71 +28423,71 @@
       </c>
       <c r="P35">
         <f t="shared" si="3"/>
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!A299</v>
+        <v>Month!A300</v>
       </c>
       <c r="R35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!B299</v>
+        <v>Month!B300</v>
       </c>
       <c r="S35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!C299</v>
+        <v>Month!C300</v>
       </c>
       <c r="T35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!D299</v>
+        <v>Month!D300</v>
       </c>
       <c r="U35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!E299</v>
+        <v>Month!E300</v>
       </c>
       <c r="V35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!F299</v>
+        <v>Month!F300</v>
       </c>
       <c r="W35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!G299</v>
+        <v>Month!G300</v>
       </c>
       <c r="X35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!H299</v>
+        <v>Month!H300</v>
       </c>
       <c r="Y35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!I299</v>
+        <v>Month!I300</v>
       </c>
       <c r="Z35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!J299</v>
+        <v>Month!J300</v>
       </c>
       <c r="AA35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!K299</v>
+        <v>Month!K300</v>
       </c>
       <c r="AB35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!L299</v>
+        <v>Month!L300</v>
       </c>
       <c r="AC35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!M299</v>
+        <v>Month!M300</v>
       </c>
       <c r="AD35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!N299</v>
+        <v>Month!N300</v>
       </c>
       <c r="AE35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Month!O299</v>
+        <v>Month!O300</v>
       </c>
       <c r="AF35" s="6" t="str">
         <f t="shared" ref="Q35:AF36" si="4">$R$16&amp;AF$19&amp;$P35</f>
-        <v>Month!P299</v>
+        <v>Month!P300</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -28489,71 +28547,71 @@
       </c>
       <c r="P36">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!A300</v>
+        <v>Month!A301</v>
       </c>
       <c r="R36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!B300</v>
+        <v>Month!B301</v>
       </c>
       <c r="S36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!C300</v>
+        <v>Month!C301</v>
       </c>
       <c r="T36" s="6" t="str">
         <f>$R$16&amp;T$19&amp;$P36</f>
-        <v>Month!D300</v>
+        <v>Month!D301</v>
       </c>
       <c r="U36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!E300</v>
+        <v>Month!E301</v>
       </c>
       <c r="V36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!F300</v>
+        <v>Month!F301</v>
       </c>
       <c r="W36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!G300</v>
+        <v>Month!G301</v>
       </c>
       <c r="X36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!H300</v>
+        <v>Month!H301</v>
       </c>
       <c r="Y36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!I300</v>
+        <v>Month!I301</v>
       </c>
       <c r="Z36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!J300</v>
+        <v>Month!J301</v>
       </c>
       <c r="AA36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!K300</v>
+        <v>Month!K301</v>
       </c>
       <c r="AB36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!L300</v>
+        <v>Month!L301</v>
       </c>
       <c r="AC36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!M300</v>
+        <v>Month!M301</v>
       </c>
       <c r="AD36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!N300</v>
+        <v>Month!N301</v>
       </c>
       <c r="AE36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!O300</v>
+        <v>Month!O301</v>
       </c>
       <c r="AF36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>Month!P300</v>
+        <v>Month!P301</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -28668,7 +28726,7 @@
         <v>723.76</v>
       </c>
       <c r="R38" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -28727,7 +28785,7 @@
         <v>899.65</v>
       </c>
       <c r="Q39" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="R39" t="s">
         <v>51</v>
@@ -28823,59 +28881,59 @@
       </c>
       <c r="P40">
         <f>P23+27-12</f>
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q40" s="6" t="str">
         <f>$R$38&amp;Q$39&amp;$P40</f>
-        <v>calculation_hide!b302</v>
+        <v>calculation_hide!b303</v>
       </c>
       <c r="R40" s="6" t="str">
         <f>$R$38&amp;R$39&amp;$P40</f>
-        <v>calculation_hide!c302</v>
+        <v>calculation_hide!c303</v>
       </c>
       <c r="S40" s="6" t="str">
         <f>$R$38&amp;S$39&amp;$P40</f>
-        <v>calculation_hide!d302</v>
+        <v>calculation_hide!d303</v>
       </c>
       <c r="T40" s="6" t="str">
         <f t="shared" ref="S40:AC41" si="5">$R$38&amp;T$39&amp;$P40</f>
-        <v>calculation_hide!e302</v>
+        <v>calculation_hide!e303</v>
       </c>
       <c r="U40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!f302</v>
+        <v>calculation_hide!f303</v>
       </c>
       <c r="V40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!g302</v>
+        <v>calculation_hide!g303</v>
       </c>
       <c r="W40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!h302</v>
+        <v>calculation_hide!h303</v>
       </c>
       <c r="X40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!I302</v>
+        <v>calculation_hide!I303</v>
       </c>
       <c r="Y40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!j302</v>
+        <v>calculation_hide!j303</v>
       </c>
       <c r="Z40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!k302</v>
+        <v>calculation_hide!k303</v>
       </c>
       <c r="AA40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!l302</v>
+        <v>calculation_hide!l303</v>
       </c>
       <c r="AB40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!m302</v>
+        <v>calculation_hide!m303</v>
       </c>
       <c r="AC40" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!n302</v>
+        <v>calculation_hide!n303</v>
       </c>
       <c r="AD40" s="6"/>
       <c r="AE40" s="6"/>
@@ -28938,59 +28996,59 @@
       </c>
       <c r="P41">
         <f>P23+27</f>
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q41" s="6" t="str">
         <f>$R$38&amp;Q$39&amp;$P41</f>
-        <v>calculation_hide!b314</v>
+        <v>calculation_hide!b315</v>
       </c>
       <c r="R41" s="6" t="str">
         <f>$R$38&amp;R$39&amp;$P41</f>
-        <v>calculation_hide!c314</v>
+        <v>calculation_hide!c315</v>
       </c>
       <c r="S41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!d314</v>
+        <v>calculation_hide!d315</v>
       </c>
       <c r="T41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!e314</v>
+        <v>calculation_hide!e315</v>
       </c>
       <c r="U41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!f314</v>
+        <v>calculation_hide!f315</v>
       </c>
       <c r="V41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!g314</v>
+        <v>calculation_hide!g315</v>
       </c>
       <c r="W41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!h314</v>
+        <v>calculation_hide!h315</v>
       </c>
       <c r="X41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!I314</v>
+        <v>calculation_hide!I315</v>
       </c>
       <c r="Y41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!j314</v>
+        <v>calculation_hide!j315</v>
       </c>
       <c r="Z41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!k314</v>
+        <v>calculation_hide!k315</v>
       </c>
       <c r="AA41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!l314</v>
+        <v>calculation_hide!l315</v>
       </c>
       <c r="AB41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!m314</v>
+        <v>calculation_hide!m315</v>
       </c>
       <c r="AC41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>calculation_hide!n314</v>
+        <v>calculation_hide!n315</v>
       </c>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
@@ -42588,7 +42646,7 @@
         <v>2020</v>
       </c>
       <c r="B286" s="77" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C286" s="11">
         <f>Month!B271</f>
@@ -42645,7 +42703,7 @@
         <v>2020</v>
       </c>
       <c r="B287" s="78" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C287" s="11">
         <f>C286+Month!B272</f>
@@ -42702,7 +42760,7 @@
         <v>2020</v>
       </c>
       <c r="B288" s="78" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C288" s="11">
         <f>C287+Month!B273</f>
@@ -42759,7 +42817,7 @@
         <v>2020</v>
       </c>
       <c r="B289" s="78" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C289" s="11">
         <f>C288+Month!B274</f>
@@ -42816,7 +42874,7 @@
         <v>2020</v>
       </c>
       <c r="B290" s="78" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C290" s="11">
         <f>C289+Month!B275</f>
@@ -42873,7 +42931,7 @@
         <v>2020</v>
       </c>
       <c r="B291" s="78" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C291" s="11">
         <f>C290+Month!B276</f>
@@ -42930,7 +42988,7 @@
         <v>2020</v>
       </c>
       <c r="B292" s="78" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C292" s="11">
         <f>C291+Month!B277</f>
@@ -42987,7 +43045,7 @@
         <v>2020</v>
       </c>
       <c r="B293" s="78" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C293" s="11">
         <f>C292+Month!B278</f>
@@ -43044,7 +43102,7 @@
         <v>2020</v>
       </c>
       <c r="B294" s="78" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C294" s="11">
         <f>C293+Month!B279</f>
@@ -43101,7 +43159,7 @@
         <v>2020</v>
       </c>
       <c r="B295" s="78" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C295" s="11">
         <f>C294+Month!B280</f>
@@ -43158,7 +43216,7 @@
         <v>2020</v>
       </c>
       <c r="B296" s="78" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C296" s="11">
         <f>C295+Month!B281</f>
@@ -43215,7 +43273,7 @@
         <v>2020</v>
       </c>
       <c r="B297" s="78" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C297" s="11">
         <f>C296+Month!B282</f>
@@ -43271,7 +43329,7 @@
         <v>2021</v>
       </c>
       <c r="B298" s="77" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C298" s="11">
         <f>Month!B283</f>
@@ -43328,7 +43386,7 @@
         <v>2021</v>
       </c>
       <c r="B299" s="78" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C299" s="11">
         <f>C298+Month!B284</f>
@@ -43385,7 +43443,7 @@
         <v>2021</v>
       </c>
       <c r="B300" s="78" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C300" s="11">
         <f>C299+Month!B285</f>
@@ -43442,7 +43500,7 @@
         <v>2021</v>
       </c>
       <c r="B301" s="78" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C301" s="11">
         <f>C300+Month!B286</f>
@@ -43499,7 +43557,7 @@
         <v>2021</v>
       </c>
       <c r="B302" s="78" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C302" s="11">
         <f>C301+Month!B287</f>
@@ -43556,7 +43614,7 @@
         <v>2021</v>
       </c>
       <c r="B303" s="78" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C303" s="11">
         <f>C302+Month!B288</f>
@@ -43613,7 +43671,7 @@
         <v>2021</v>
       </c>
       <c r="B304" s="78" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C304" s="11">
         <f>C303+Month!B289</f>
@@ -43670,7 +43728,7 @@
         <v>2021</v>
       </c>
       <c r="B305" s="78" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C305" s="11">
         <f>C304+Month!B290</f>
@@ -43727,7 +43785,7 @@
         <v>2021</v>
       </c>
       <c r="B306" s="78" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C306" s="11">
         <f>C305+Month!B291</f>
@@ -43784,7 +43842,7 @@
         <v>2021</v>
       </c>
       <c r="B307" s="78" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C307" s="11">
         <f>C306+Month!B292</f>
@@ -43841,7 +43899,7 @@
         <v>2021</v>
       </c>
       <c r="B308" s="78" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C308" s="11">
         <f>C307+Month!B293</f>
@@ -43898,7 +43956,7 @@
         <v>2021</v>
       </c>
       <c r="B309" s="78" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C309" s="11">
         <f>C308+Month!B294</f>
@@ -43954,7 +44012,7 @@
         <v>2022</v>
       </c>
       <c r="B310" s="78" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C310" s="11">
         <f>Month!B295</f>
@@ -44011,7 +44069,7 @@
         <v>2022</v>
       </c>
       <c r="B311" s="78" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C311" s="11">
         <f>C310+Month!B296</f>
@@ -44068,7 +44126,7 @@
         <v>2022</v>
       </c>
       <c r="B312" s="78" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C312" s="11">
         <f>C311+Month!B297</f>
@@ -44125,15 +44183,15 @@
         <v>2022</v>
       </c>
       <c r="B313" s="78" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C313" s="11">
         <f>C312+Month!B298</f>
-        <v>18437.54</v>
+        <v>18273.849999999999</v>
       </c>
       <c r="D313" s="11">
         <f>D312+Month!C298</f>
-        <v>1099.7</v>
+        <v>1098.51</v>
       </c>
       <c r="E313" s="11">
         <f>E312+Month!D298</f>
@@ -44141,11 +44199,11 @@
       </c>
       <c r="F313" s="11">
         <f>F312+Month!E298</f>
-        <v>21.43</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="G313" s="11">
         <f>G312+Month!F298</f>
-        <v>3569.79</v>
+        <v>3436.74</v>
       </c>
       <c r="H313" s="11">
         <f>H312+Month!G298</f>
@@ -44157,11 +44215,11 @@
       </c>
       <c r="J313" s="11">
         <f>J312+Month!I298</f>
-        <v>7213.05</v>
+        <v>7321.58</v>
       </c>
       <c r="K313" s="11">
         <f>K312+Month!J298</f>
-        <v>1641.77</v>
+        <v>1507.21</v>
       </c>
       <c r="L313" s="11">
         <f>L312+Month!K298</f>
@@ -44182,15 +44240,15 @@
         <v>2022</v>
       </c>
       <c r="B314" s="78" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C314" s="11">
         <f>C313+Month!B299</f>
-        <v>23421.65</v>
+        <v>23106.05</v>
       </c>
       <c r="D314" s="11">
         <f>D313+Month!C299</f>
-        <v>1396.97</v>
+        <v>1343.69</v>
       </c>
       <c r="E314" s="11">
         <f>E313+Month!D299</f>
@@ -44198,27 +44256,27 @@
       </c>
       <c r="F314" s="11">
         <f>F313+Month!E299</f>
-        <v>26.42</v>
+        <v>19.459999999999997</v>
       </c>
       <c r="G314" s="11">
         <f>G313+Month!F299</f>
-        <v>4554.79</v>
+        <v>4411.4799999999996</v>
       </c>
       <c r="H314" s="11">
         <f>H313+Month!G299</f>
-        <v>3389.7400000000002</v>
+        <v>3386.03</v>
       </c>
       <c r="I314" s="11">
         <f>I313+Month!H299</f>
-        <v>1465.27</v>
+        <v>1459.18</v>
       </c>
       <c r="J314" s="11">
         <f>J313+Month!I299</f>
-        <v>9113.0499999999993</v>
+        <v>9305.9599999999991</v>
       </c>
       <c r="K314" s="11">
         <f>K313+Month!J299</f>
-        <v>2068</v>
+        <v>1760.24</v>
       </c>
       <c r="L314" s="11">
         <f>L313+Month!K299</f>
@@ -44226,11 +44284,11 @@
       </c>
       <c r="M314" s="11">
         <f>M313+Month!L299</f>
-        <v>131.41999999999999</v>
+        <v>128.59</v>
       </c>
       <c r="N314" s="11">
         <f>N313+Month!M299</f>
-        <v>649.73</v>
+        <v>660.02</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -44239,20 +44297,56 @@
         <v>2022</v>
       </c>
       <c r="B315" s="78" t="s">
-        <v>541</v>
-      </c>
-      <c r="C315" s="11"/>
-      <c r="D315" s="11"/>
-      <c r="E315" s="11"/>
-      <c r="F315" s="11"/>
-      <c r="G315" s="11"/>
-      <c r="H315" s="11"/>
-      <c r="I315" s="11"/>
-      <c r="J315" s="11"/>
-      <c r="K315" s="11"/>
-      <c r="L315" s="11"/>
-      <c r="M315" s="11"/>
-      <c r="N315" s="11"/>
+        <v>537</v>
+      </c>
+      <c r="C315" s="11">
+        <f>C314+Month!B300</f>
+        <v>27841.739999999998</v>
+      </c>
+      <c r="D315" s="11">
+        <f>D314+Month!C300</f>
+        <v>1611.72</v>
+      </c>
+      <c r="E315" s="11">
+        <f>E314+Month!D300</f>
+        <v>319.38</v>
+      </c>
+      <c r="F315" s="11">
+        <f>F314+Month!E300</f>
+        <v>34.43</v>
+      </c>
+      <c r="G315" s="11">
+        <f>G314+Month!F300</f>
+        <v>5384.49</v>
+      </c>
+      <c r="H315" s="11">
+        <f>H314+Month!G300</f>
+        <v>4261.2800000000007</v>
+      </c>
+      <c r="I315" s="11">
+        <f>I314+Month!H300</f>
+        <v>1602.3000000000002</v>
+      </c>
+      <c r="J315" s="11">
+        <f>J314+Month!I300</f>
+        <v>11276.689999999999</v>
+      </c>
+      <c r="K315" s="11">
+        <f>K314+Month!J300</f>
+        <v>1964.23</v>
+      </c>
+      <c r="L315" s="11">
+        <f>L314+Month!K300</f>
+        <v>129.68</v>
+      </c>
+      <c r="M315" s="11">
+        <f>M314+Month!L300</f>
+        <v>158.63</v>
+      </c>
+      <c r="N315" s="11">
+        <f>N314+Month!M300</f>
+        <v>796.68999999999994</v>
+      </c>
     </row>
     <row r="316" spans="1:14">
       <c r="A316">
@@ -44260,7 +44354,7 @@
         <v>2022</v>
       </c>
       <c r="B316" s="78" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C316" s="11"/>
       <c r="D316" s="11"/>
@@ -44281,7 +44375,7 @@
         <v>2022</v>
       </c>
       <c r="B317" s="78" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C317" s="11"/>
       <c r="D317" s="11"/>
@@ -44302,7 +44396,7 @@
         <v>2022</v>
       </c>
       <c r="B318" s="78" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
@@ -44323,7 +44417,7 @@
         <v>2022</v>
       </c>
       <c r="B319" s="78" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C319" s="11"/>
       <c r="D319" s="11"/>
@@ -44344,7 +44438,7 @@
         <v>2022</v>
       </c>
       <c r="B320" s="78" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
@@ -44365,7 +44459,7 @@
         <v>2022</v>
       </c>
       <c r="B321" s="78" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C321" s="11"/>
       <c r="D321" s="11"/>

--- a/Data Sources/Daily Demand/Transport/ET_3.13.xlsx
+++ b/Data Sources/Daily Demand/Transport/ET_3.13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\ScottishEnergyStatsProcessing\Data Sources\Daily Demand\Transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7779E55F-3259-475D-BC00-8FE0DE195EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C91AA9-814D-4154-AC14-990B86BC2273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="603">
   <si>
     <t>Kerosene</t>
   </si>
@@ -1890,9 +1890,6 @@
     <t>October 2022</t>
   </si>
   <si>
-    <t>November 2022 [Provisional]</t>
-  </si>
-  <si>
     <t>Deliveries of petroleum products for inland consumption</t>
   </si>
   <si>
@@ -1909,6 +1906,15 @@
   <si>
     <t>Gas oil
 [note 8]</t>
+  </si>
+  <si>
+    <t>November 2022</t>
+  </si>
+  <si>
+    <t>December 2022</t>
+  </si>
+  <si>
+    <t>January 2023</t>
   </si>
 </sst>
 </file>
@@ -2447,7 +2453,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2781,6 +2787,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="12" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="10" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2811,6 +2829,48 @@
     <cellStyle name="Percent 3" xfId="25" xr:uid="{B5791BBB-974D-406C-A8F9-4EE555F4583F}"/>
   </cellStyles>
   <dxfs count="120">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4437,48 +4497,6 @@
     </dxf>
     <dxf>
       <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4970,28 +4988,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_annual_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_annual_data_thousand_tonnes" ref="A6:M30" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87" tableBorderDxfId="86" headerRowCellStyle="Normal 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_annual_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_annual_data_thousand_tonnes" ref="A6:M30" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92" headerRowCellStyle="Normal 4">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Year" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Total _x000a_[note 1]" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Normal 4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Butane and  propane _x000a_[note 2]" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Other petroleum gases _x000a_[note 3]_x000a_[note 4]" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Naphtha [LDF]" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Petrol" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Jet fuel" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Burning oil" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Road diesel" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Gas oil" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Fuel oil _x000a_[note 4]" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Lubricating oils" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Bitumen" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Year" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Total _x000a_[note 1]" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Normal 4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Butane and  propane _x000a_[note 2]" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Other petroleum gases _x000a_[note 3]_x000a_[note 4]" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Naphtha [LDF]" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Petrol" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Jet fuel" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Burning oil" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Road diesel" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Gas oil" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Fuel oil _x000a_[note 4]" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="Lubricating oils" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="Bitumen" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" ref="A6:M105" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="55" headerRowBorderDxfId="58" tableBorderDxfId="56" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_quarterly_data_thousand_tonnes" ref="A6:M105" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" totalsRowDxfId="61" headerRowBorderDxfId="64" tableBorderDxfId="62" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4">
   <autoFilter ref="A6:M105" xr:uid="{1F33A51C-7989-44C8-A90A-7E4130E7C161}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -5008,40 +5026,40 @@
     <filterColumn colId="12" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="2" xr3:uid="{88B647EF-0B85-44A1-8413-3A540D93D703}" name="Column1" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{BCD56962-2BF2-4927-9F9F-69E5F2396E82}" name="Total _x000a_[note 1]" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{0B552053-4398-4B87-9D6E-A50B9DEA52B5}" name="Butane and  propane _x000a_[note 2]" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{BF37A140-0160-42E9-B897-58F148606AD6}" name="Other petroleum gases _x000a_[note 3][note 4]" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{75283270-1F12-4882-B29A-EAFC2EB38ED5}" name="Naphtha [LDF]" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{C8FE6921-2973-4065-B29B-9339B8C473EF}" name="Petrol" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{97D09F85-60EC-4966-A794-C2A4E92CB0A9}" name="Jet fuel" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{B6DD607A-CCFA-4901-BC68-666A9FCE23FF}" name="Burning oil" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{6D69EC46-8E75-4B41-9707-BDCC32395843}" name="Road diesel" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{387DD636-F736-4370-99A7-40C8D3BF1192}" name="Gas oil" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{E3D1EC5B-F99D-491D-84A4-589342A35884}" name="Fuel oil _x000a_[note 4]" dataDxfId="34" totalsRowDxfId="33" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="13" xr3:uid="{40E1FBF7-FB79-4706-B123-EB65828D1725}" name="Lubricating oils" dataDxfId="32" totalsRowDxfId="31" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
-    <tableColumn id="14" xr3:uid="{4CB90CA8-2CCE-426B-A639-B9A5D1563CA9}" name="Bitumen" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{88B647EF-0B85-44A1-8413-3A540D93D703}" name="Column1" dataDxfId="60" totalsRowDxfId="59" dataCellStyle="Normal 4" totalsRowCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{BCD56962-2BF2-4927-9F9F-69E5F2396E82}" name="Total _x000a_[note 1]" dataDxfId="58" totalsRowDxfId="57" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{0B552053-4398-4B87-9D6E-A50B9DEA52B5}" name="Butane and  propane _x000a_[note 2]" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{BF37A140-0160-42E9-B897-58F148606AD6}" name="Other petroleum gases _x000a_[note 3][note 4]" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{75283270-1F12-4882-B29A-EAFC2EB38ED5}" name="Naphtha [LDF]" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{C8FE6921-2973-4065-B29B-9339B8C473EF}" name="Petrol" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{97D09F85-60EC-4966-A794-C2A4E92CB0A9}" name="Jet fuel" dataDxfId="48" totalsRowDxfId="47" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{B6DD607A-CCFA-4901-BC68-666A9FCE23FF}" name="Burning oil" dataDxfId="46" totalsRowDxfId="45" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{6D69EC46-8E75-4B41-9707-BDCC32395843}" name="Road diesel" dataDxfId="44" totalsRowDxfId="43" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{387DD636-F736-4370-99A7-40C8D3BF1192}" name="Gas oil" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{E3D1EC5B-F99D-491D-84A4-589342A35884}" name="Fuel oil _x000a_[note 4]" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="13" xr3:uid="{40E1FBF7-FB79-4706-B123-EB65828D1725}" name="Lubricating oils" dataDxfId="38" totalsRowDxfId="37" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
+    <tableColumn id="14" xr3:uid="{4CB90CA8-2CCE-426B-A639-B9A5D1563CA9}" name="Bitumen" dataDxfId="36" totalsRowDxfId="35" dataCellStyle="Comma" totalsRowCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32EC90BF-6925-4350-9731-D694C97366E7}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" ref="A6:M305" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{32EC90BF-6925-4350-9731-D694C97366E7}" name="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" displayName="Table3.13_deliveries_of_petroleum_products_for_inland_consumption_monthly_data_thousand_tonnes" ref="A6:M307" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4">
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C1D016C8-7136-43D1-910A-4E18DF904FCD}" name="Column1" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 4"/>
-    <tableColumn id="2" xr3:uid="{91EC4919-FD31-4FFA-AD1D-9A2EC0119BD1}" name="Total _x000a_[note 1]" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{9994B519-8D09-4513-9D89-15068D3F7DE7}" name="Butane and  propane _x000a_[note 2]" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 4"/>
-    <tableColumn id="4" xr3:uid="{783F1BD5-1EC3-4630-B016-D961842351A4}" name="Other petroleum gases _x000a_[note 3] [note 4]" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" xr3:uid="{46CFC098-5F8C-4A0E-930C-156142155F6B}" name="Naphtha [LDF]" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 4"/>
-    <tableColumn id="6" xr3:uid="{2634D3AF-533E-4B44-8B38-8AA6FF4B56F2}" name="Petrol" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 4"/>
-    <tableColumn id="7" xr3:uid="{270DFCDF-A421-4777-B056-F0529134DBCA}" name="Jet fuel" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 4"/>
-    <tableColumn id="8" xr3:uid="{27F8035E-2A2C-4CCE-8B43-5BC3605A1EA2}" name="Burning oil" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 4"/>
-    <tableColumn id="9" xr3:uid="{32482D04-2567-40C6-B05A-081617C263FD}" name="Road diesel" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 4"/>
-    <tableColumn id="10" xr3:uid="{50A07C9F-DFDA-4AFF-8695-4CBA4A267A54}" name="Gas oil" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 4"/>
-    <tableColumn id="11" xr3:uid="{A8740E53-EE21-48A3-A4C7-9CF105304A07}" name="Fuel oil _x000a_[note 4]" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 4"/>
-    <tableColumn id="12" xr3:uid="{D8A64CDD-4BB3-4A66-AA23-AF58CA437AA5}" name="Lubricating oils" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 4"/>
-    <tableColumn id="13" xr3:uid="{4A9D043F-7235-4F2A-BA79-F748E9DEC20A}" name="Bitumen" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 4"/>
+    <tableColumn id="1" xr3:uid="{C1D016C8-7136-43D1-910A-4E18DF904FCD}" name="Column1" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Normal 4"/>
+    <tableColumn id="2" xr3:uid="{91EC4919-FD31-4FFA-AD1D-9A2EC0119BD1}" name="Total _x000a_[note 1]" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{9994B519-8D09-4513-9D89-15068D3F7DE7}" name="Butane and  propane _x000a_[note 2]" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal 4"/>
+    <tableColumn id="4" xr3:uid="{783F1BD5-1EC3-4630-B016-D961842351A4}" name="Other petroleum gases _x000a_[note 3] [note 4]" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{46CFC098-5F8C-4A0E-930C-156142155F6B}" name="Naphtha [LDF]" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 4"/>
+    <tableColumn id="6" xr3:uid="{2634D3AF-533E-4B44-8B38-8AA6FF4B56F2}" name="Petrol" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 4"/>
+    <tableColumn id="7" xr3:uid="{270DFCDF-A421-4777-B056-F0529134DBCA}" name="Jet fuel" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal 4"/>
+    <tableColumn id="8" xr3:uid="{27F8035E-2A2C-4CCE-8B43-5BC3605A1EA2}" name="Burning oil" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 4"/>
+    <tableColumn id="9" xr3:uid="{32482D04-2567-40C6-B05A-081617C263FD}" name="Road diesel" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 4"/>
+    <tableColumn id="10" xr3:uid="{50A07C9F-DFDA-4AFF-8695-4CBA4A267A54}" name="Gas oil" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 4"/>
+    <tableColumn id="11" xr3:uid="{A8740E53-EE21-48A3-A4C7-9CF105304A07}" name="Fuel oil _x000a_[note 4]" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 4"/>
+    <tableColumn id="12" xr3:uid="{D8A64CDD-4BB3-4A66-AA23-AF58CA437AA5}" name="Lubricating oils" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 4"/>
+    <tableColumn id="13" xr3:uid="{4A9D043F-7235-4F2A-BA79-F748E9DEC20A}" name="Bitumen" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5406,7 +5424,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" customHeight="1">
@@ -5774,10 +5792,10 @@
     </row>
     <row r="12" spans="1:14" ht="63">
       <c r="A12" s="65" t="s">
+        <v>596</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>597</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>598</v>
       </c>
       <c r="C12" s="123"/>
       <c r="D12" s="35"/>
@@ -5887,7 +5905,7 @@
     </row>
     <row r="4" spans="1:1" s="95" customFormat="1" ht="110.25">
       <c r="A4" s="116" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5972,7 +5990,7 @@
         <v>581</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K5" s="71" t="s">
         <v>511</v>
@@ -6368,51 +6386,51 @@
       </c>
       <c r="B13" s="105">
         <f ca="1">INDIRECT(calculation_hide!R41)</f>
-        <v>52358.459999999992</v>
+        <v>52328.369999999995</v>
       </c>
       <c r="C13" s="74">
         <f ca="1">INDIRECT(calculation_hide!S41)</f>
-        <v>2692.04</v>
+        <v>2692.65</v>
       </c>
       <c r="D13" s="74">
         <f ca="1">INDIRECT(calculation_hide!T41)</f>
-        <v>610.74</v>
+        <v>610.28</v>
       </c>
       <c r="E13" s="74">
         <f ca="1">INDIRECT(calculation_hide!U41)</f>
-        <v>73.849999999999994</v>
+        <v>58.22</v>
       </c>
       <c r="F13" s="74">
         <f ca="1">INDIRECT(calculation_hide!V41)</f>
-        <v>10119.939999999999</v>
+        <v>10052.589999999998</v>
       </c>
       <c r="G13" s="75">
         <f ca="1">INDIRECT(calculation_hide!W41)</f>
-        <v>8673.4700000000012</v>
+        <v>8673.5</v>
       </c>
       <c r="H13" s="76">
         <f ca="1">INDIRECT(calculation_hide!X41)</f>
-        <v>2641.6800000000003</v>
+        <v>2644.26</v>
       </c>
       <c r="I13" s="75">
         <f ca="1">INDIRECT(calculation_hide!Y41)</f>
-        <v>21078.050000000003</v>
+        <v>21006.33</v>
       </c>
       <c r="J13" s="76">
         <f ca="1">INDIRECT(calculation_hide!Z41)</f>
-        <v>3798.3899999999994</v>
+        <v>3913.2299999999996</v>
       </c>
       <c r="K13" s="74">
         <f ca="1">INDIRECT(calculation_hide!AA41)</f>
-        <v>220.21000000000004</v>
+        <v>224.34000000000003</v>
       </c>
       <c r="L13" s="74">
         <f ca="1">INDIRECT(calculation_hide!AB41)</f>
-        <v>261.02</v>
+        <v>261.33</v>
       </c>
       <c r="M13" s="74">
         <f ca="1">INDIRECT(calculation_hide!AC41)</f>
-        <v>1477.01</v>
+        <v>1469.82</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="65" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -6421,7 +6439,7 @@
       </c>
       <c r="B14" s="103" t="str">
         <f t="shared" ref="B14:M14" ca="1" si="1">IF(((B13-B12)/B12*100)&gt;100,"(+) ",IF(((B13-B12)/B12*100)&lt;-100,"(-) ",IF(ROUND(((B13-B12)/B12*100),1)=0,"- ",IF(((B13-B12)/B12*100)&gt;0,TEXT(((B13-B12)/B12*100),"+0.0 "),TEXT(((B13-B12)/B12*100),"0.0 ")))))</f>
-        <v xml:space="preserve">+11.7 </v>
+        <v xml:space="preserve">+11.6 </v>
       </c>
       <c r="C14" s="79" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6429,15 +6447,15 @@
       </c>
       <c r="D14" s="79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-26.1 </v>
+        <v xml:space="preserve">-26.2 </v>
       </c>
       <c r="E14" s="79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-56.9 </v>
+        <v xml:space="preserve">-66.0 </v>
       </c>
       <c r="F14" s="79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+9.9 </v>
+        <v xml:space="preserve">+9.1 </v>
       </c>
       <c r="G14" s="80" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6445,27 +6463,27 @@
       </c>
       <c r="H14" s="81" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-14.1 </v>
+        <v xml:space="preserve">-14.0 </v>
       </c>
       <c r="I14" s="80" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">+6.8 </v>
+        <v xml:space="preserve">+6.4 </v>
       </c>
       <c r="J14" s="81" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-16.2 </v>
+        <v xml:space="preserve">-13.6 </v>
       </c>
       <c r="K14" s="79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-2.7 </v>
+        <v xml:space="preserve">-0.8 </v>
       </c>
       <c r="L14" s="79" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-5.5 </v>
+        <v xml:space="preserve">-5.4 </v>
       </c>
       <c r="M14" s="81" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v xml:space="preserve">-15.2 </v>
+        <v xml:space="preserve">-15.6 </v>
       </c>
     </row>
     <row r="15" spans="1:13" s="65" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -6794,55 +6812,55 @@
     <row r="21" spans="1:13" s="65" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="77" t="str">
         <f ca="1">INDIRECT(calculation_hide!Q35)</f>
-        <v>November 2022 [Provisional]</v>
+        <v>November 2022</v>
       </c>
       <c r="B21" s="102">
         <f ca="1">INDIRECT(calculation_hide!R35)</f>
-        <v>4695.09</v>
+        <v>4665</v>
       </c>
       <c r="C21" s="74">
         <f ca="1">INDIRECT(calculation_hide!S35)</f>
-        <v>194.39</v>
+        <v>195</v>
       </c>
       <c r="D21" s="74">
         <f ca="1">INDIRECT(calculation_hide!T35)</f>
-        <v>59.46</v>
+        <v>59</v>
       </c>
       <c r="E21" s="74">
         <f ca="1">INDIRECT(calculation_hide!U35)</f>
-        <v>17.63</v>
+        <v>2</v>
       </c>
       <c r="F21" s="74">
         <f ca="1">INDIRECT(calculation_hide!V35)</f>
-        <v>1002.35</v>
+        <v>935</v>
       </c>
       <c r="G21" s="75">
         <f ca="1">INDIRECT(calculation_hide!W35)</f>
-        <v>742.97</v>
+        <v>743</v>
       </c>
       <c r="H21" s="76">
         <f ca="1">INDIRECT(calculation_hide!X35)</f>
-        <v>261.42</v>
+        <v>264</v>
       </c>
       <c r="I21" s="75">
         <f ca="1">INDIRECT(calculation_hide!Y35)</f>
-        <v>2004.72</v>
+        <v>1933</v>
       </c>
       <c r="J21" s="76">
         <f ca="1">INDIRECT(calculation_hide!Z35)</f>
-        <v>191.16</v>
+        <v>306</v>
       </c>
       <c r="K21" s="74">
         <f ca="1">INDIRECT(calculation_hide!AA35)</f>
-        <v>11.87</v>
+        <v>16</v>
       </c>
       <c r="L21" s="74">
         <f ca="1">INDIRECT(calculation_hide!AB35)</f>
-        <v>14.69</v>
+        <v>15</v>
       </c>
       <c r="M21" s="74">
         <f ca="1">INDIRECT(calculation_hide!AC35)</f>
-        <v>136.19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="65" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -6851,51 +6869,51 @@
       </c>
       <c r="B22" s="106">
         <f t="shared" ref="B22:M22" ca="1" si="3">SUM(B19:B21)</f>
-        <v>14409.92</v>
+        <v>14379.83</v>
       </c>
       <c r="C22" s="83">
         <f t="shared" ca="1" si="3"/>
-        <v>616.80999999999995</v>
+        <v>617.41999999999996</v>
       </c>
       <c r="D22" s="83">
         <f t="shared" ca="1" si="3"/>
-        <v>168.85</v>
+        <v>168.39</v>
       </c>
       <c r="E22" s="83">
         <f t="shared" ca="1" si="3"/>
-        <v>44.29</v>
+        <v>28.66</v>
       </c>
       <c r="F22" s="83">
         <f t="shared" ca="1" si="3"/>
-        <v>2909.31</v>
+        <v>2841.96</v>
       </c>
       <c r="G22" s="84">
         <f t="shared" ca="1" si="3"/>
-        <v>2493.4700000000003</v>
+        <v>2493.5</v>
       </c>
       <c r="H22" s="85">
         <f t="shared" ca="1" si="3"/>
-        <v>705.15000000000009</v>
+        <v>707.73</v>
       </c>
       <c r="I22" s="84">
         <f t="shared" ca="1" si="3"/>
-        <v>5961.21</v>
+        <v>5889.49</v>
       </c>
       <c r="J22" s="85">
         <f t="shared" ca="1" si="3"/>
-        <v>748.45999999999992</v>
+        <v>863.3</v>
       </c>
       <c r="K22" s="83">
         <f t="shared" ca="1" si="3"/>
-        <v>41.41</v>
+        <v>45.54</v>
       </c>
       <c r="L22" s="83">
         <f t="shared" ca="1" si="3"/>
-        <v>52.01</v>
+        <v>52.32</v>
       </c>
       <c r="M22" s="85">
         <f t="shared" ca="1" si="3"/>
-        <v>405.76</v>
+        <v>398.57</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="65" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -6904,15 +6922,15 @@
       </c>
       <c r="B23" s="107" t="str">
         <f t="shared" ref="B23:M23" ca="1" si="4">IF(((B22-B18)/B18*100)&gt;100,"(+) ",IF(((B22-B18)/B18*100)&lt;-100,"(-) ",IF(ROUND(((B22-B18)/B18*100),1)=0,"- ",IF(((B22-B18)/B18*100)&gt;0,TEXT(((B22-B18)/B18*100),"+0.0 "),TEXT(((B22-B18)/B18*100),"0.0 ")))))</f>
-        <v xml:space="preserve">+2.5 </v>
+        <v xml:space="preserve">+2.3 </v>
       </c>
       <c r="C23" s="79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-12.2 </v>
+        <v xml:space="preserve">-12.1 </v>
       </c>
       <c r="D23" s="79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-30.2 </v>
+        <v xml:space="preserve">-30.4 </v>
       </c>
       <c r="E23" s="79" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -6920,35 +6938,35 @@
       </c>
       <c r="F23" s="88" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+2.9 </v>
+        <v xml:space="preserve">+0.6 </v>
       </c>
       <c r="G23" s="80" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">+61.3 </v>
+        <v xml:space="preserve">+61.4 </v>
       </c>
       <c r="H23" s="81" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-18.3 </v>
+        <v xml:space="preserve">-18.0 </v>
       </c>
       <c r="I23" s="86" t="str">
         <f ca="1">IF(((I22-I18)/I18*100)&gt;100,"(+) ",IF(((I22-I18)/I18*100)&lt;-100,"(-) ",IF(ROUND(((I22-I18)/I18*100),1)=0,"- ",IF(((I22-I18)/I18*100)&gt;0,TEXT(((I22-I18)/I18*100),"+0.0 "),TEXT(((I22-I18)/I18*100),"0.0 ")))))</f>
-        <v xml:space="preserve">+3.2 </v>
+        <v xml:space="preserve">+2.0 </v>
       </c>
       <c r="J23" s="93" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-41.3 </v>
+        <v xml:space="preserve">-32.3 </v>
       </c>
       <c r="K23" s="79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-38.7 </v>
+        <v xml:space="preserve">-32.6 </v>
       </c>
       <c r="L23" s="79" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-35.8 </v>
+        <v xml:space="preserve">-35.4 </v>
       </c>
       <c r="M23" s="81" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v xml:space="preserve">-17.3 </v>
+        <v xml:space="preserve">-18.8 </v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8410,40 +8428,40 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="notBetween">
+      <formula>N1048569-0.5</formula>
+      <formula>N1048569+0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N27">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="notBetween">
+      <formula>N1048572-0.5</formula>
+      <formula>N1048572+0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28:N30">
+    <cfRule type="cellIs" dxfId="3" priority="15" stopIfTrue="1" operator="notBetween">
+      <formula>N14-0.5</formula>
+      <formula>N14+0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P18:P24">
-    <cfRule type="cellIs" dxfId="94" priority="7" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="notBetween">
       <formula>$P7-0.5</formula>
       <formula>$P7+0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N27">
-    <cfRule type="cellIs" dxfId="93" priority="2" stopIfTrue="1" operator="notBetween">
-      <formula>N1048572-0.5</formula>
-      <formula>N1048572+0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P25:P27">
-    <cfRule type="cellIs" dxfId="92" priority="14" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="notBetween">
       <formula>$P13-0.5</formula>
       <formula>$P13+0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N30">
-    <cfRule type="cellIs" dxfId="91" priority="15" stopIfTrue="1" operator="notBetween">
-      <formula>N14-0.5</formula>
-      <formula>N14+0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P28:P30">
-    <cfRule type="cellIs" dxfId="90" priority="18" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="18" stopIfTrue="1" operator="notBetween">
       <formula>$P14-0.5</formula>
       <formula>$P14+0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="89" priority="1" stopIfTrue="1" operator="notBetween">
-      <formula>N1048569-0.5</formula>
-      <formula>N1048569+0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13826,13 +13844,13 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V319"/>
+  <dimension ref="A1:V321"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15.75"/>
@@ -26153,128 +26171,182 @@
     </row>
     <row r="305" spans="1:13">
       <c r="A305" s="120" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B305" s="48">
-        <v>4695.09</v>
+        <v>4665</v>
       </c>
       <c r="C305" s="48">
-        <v>194.39</v>
+        <v>195</v>
       </c>
       <c r="D305" s="48">
-        <v>59.46</v>
+        <v>59</v>
       </c>
       <c r="E305" s="48">
-        <v>17.63</v>
+        <v>2</v>
       </c>
       <c r="F305" s="48">
-        <v>1002.35</v>
+        <v>935</v>
       </c>
       <c r="G305" s="118">
-        <v>742.97</v>
+        <v>743</v>
       </c>
       <c r="H305" s="119">
-        <v>261.42</v>
+        <v>264</v>
       </c>
       <c r="I305" s="48">
-        <v>2004.72</v>
+        <v>1933</v>
       </c>
       <c r="J305" s="119">
-        <v>191.16</v>
+        <v>306</v>
       </c>
       <c r="K305" s="48">
-        <v>11.87</v>
+        <v>16</v>
       </c>
       <c r="L305" s="48">
-        <v>14.69</v>
+        <v>15</v>
       </c>
       <c r="M305" s="48">
-        <v>136.19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="306" spans="1:13">
-      <c r="B306" s="121"/>
-      <c r="C306" s="121"/>
-      <c r="D306" s="121"/>
-      <c r="E306" s="121"/>
-      <c r="F306" s="121"/>
-      <c r="G306" s="121"/>
-      <c r="H306" s="121"/>
-      <c r="I306" s="121"/>
-      <c r="J306" s="121"/>
-      <c r="K306" s="121"/>
-      <c r="L306" s="121"/>
-      <c r="M306" s="121"/>
+      <c r="A306" s="120" t="s">
+        <v>601</v>
+      </c>
+      <c r="B306" s="127">
+        <v>4811</v>
+      </c>
+      <c r="C306" s="128">
+        <v>224</v>
+      </c>
+      <c r="D306" s="128">
+        <v>58</v>
+      </c>
+      <c r="E306" s="128">
+        <v>5</v>
+      </c>
+      <c r="F306" s="128">
+        <v>908</v>
+      </c>
+      <c r="G306" s="129">
+        <v>774</v>
+      </c>
+      <c r="H306" s="130">
+        <v>358</v>
+      </c>
+      <c r="I306" s="128">
+        <v>1922</v>
+      </c>
+      <c r="J306" s="130">
+        <v>277</v>
+      </c>
+      <c r="K306" s="128">
+        <v>18</v>
+      </c>
+      <c r="L306" s="128">
+        <v>17</v>
+      </c>
+      <c r="M306" s="128">
+        <v>96</v>
+      </c>
     </row>
     <row r="307" spans="1:13">
-      <c r="B307" s="121"/>
-      <c r="C307" s="121"/>
-      <c r="D307" s="121"/>
-      <c r="E307" s="121"/>
-      <c r="F307" s="121"/>
-      <c r="G307" s="121"/>
-      <c r="H307" s="121"/>
-      <c r="I307" s="121"/>
-      <c r="J307" s="121"/>
-      <c r="K307" s="121"/>
-      <c r="L307" s="121"/>
-      <c r="M307" s="121"/>
+      <c r="A307" s="120" t="s">
+        <v>602</v>
+      </c>
+      <c r="B307" s="127">
+        <v>4134</v>
+      </c>
+      <c r="C307" s="128">
+        <v>251</v>
+      </c>
+      <c r="D307" s="128">
+        <v>38</v>
+      </c>
+      <c r="E307" s="128">
+        <v>5</v>
+      </c>
+      <c r="F307" s="128">
+        <v>815</v>
+      </c>
+      <c r="G307" s="129">
+        <v>772</v>
+      </c>
+      <c r="H307" s="130">
+        <v>338</v>
+      </c>
+      <c r="I307" s="128">
+        <v>1525</v>
+      </c>
+      <c r="J307" s="130">
+        <v>186</v>
+      </c>
+      <c r="K307" s="128">
+        <v>24</v>
+      </c>
+      <c r="L307" s="128">
+        <v>31</v>
+      </c>
+      <c r="M307" s="128">
+        <v>104</v>
+      </c>
     </row>
     <row r="308" spans="1:13">
-      <c r="B308" s="122"/>
-      <c r="C308" s="122"/>
-      <c r="D308" s="122"/>
-      <c r="E308" s="122"/>
-      <c r="F308" s="122"/>
-      <c r="G308" s="122"/>
-      <c r="H308" s="122"/>
-      <c r="I308" s="122"/>
-      <c r="J308" s="122"/>
-      <c r="K308" s="122"/>
-      <c r="L308" s="122"/>
-      <c r="M308" s="122"/>
+      <c r="B308" s="121"/>
+      <c r="C308" s="121"/>
+      <c r="D308" s="121"/>
+      <c r="E308" s="121"/>
+      <c r="F308" s="121"/>
+      <c r="G308" s="121"/>
+      <c r="H308" s="121"/>
+      <c r="I308" s="121"/>
+      <c r="J308" s="121"/>
+      <c r="K308" s="121"/>
+      <c r="L308" s="121"/>
+      <c r="M308" s="121"/>
     </row>
     <row r="309" spans="1:13">
-      <c r="B309" s="122"/>
-      <c r="C309" s="122"/>
-      <c r="D309" s="122"/>
-      <c r="E309" s="122"/>
-      <c r="F309" s="122"/>
-      <c r="G309" s="122"/>
-      <c r="H309" s="122"/>
-      <c r="I309" s="122"/>
-      <c r="J309" s="122"/>
-      <c r="K309" s="122"/>
-      <c r="L309" s="122"/>
-      <c r="M309" s="122"/>
+      <c r="B309" s="121"/>
+      <c r="C309" s="121"/>
+      <c r="D309" s="121"/>
+      <c r="E309" s="121"/>
+      <c r="F309" s="121"/>
+      <c r="G309" s="121"/>
+      <c r="H309" s="121"/>
+      <c r="I309" s="121"/>
+      <c r="J309" s="121"/>
+      <c r="K309" s="121"/>
+      <c r="L309" s="121"/>
+      <c r="M309" s="121"/>
     </row>
     <row r="310" spans="1:13">
-      <c r="B310" s="121"/>
-      <c r="C310" s="121"/>
-      <c r="D310" s="121"/>
-      <c r="E310" s="121"/>
-      <c r="F310" s="121"/>
-      <c r="G310" s="121"/>
-      <c r="H310" s="121"/>
-      <c r="I310" s="121"/>
-      <c r="J310" s="121"/>
-      <c r="K310" s="121"/>
-      <c r="L310" s="121"/>
-      <c r="M310" s="121"/>
+      <c r="B310" s="122"/>
+      <c r="C310" s="122"/>
+      <c r="D310" s="122"/>
+      <c r="E310" s="122"/>
+      <c r="F310" s="122"/>
+      <c r="G310" s="122"/>
+      <c r="H310" s="122"/>
+      <c r="I310" s="122"/>
+      <c r="J310" s="122"/>
+      <c r="K310" s="122"/>
+      <c r="L310" s="122"/>
+      <c r="M310" s="122"/>
     </row>
     <row r="311" spans="1:13">
-      <c r="B311" s="121"/>
-      <c r="C311" s="121"/>
-      <c r="D311" s="121"/>
-      <c r="E311" s="121"/>
-      <c r="F311" s="121"/>
-      <c r="G311" s="121"/>
-      <c r="H311" s="121"/>
-      <c r="I311" s="121"/>
-      <c r="J311" s="121"/>
-      <c r="K311" s="121"/>
-      <c r="L311" s="121"/>
-      <c r="M311" s="121"/>
+      <c r="B311" s="122"/>
+      <c r="C311" s="122"/>
+      <c r="D311" s="122"/>
+      <c r="E311" s="122"/>
+      <c r="F311" s="122"/>
+      <c r="G311" s="122"/>
+      <c r="H311" s="122"/>
+      <c r="I311" s="122"/>
+      <c r="J311" s="122"/>
+      <c r="K311" s="122"/>
+      <c r="L311" s="122"/>
+      <c r="M311" s="122"/>
     </row>
     <row r="312" spans="1:13">
       <c r="B312" s="121"/>
@@ -26360,6 +26432,20 @@
       <c r="L317" s="121"/>
       <c r="M317" s="121"/>
     </row>
+    <row r="318" spans="1:13">
+      <c r="B318" s="121"/>
+      <c r="C318" s="121"/>
+      <c r="D318" s="121"/>
+      <c r="E318" s="121"/>
+      <c r="F318" s="121"/>
+      <c r="G318" s="121"/>
+      <c r="H318" s="121"/>
+      <c r="I318" s="121"/>
+      <c r="J318" s="121"/>
+      <c r="K318" s="121"/>
+      <c r="L318" s="121"/>
+      <c r="M318" s="121"/>
+    </row>
     <row r="319" spans="1:13">
       <c r="B319" s="121"/>
       <c r="C319" s="121"/>
@@ -26373,6 +26459,20 @@
       <c r="K319" s="121"/>
       <c r="L319" s="121"/>
       <c r="M319" s="121"/>
+    </row>
+    <row r="321" spans="2:13">
+      <c r="B321" s="121"/>
+      <c r="C321" s="121"/>
+      <c r="D321" s="121"/>
+      <c r="E321" s="121"/>
+      <c r="F321" s="121"/>
+      <c r="G321" s="121"/>
+      <c r="H321" s="121"/>
+      <c r="I321" s="121"/>
+      <c r="J321" s="121"/>
+      <c r="K321" s="121"/>
+      <c r="L321" s="121"/>
+      <c r="M321" s="121"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -44941,51 +45041,51 @@
       </c>
       <c r="C320" s="11">
         <f>C319+Month!B305</f>
-        <v>52358.459999999992</v>
+        <v>52328.369999999995</v>
       </c>
       <c r="D320" s="11">
         <f>D319+Month!C305</f>
-        <v>2692.04</v>
+        <v>2692.65</v>
       </c>
       <c r="E320" s="11">
         <f>E319+Month!D305</f>
-        <v>610.74</v>
+        <v>610.28</v>
       </c>
       <c r="F320" s="11">
         <f>F319+Month!E305</f>
-        <v>73.849999999999994</v>
+        <v>58.22</v>
       </c>
       <c r="G320" s="11">
         <f>G319+Month!F305</f>
-        <v>10119.939999999999</v>
+        <v>10052.589999999998</v>
       </c>
       <c r="H320" s="11">
         <f>H319+Month!G305</f>
-        <v>8673.4700000000012</v>
+        <v>8673.5</v>
       </c>
       <c r="I320" s="11">
         <f>I319+Month!H305</f>
-        <v>2641.6800000000003</v>
+        <v>2644.26</v>
       </c>
       <c r="J320" s="11">
         <f>J319+Month!I305</f>
-        <v>21078.050000000003</v>
+        <v>21006.33</v>
       </c>
       <c r="K320" s="11">
         <f>K319+Month!J305</f>
-        <v>3798.3899999999994</v>
+        <v>3913.2299999999996</v>
       </c>
       <c r="L320" s="11">
         <f>L319+Month!K305</f>
-        <v>220.21000000000004</v>
+        <v>224.34000000000003</v>
       </c>
       <c r="M320" s="11">
         <f>M319+Month!L305</f>
-        <v>261.02</v>
+        <v>261.33</v>
       </c>
       <c r="N320" s="11">
         <f>N319+Month!M305</f>
-        <v>1477.01</v>
+        <v>1469.82</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -44998,51 +45098,51 @@
       </c>
       <c r="C321" s="11">
         <f>C320+Month!B305</f>
-        <v>57053.549999999988</v>
+        <v>56993.369999999995</v>
       </c>
       <c r="D321" s="11">
         <f>D320+Month!C305</f>
-        <v>2886.43</v>
+        <v>2887.65</v>
       </c>
       <c r="E321" s="11">
         <f>E320+Month!D305</f>
-        <v>670.2</v>
+        <v>669.28</v>
       </c>
       <c r="F321" s="11">
         <f>F320+Month!E305</f>
-        <v>91.47999999999999</v>
+        <v>60.22</v>
       </c>
       <c r="G321" s="11">
         <f>G320+Month!F305</f>
-        <v>11122.289999999999</v>
+        <v>10987.589999999998</v>
       </c>
       <c r="H321" s="11">
         <f>H320+Month!G305</f>
-        <v>9416.44</v>
+        <v>9416.5</v>
       </c>
       <c r="I321" s="11">
         <f>I320+Month!H305</f>
-        <v>2903.1000000000004</v>
+        <v>2908.26</v>
       </c>
       <c r="J321" s="11">
         <f>J320+Month!I305</f>
-        <v>23082.770000000004</v>
+        <v>22939.33</v>
       </c>
       <c r="K321" s="11">
         <f>K320+Month!J305</f>
-        <v>3989.5499999999993</v>
+        <v>4219.2299999999996</v>
       </c>
       <c r="L321" s="11">
         <f>L320+Month!K305</f>
-        <v>232.08000000000004</v>
+        <v>240.34000000000003</v>
       </c>
       <c r="M321" s="11">
         <f>M320+Month!L305</f>
-        <v>275.70999999999998</v>
+        <v>276.33</v>
       </c>
       <c r="N321" s="11">
         <f>N320+Month!M305</f>
-        <v>1613.2</v>
+        <v>1598.82</v>
       </c>
     </row>
   </sheetData>
